--- a/home/zf_info/zebraShareSubmission.xlsx
+++ b/home/zf_info/zebraShareSubmission.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uoregon-my.sharepoint.com/personal/doughowe_uoregon_edu/Documents/Projects/zShare/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Leyla/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{01AD7D23-115C-BF41-8424-CCE389856CF1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{9FA80D8B-3686-4F42-AF02-83ED769491DE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{15BFA4F6-E356-5148-AB61-D165BC20F563}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="980" yWindow="460" windowWidth="41300" windowHeight="15400" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="980" yWindow="460" windowWidth="47600" windowHeight="20100" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="180">
   <si>
     <t>Mutagen</t>
   </si>
@@ -379,9 +379,6 @@
   </si>
   <si>
     <t>ZDB-GENE-######-##</t>
-  </si>
-  <si>
-    <t>Embryos</t>
   </si>
   <si>
     <t>treated with</t>
@@ -1794,8 +1791,6 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
@@ -1821,10 +1816,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1834,10 +1825,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1953,6 +1940,16 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2249,23 +2246,23 @@
     <row r="1" spans="1:26" ht="16" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:26" ht="31" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+      <c r="B3" s="3"/>
+    </row>
+    <row r="4" spans="1:26" ht="31" x14ac:dyDescent="0.2">
+      <c r="B4" s="4" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="B3" s="3"/>
-    </row>
-    <row r="4" spans="1:26" ht="31" x14ac:dyDescent="0.2">
-      <c r="B4" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
     <row r="5" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="B5" s="3"/>
     </row>
     <row r="6" spans="1:26" ht="121" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="16" x14ac:dyDescent="0.2">
@@ -2289,7 +2286,7 @@
     </row>
     <row r="12" spans="1:26" ht="24" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="16" x14ac:dyDescent="0.2">
@@ -2297,7 +2294,7 @@
     </row>
     <row r="14" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="B14" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="16" x14ac:dyDescent="0.2"/>
@@ -2333,7 +2330,7 @@
     </row>
     <row r="17" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="B17" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -3337,8 +3334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AI999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U6" zoomScale="102" workbookViewId="0">
-      <selection activeCell="W13" sqref="W13"/>
+    <sheetView tabSelected="1" zoomScale="102" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3370,749 +3367,742 @@
     <col min="36" max="16384" width="11.1640625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="31" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:35" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="C1" s="30"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+    </row>
+    <row r="2" spans="1:35" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" s="34"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+    </row>
+    <row r="3" spans="1:35" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3" s="34"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+    </row>
+    <row r="4" spans="1:35" s="33" customFormat="1" ht="96" x14ac:dyDescent="0.25">
+      <c r="A4" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="82" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="N4" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="O4" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="P4" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="R4" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="S4" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="T4" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="U4" s="38" t="s">
+        <v>178</v>
+      </c>
+      <c r="V4" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="W4" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="X4" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y4" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z4" s="84" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA4" s="85"/>
+      <c r="AB4" s="85"/>
+      <c r="AC4" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD4" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="AE4" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF4" s="38"/>
+      <c r="AG4" s="38"/>
+      <c r="AH4" s="38"/>
+      <c r="AI4" s="38"/>
+    </row>
+    <row r="5" spans="1:35" s="60" customFormat="1" ht="187" x14ac:dyDescent="0.2">
+      <c r="A5" s="43" t="s">
+        <v>156</v>
+      </c>
+      <c r="B5" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="D5" s="44" t="s">
+        <v>136</v>
+      </c>
+      <c r="E5" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="F5" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="G5" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="H5" s="46" t="s">
+        <v>177</v>
+      </c>
+      <c r="I5" s="47" t="s">
+        <v>158</v>
+      </c>
+      <c r="J5" s="48" t="s">
+        <v>143</v>
+      </c>
+      <c r="K5" s="49" t="s">
+        <v>159</v>
+      </c>
+      <c r="L5" s="50" t="s">
+        <v>176</v>
+      </c>
+      <c r="M5" s="51" t="s">
+        <v>95</v>
+      </c>
+      <c r="N5" s="44" t="s">
+        <v>148</v>
+      </c>
+      <c r="O5" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="P5" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q5" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="R5" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="S5" s="53" t="s">
+        <v>147</v>
+      </c>
+      <c r="T5" s="44" t="s">
+        <v>147</v>
+      </c>
+      <c r="U5" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="V5" s="44" t="s">
+        <v>101</v>
+      </c>
+      <c r="W5" s="54" t="s">
+        <v>139</v>
+      </c>
+      <c r="X5" s="55" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y5" s="56" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z5" s="56" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA5" s="56" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB5" s="56" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC5" s="57" t="s">
         <v>175</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-    </row>
-    <row r="2" spans="1:35" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="34" t="s">
-        <v>146</v>
+      <c r="AD5" s="58" t="s">
+        <v>149</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-    </row>
-    <row r="3" spans="1:35" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="34" t="s">
-        <v>147</v>
+      <c r="AE5" s="53" t="s">
+        <v>96</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-    </row>
-    <row r="4" spans="1:35" s="35" customFormat="1" ht="96" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="40" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="I4" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="J4" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="M4" s="40" t="s">
-        <v>139</v>
-      </c>
-      <c r="N4" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="O4" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="P4" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q4" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="R4" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="S4" s="40" t="s">
-        <v>180</v>
-      </c>
-      <c r="T4" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="U4" s="40" t="s">
-        <v>179</v>
-      </c>
-      <c r="V4" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="W4" s="45" t="s">
-        <v>83</v>
-      </c>
-      <c r="X4" s="46" t="s">
-        <v>143</v>
-      </c>
-      <c r="Y4" s="45" t="s">
-        <v>142</v>
-      </c>
-      <c r="Z4" s="47" t="s">
+      <c r="AF5" s="59"/>
+      <c r="AG5" s="59"/>
+      <c r="AH5" s="59"/>
+      <c r="AI5" s="59"/>
+    </row>
+    <row r="6" spans="1:35" s="33" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="61" t="s">
         <v>151</v>
       </c>
-      <c r="AA4" s="48"/>
-      <c r="AB4" s="48"/>
-      <c r="AC4" s="40" t="s">
-        <v>89</v>
+      <c r="B6" s="62" t="s">
+        <v>107</v>
       </c>
-      <c r="AD4" s="40" t="s">
-        <v>90</v>
+      <c r="C6" s="63" t="s">
+        <v>108</v>
       </c>
-      <c r="AE4" s="44" t="s">
-        <v>91</v>
+      <c r="D6" s="62" t="s">
+        <v>41</v>
       </c>
-      <c r="AF4" s="40"/>
-      <c r="AG4" s="40"/>
-      <c r="AH4" s="40"/>
-      <c r="AI4" s="40"/>
-    </row>
-    <row r="5" spans="1:35" s="66" customFormat="1" ht="187" x14ac:dyDescent="0.2">
-      <c r="A5" s="49" t="s">
+      <c r="E6" s="64" t="s">
+        <v>109</v>
+      </c>
+      <c r="F6" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="65" t="s">
+        <v>110</v>
+      </c>
+      <c r="H6" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="66" t="s">
+        <v>111</v>
+      </c>
+      <c r="J6" s="67" t="s">
+        <v>144</v>
+      </c>
+      <c r="K6" s="68" t="s">
         <v>157</v>
       </c>
-      <c r="B5" s="50" t="s">
-        <v>135</v>
+      <c r="L6" s="69" t="s">
+        <v>123</v>
       </c>
-      <c r="C5" s="49" t="s">
-        <v>138</v>
+      <c r="M6" s="62" t="s">
+        <v>35</v>
       </c>
-      <c r="D5" s="50" t="s">
-        <v>137</v>
+      <c r="N6" s="70" t="s">
+        <v>160</v>
       </c>
-      <c r="E5" s="50" t="s">
-        <v>92</v>
+      <c r="O6" s="71" t="s">
+        <v>28</v>
       </c>
-      <c r="F5" s="51" t="s">
-        <v>136</v>
+      <c r="P6" s="71" t="s">
+        <v>28</v>
       </c>
-      <c r="G5" s="51" t="s">
-        <v>93</v>
+      <c r="Q6" s="71" t="s">
+        <v>28</v>
       </c>
-      <c r="H5" s="52" t="s">
-        <v>178</v>
+      <c r="R6" s="72" t="s">
+        <v>112</v>
       </c>
-      <c r="I5" s="53" t="s">
-        <v>159</v>
+      <c r="S6" s="73" t="s">
+        <v>29</v>
       </c>
-      <c r="J5" s="54" t="s">
+      <c r="T6" s="71" t="s">
+        <v>30</v>
+      </c>
+      <c r="U6" s="70" t="s">
+        <v>161</v>
+      </c>
+      <c r="V6" s="74" t="s">
+        <v>170</v>
+      </c>
+      <c r="W6" s="75"/>
+      <c r="X6" s="75"/>
+      <c r="Y6" s="75"/>
+      <c r="Z6" s="75" t="s">
+        <v>164</v>
+      </c>
+      <c r="AA6" s="70"/>
+      <c r="AB6" s="71"/>
+      <c r="AC6" s="74" t="s">
+        <v>167</v>
+      </c>
+      <c r="AD6" s="72" t="s">
+        <v>118</v>
+      </c>
+      <c r="AE6" s="72"/>
+      <c r="AF6" s="76"/>
+      <c r="AG6" s="76"/>
+      <c r="AH6" s="76"/>
+      <c r="AI6" s="76"/>
+    </row>
+    <row r="7" spans="1:35" s="33" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="61" t="s">
+        <v>151</v>
+      </c>
+      <c r="B7" s="62" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" s="63" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" s="62" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="64" t="s">
+        <v>109</v>
+      </c>
+      <c r="F7" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="65" t="s">
+        <v>110</v>
+      </c>
+      <c r="H7" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="66" t="s">
+        <v>111</v>
+      </c>
+      <c r="J7" s="67" t="s">
         <v>144</v>
       </c>
-      <c r="K5" s="55" t="s">
+      <c r="K7" s="68" t="s">
+        <v>157</v>
+      </c>
+      <c r="L7" s="69" t="s">
+        <v>123</v>
+      </c>
+      <c r="M7" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="N7" s="70" t="s">
         <v>160</v>
       </c>
-      <c r="L5" s="56" t="s">
-        <v>177</v>
+      <c r="O7" s="71" t="s">
+        <v>28</v>
       </c>
-      <c r="M5" s="57" t="s">
-        <v>95</v>
+      <c r="P7" s="71" t="s">
+        <v>28</v>
       </c>
-      <c r="N5" s="50" t="s">
-        <v>149</v>
+      <c r="Q7" s="71" t="s">
+        <v>28</v>
       </c>
-      <c r="O5" s="50" t="s">
-        <v>97</v>
+      <c r="R7" s="63" t="s">
+        <v>112</v>
       </c>
-      <c r="P5" s="50" t="s">
-        <v>98</v>
+      <c r="S7" s="73" t="s">
+        <v>29</v>
       </c>
-      <c r="Q5" s="50" t="s">
-        <v>98</v>
+      <c r="T7" s="71" t="s">
+        <v>30</v>
       </c>
-      <c r="R5" s="58" t="s">
-        <v>99</v>
+      <c r="U7" s="70" t="s">
+        <v>161</v>
       </c>
-      <c r="S5" s="59" t="s">
-        <v>148</v>
+      <c r="V7" s="72"/>
+      <c r="W7" s="75" t="s">
+        <v>163</v>
       </c>
-      <c r="T5" s="50" t="s">
-        <v>148</v>
+      <c r="X7" s="75" t="s">
+        <v>113</v>
       </c>
-      <c r="U5" s="59" t="s">
-        <v>100</v>
+      <c r="Y7" s="75" t="s">
+        <v>114</v>
       </c>
-      <c r="V5" s="50" t="s">
-        <v>101</v>
+      <c r="Z7" s="75" t="s">
+        <v>164</v>
       </c>
-      <c r="W5" s="60" t="s">
-        <v>140</v>
+      <c r="AA7" s="70"/>
+      <c r="AB7" s="71"/>
+      <c r="AC7" s="74" t="s">
+        <v>165</v>
       </c>
-      <c r="X5" s="61" t="s">
-        <v>141</v>
+      <c r="AD7" s="74" t="s">
+        <v>168</v>
       </c>
-      <c r="Y5" s="62" t="s">
-        <v>103</v>
-      </c>
-      <c r="Z5" s="62" t="s">
-        <v>104</v>
-      </c>
-      <c r="AA5" s="62" t="s">
-        <v>105</v>
-      </c>
-      <c r="AB5" s="62" t="s">
-        <v>106</v>
-      </c>
-      <c r="AC5" s="63" t="s">
-        <v>176</v>
-      </c>
-      <c r="AD5" s="64" t="s">
-        <v>150</v>
-      </c>
-      <c r="AE5" s="59" t="s">
-        <v>96</v>
-      </c>
-      <c r="AF5" s="65"/>
-      <c r="AG5" s="65"/>
-      <c r="AH5" s="65"/>
-      <c r="AI5" s="65"/>
-    </row>
-    <row r="6" spans="1:35" s="35" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="67" t="s">
+      <c r="AE7" s="72"/>
+      <c r="AF7" s="76"/>
+      <c r="AG7" s="76"/>
+      <c r="AH7" s="76"/>
+      <c r="AI7" s="76"/>
+    </row>
+    <row r="8" spans="1:35" s="33" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="77" t="s">
         <v>152</v>
       </c>
-      <c r="B6" s="68" t="s">
+      <c r="B8" s="62" t="s">
         <v>107</v>
       </c>
-      <c r="C6" s="69" t="s">
+      <c r="C8" s="63" t="s">
         <v>108</v>
       </c>
-      <c r="D6" s="68" t="s">
+      <c r="D8" s="62" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="64" t="s">
         <v>109</v>
       </c>
-      <c r="E6" s="70" t="s">
+      <c r="F8" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="65" t="s">
         <v>110</v>
       </c>
-      <c r="F6" s="71" t="s">
+      <c r="H8" s="78" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="66" t="s">
+        <v>119</v>
+      </c>
+      <c r="J8" s="67" t="s">
+        <v>144</v>
+      </c>
+      <c r="K8" s="68" t="s">
+        <v>171</v>
+      </c>
+      <c r="L8" s="69" t="s">
+        <v>124</v>
+      </c>
+      <c r="M8" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="N8" s="70" t="s">
+        <v>160</v>
+      </c>
+      <c r="O8" s="71" t="s">
+        <v>28</v>
+      </c>
+      <c r="P8" s="71" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q8" s="71" t="s">
+        <v>28</v>
+      </c>
+      <c r="R8" s="79" t="s">
+        <v>112</v>
+      </c>
+      <c r="S8" s="79" t="s">
+        <v>29</v>
+      </c>
+      <c r="T8" s="71" t="s">
+        <v>30</v>
+      </c>
+      <c r="U8" s="70" t="s">
+        <v>161</v>
+      </c>
+      <c r="V8" s="74" t="s">
+        <v>169</v>
+      </c>
+      <c r="W8" s="75" t="s">
+        <v>162</v>
+      </c>
+      <c r="X8" s="75"/>
+      <c r="Y8" s="75"/>
+      <c r="Z8" s="79" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA8" s="79" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB8" s="63" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC8" s="70" t="s">
+        <v>166</v>
+      </c>
+      <c r="AD8" s="74" t="s">
+        <v>173</v>
+      </c>
+      <c r="AE8" s="72"/>
+      <c r="AF8" s="80"/>
+      <c r="AG8" s="80"/>
+      <c r="AH8" s="80"/>
+      <c r="AI8" s="80"/>
+    </row>
+    <row r="9" spans="1:35" s="33" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="77" t="s">
+        <v>153</v>
+      </c>
+      <c r="B9" s="62" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="63" t="s">
+        <v>108</v>
+      </c>
+      <c r="D9" s="62" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="64" t="s">
+        <v>109</v>
+      </c>
+      <c r="F9" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="71" t="s">
-        <v>111</v>
+      <c r="G9" s="65" t="s">
+        <v>110</v>
       </c>
-      <c r="H6" s="69" t="s">
-        <v>26</v>
+      <c r="H9" s="78" t="s">
+        <v>42</v>
       </c>
-      <c r="I6" s="72" t="s">
+      <c r="I9" s="66" t="s">
+        <v>120</v>
+      </c>
+      <c r="J9" s="67" t="s">
+        <v>144</v>
+      </c>
+      <c r="K9" s="80"/>
+      <c r="L9" s="69" t="s">
+        <v>125</v>
+      </c>
+      <c r="M9" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="N9" s="70" t="s">
+        <v>160</v>
+      </c>
+      <c r="O9" s="71" t="s">
+        <v>28</v>
+      </c>
+      <c r="P9" s="71" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q9" s="71" t="s">
+        <v>28</v>
+      </c>
+      <c r="R9" s="79" t="s">
         <v>112</v>
       </c>
-      <c r="J6" s="73" t="s">
-        <v>145</v>
+      <c r="S9" s="79" t="s">
+        <v>29</v>
       </c>
-      <c r="K6" s="74" t="s">
-        <v>158</v>
+      <c r="T9" s="71" t="s">
+        <v>30</v>
       </c>
-      <c r="L6" s="75" t="s">
-        <v>124</v>
+      <c r="U9" s="70" t="s">
+        <v>161</v>
       </c>
-      <c r="M6" s="68" t="s">
+      <c r="V9" s="80"/>
+      <c r="W9" s="80"/>
+      <c r="X9" s="80"/>
+      <c r="Y9" s="80"/>
+      <c r="Z9" s="80"/>
+      <c r="AA9" s="80"/>
+      <c r="AB9" s="80"/>
+      <c r="AC9" s="80"/>
+      <c r="AD9" s="80"/>
+      <c r="AE9" s="80"/>
+      <c r="AF9" s="80"/>
+      <c r="AG9" s="80"/>
+      <c r="AH9" s="80"/>
+      <c r="AI9" s="80"/>
+    </row>
+    <row r="10" spans="1:35" s="33" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A10" s="77" t="s">
+        <v>154</v>
+      </c>
+      <c r="B10" s="62" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" s="63" t="s">
+        <v>108</v>
+      </c>
+      <c r="D10" s="62" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="64" t="s">
+        <v>109</v>
+      </c>
+      <c r="F10" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="65" t="s">
+        <v>110</v>
+      </c>
+      <c r="H10" s="78" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="J10" s="67" t="s">
+        <v>144</v>
+      </c>
+      <c r="K10" s="80"/>
+      <c r="L10" s="69" t="s">
+        <v>127</v>
+      </c>
+      <c r="M10" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="N6" s="76" t="s">
+      <c r="N10" s="70" t="s">
+        <v>160</v>
+      </c>
+      <c r="O10" s="71" t="s">
+        <v>28</v>
+      </c>
+      <c r="P10" s="71" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q10" s="71" t="s">
+        <v>28</v>
+      </c>
+      <c r="R10" s="79" t="s">
+        <v>112</v>
+      </c>
+      <c r="S10" s="79" t="s">
+        <v>29</v>
+      </c>
+      <c r="T10" s="71" t="s">
+        <v>30</v>
+      </c>
+      <c r="U10" s="70" t="s">
         <v>161</v>
       </c>
-      <c r="O6" s="77" t="s">
+      <c r="V10" s="80"/>
+      <c r="W10" s="80"/>
+      <c r="X10" s="80"/>
+      <c r="Y10" s="80"/>
+      <c r="Z10" s="80"/>
+      <c r="AA10" s="80"/>
+      <c r="AB10" s="80"/>
+      <c r="AC10" s="80"/>
+      <c r="AD10" s="80"/>
+      <c r="AE10" s="80"/>
+      <c r="AF10" s="80"/>
+      <c r="AG10" s="80"/>
+      <c r="AH10" s="80"/>
+      <c r="AI10" s="80"/>
+    </row>
+    <row r="11" spans="1:35" s="33" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A11" s="77" t="s">
+        <v>155</v>
+      </c>
+      <c r="B11" s="62" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" s="63" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" s="62" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="64" t="s">
+        <v>109</v>
+      </c>
+      <c r="F11" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="65" t="s">
+        <v>110</v>
+      </c>
+      <c r="H11" s="81" t="s">
+        <v>60</v>
+      </c>
+      <c r="I11" s="66" t="s">
+        <v>122</v>
+      </c>
+      <c r="J11" s="67" t="s">
+        <v>144</v>
+      </c>
+      <c r="K11" s="80"/>
+      <c r="L11" s="69" t="s">
+        <v>126</v>
+      </c>
+      <c r="M11" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="N11" s="70" t="s">
+        <v>160</v>
+      </c>
+      <c r="O11" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="P6" s="77" t="s">
+      <c r="P11" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="Q6" s="77" t="s">
+      <c r="Q11" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="R6" s="78" t="s">
-        <v>113</v>
+      <c r="R11" s="79" t="s">
+        <v>112</v>
       </c>
-      <c r="S6" s="79" t="s">
+      <c r="S11" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="T6" s="77" t="s">
+      <c r="T11" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="U6" s="76" t="s">
-        <v>162</v>
-      </c>
-      <c r="V6" s="80" t="s">
-        <v>171</v>
-      </c>
-      <c r="W6" s="81"/>
-      <c r="X6" s="81"/>
-      <c r="Y6" s="81"/>
-      <c r="Z6" s="81" t="s">
-        <v>165</v>
-      </c>
-      <c r="AA6" s="76"/>
-      <c r="AB6" s="77"/>
-      <c r="AC6" s="80" t="s">
-        <v>168</v>
-      </c>
-      <c r="AD6" s="78" t="s">
-        <v>119</v>
-      </c>
-      <c r="AE6" s="78"/>
-      <c r="AF6" s="82"/>
-      <c r="AG6" s="82"/>
-      <c r="AH6" s="82"/>
-      <c r="AI6" s="82"/>
-    </row>
-    <row r="7" spans="1:35" s="35" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="67" t="s">
-        <v>152</v>
-      </c>
-      <c r="B7" s="68" t="s">
-        <v>107</v>
-      </c>
-      <c r="C7" s="69" t="s">
-        <v>108</v>
-      </c>
-      <c r="D7" s="68" t="s">
-        <v>109</v>
-      </c>
-      <c r="E7" s="70" t="s">
-        <v>110</v>
-      </c>
-      <c r="F7" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="71" t="s">
-        <v>111</v>
-      </c>
-      <c r="H7" s="69" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" s="72" t="s">
-        <v>112</v>
-      </c>
-      <c r="J7" s="73" t="s">
-        <v>145</v>
-      </c>
-      <c r="K7" s="74" t="s">
-        <v>158</v>
-      </c>
-      <c r="L7" s="75" t="s">
-        <v>124</v>
-      </c>
-      <c r="M7" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="N7" s="76" t="s">
+      <c r="U11" s="70" t="s">
         <v>161</v>
       </c>
-      <c r="O7" s="77" t="s">
-        <v>28</v>
-      </c>
-      <c r="P7" s="77" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q7" s="77" t="s">
-        <v>28</v>
-      </c>
-      <c r="R7" s="69" t="s">
-        <v>113</v>
-      </c>
-      <c r="S7" s="79" t="s">
-        <v>29</v>
-      </c>
-      <c r="T7" s="77" t="s">
-        <v>30</v>
-      </c>
-      <c r="U7" s="76" t="s">
-        <v>162</v>
-      </c>
-      <c r="V7" s="78"/>
-      <c r="W7" s="81" t="s">
-        <v>164</v>
-      </c>
-      <c r="X7" s="81" t="s">
-        <v>114</v>
-      </c>
-      <c r="Y7" s="81" t="s">
-        <v>115</v>
-      </c>
-      <c r="Z7" s="81" t="s">
-        <v>165</v>
-      </c>
-      <c r="AA7" s="76"/>
-      <c r="AB7" s="77"/>
-      <c r="AC7" s="80" t="s">
-        <v>166</v>
-      </c>
-      <c r="AD7" s="80" t="s">
-        <v>169</v>
-      </c>
-      <c r="AE7" s="78"/>
-      <c r="AF7" s="82"/>
-      <c r="AG7" s="82"/>
-      <c r="AH7" s="82"/>
-      <c r="AI7" s="82"/>
-    </row>
-    <row r="8" spans="1:35" s="35" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="83" t="s">
-        <v>153</v>
-      </c>
-      <c r="B8" s="68" t="s">
-        <v>107</v>
-      </c>
-      <c r="C8" s="69" t="s">
-        <v>108</v>
-      </c>
-      <c r="D8" s="68" t="s">
-        <v>109</v>
-      </c>
-      <c r="E8" s="70" t="s">
-        <v>110</v>
-      </c>
-      <c r="F8" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="71" t="s">
-        <v>111</v>
-      </c>
-      <c r="H8" s="84" t="s">
-        <v>34</v>
-      </c>
-      <c r="I8" s="72" t="s">
-        <v>120</v>
-      </c>
-      <c r="J8" s="73" t="s">
-        <v>145</v>
-      </c>
-      <c r="K8" s="74" t="s">
-        <v>172</v>
-      </c>
-      <c r="L8" s="75" t="s">
-        <v>125</v>
-      </c>
-      <c r="M8" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="N8" s="76" t="s">
-        <v>161</v>
-      </c>
-      <c r="O8" s="77" t="s">
-        <v>28</v>
-      </c>
-      <c r="P8" s="77" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q8" s="77" t="s">
-        <v>28</v>
-      </c>
-      <c r="R8" s="85" t="s">
-        <v>113</v>
-      </c>
-      <c r="S8" s="85" t="s">
-        <v>29</v>
-      </c>
-      <c r="T8" s="77" t="s">
-        <v>30</v>
-      </c>
-      <c r="U8" s="76" t="s">
-        <v>162</v>
-      </c>
-      <c r="V8" s="80" t="s">
-        <v>170</v>
-      </c>
-      <c r="W8" s="81" t="s">
-        <v>163</v>
-      </c>
-      <c r="X8" s="81"/>
-      <c r="Y8" s="81"/>
-      <c r="Z8" s="85" t="s">
-        <v>116</v>
-      </c>
-      <c r="AA8" s="85" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB8" s="69" t="s">
-        <v>118</v>
-      </c>
-      <c r="AC8" s="76" t="s">
-        <v>167</v>
-      </c>
-      <c r="AD8" s="80" t="s">
-        <v>174</v>
-      </c>
-      <c r="AE8" s="78"/>
-      <c r="AF8" s="86"/>
-      <c r="AG8" s="86"/>
-      <c r="AH8" s="86"/>
-      <c r="AI8" s="86"/>
-    </row>
-    <row r="9" spans="1:35" s="35" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="83" t="s">
-        <v>154</v>
-      </c>
-      <c r="B9" s="68" t="s">
-        <v>107</v>
-      </c>
-      <c r="C9" s="69" t="s">
-        <v>108</v>
-      </c>
-      <c r="D9" s="68" t="s">
-        <v>109</v>
-      </c>
-      <c r="E9" s="70" t="s">
-        <v>110</v>
-      </c>
-      <c r="F9" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="71" t="s">
-        <v>111</v>
-      </c>
-      <c r="H9" s="84" t="s">
-        <v>42</v>
-      </c>
-      <c r="I9" s="72" t="s">
-        <v>121</v>
-      </c>
-      <c r="J9" s="73" t="s">
-        <v>145</v>
-      </c>
-      <c r="K9" s="86"/>
-      <c r="L9" s="75" t="s">
-        <v>126</v>
-      </c>
-      <c r="M9" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="N9" s="76" t="s">
-        <v>161</v>
-      </c>
-      <c r="O9" s="77" t="s">
-        <v>28</v>
-      </c>
-      <c r="P9" s="77" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q9" s="77" t="s">
-        <v>28</v>
-      </c>
-      <c r="R9" s="85" t="s">
-        <v>113</v>
-      </c>
-      <c r="S9" s="85" t="s">
-        <v>29</v>
-      </c>
-      <c r="T9" s="77" t="s">
-        <v>30</v>
-      </c>
-      <c r="U9" s="76" t="s">
-        <v>162</v>
-      </c>
-      <c r="V9" s="86"/>
-      <c r="W9" s="86"/>
-      <c r="X9" s="86"/>
-      <c r="Y9" s="86"/>
-      <c r="Z9" s="86"/>
-      <c r="AA9" s="86"/>
-      <c r="AB9" s="86"/>
-      <c r="AC9" s="86"/>
-      <c r="AD9" s="86"/>
-      <c r="AE9" s="86"/>
-      <c r="AF9" s="86"/>
-      <c r="AG9" s="86"/>
-      <c r="AH9" s="86"/>
-      <c r="AI9" s="86"/>
-    </row>
-    <row r="10" spans="1:35" s="35" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A10" s="83" t="s">
-        <v>155</v>
-      </c>
-      <c r="B10" s="68" t="s">
-        <v>107</v>
-      </c>
-      <c r="C10" s="69" t="s">
-        <v>108</v>
-      </c>
-      <c r="D10" s="68" t="s">
-        <v>109</v>
-      </c>
-      <c r="E10" s="70" t="s">
-        <v>110</v>
-      </c>
-      <c r="F10" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="71" t="s">
-        <v>111</v>
-      </c>
-      <c r="H10" s="84" t="s">
-        <v>48</v>
-      </c>
-      <c r="I10" s="72" t="s">
-        <v>122</v>
-      </c>
-      <c r="J10" s="73" t="s">
-        <v>145</v>
-      </c>
-      <c r="K10" s="86"/>
-      <c r="L10" s="75" t="s">
-        <v>128</v>
-      </c>
-      <c r="M10" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="N10" s="76" t="s">
-        <v>161</v>
-      </c>
-      <c r="O10" s="77" t="s">
-        <v>28</v>
-      </c>
-      <c r="P10" s="77" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q10" s="77" t="s">
-        <v>28</v>
-      </c>
-      <c r="R10" s="85" t="s">
-        <v>113</v>
-      </c>
-      <c r="S10" s="85" t="s">
-        <v>29</v>
-      </c>
-      <c r="T10" s="77" t="s">
-        <v>30</v>
-      </c>
-      <c r="U10" s="76" t="s">
-        <v>162</v>
-      </c>
-      <c r="V10" s="86"/>
-      <c r="W10" s="86"/>
-      <c r="X10" s="86"/>
-      <c r="Y10" s="86"/>
-      <c r="Z10" s="86"/>
-      <c r="AA10" s="86"/>
-      <c r="AB10" s="86"/>
-      <c r="AC10" s="86"/>
-      <c r="AD10" s="86"/>
-      <c r="AE10" s="86"/>
-      <c r="AF10" s="86"/>
-      <c r="AG10" s="86"/>
-      <c r="AH10" s="86"/>
-      <c r="AI10" s="86"/>
-    </row>
-    <row r="11" spans="1:35" s="35" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A11" s="83" t="s">
-        <v>156</v>
-      </c>
-      <c r="B11" s="68" t="s">
-        <v>107</v>
-      </c>
-      <c r="C11" s="69" t="s">
-        <v>108</v>
-      </c>
-      <c r="D11" s="68" t="s">
-        <v>109</v>
-      </c>
-      <c r="E11" s="70" t="s">
-        <v>110</v>
-      </c>
-      <c r="F11" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" s="71" t="s">
-        <v>111</v>
-      </c>
-      <c r="H11" s="87" t="s">
-        <v>60</v>
-      </c>
-      <c r="I11" s="72" t="s">
-        <v>123</v>
-      </c>
-      <c r="J11" s="73" t="s">
-        <v>145</v>
-      </c>
-      <c r="K11" s="86"/>
-      <c r="L11" s="75" t="s">
-        <v>127</v>
-      </c>
-      <c r="M11" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="N11" s="76" t="s">
-        <v>161</v>
-      </c>
-      <c r="O11" s="77" t="s">
-        <v>28</v>
-      </c>
-      <c r="P11" s="77" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q11" s="77" t="s">
-        <v>28</v>
-      </c>
-      <c r="R11" s="85" t="s">
-        <v>113</v>
-      </c>
-      <c r="S11" s="85" t="s">
-        <v>29</v>
-      </c>
-      <c r="T11" s="77" t="s">
-        <v>30</v>
-      </c>
-      <c r="U11" s="76" t="s">
-        <v>162</v>
-      </c>
-      <c r="V11" s="86"/>
-      <c r="W11" s="86"/>
-      <c r="X11" s="86"/>
-      <c r="Y11" s="86"/>
-      <c r="Z11" s="86"/>
-      <c r="AA11" s="86"/>
-      <c r="AB11" s="86"/>
-      <c r="AC11" s="86"/>
-      <c r="AD11" s="86"/>
-      <c r="AE11" s="86"/>
-      <c r="AF11" s="86"/>
-      <c r="AG11" s="86"/>
-      <c r="AH11" s="86"/>
-      <c r="AI11" s="86"/>
-    </row>
-    <row r="12" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V11" s="80"/>
+      <c r="W11" s="80"/>
+      <c r="X11" s="80"/>
+      <c r="Y11" s="80"/>
+      <c r="Z11" s="80"/>
+      <c r="AA11" s="80"/>
+      <c r="AB11" s="80"/>
+      <c r="AC11" s="80"/>
+      <c r="AD11" s="80"/>
+      <c r="AE11" s="80"/>
+      <c r="AF11" s="80"/>
+      <c r="AG11" s="80"/>
+      <c r="AH11" s="80"/>
+      <c r="AI11" s="80"/>
+    </row>
+    <row r="12" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="21"/>
       <c r="B12" s="22"/>
       <c r="C12" s="23"/>
-      <c r="D12" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="24" t="str">
-        <f t="shared" ref="E12:E149" si="0">IF(ISBLANK(D12),"","treated with")</f>
-        <v>treated with</v>
-      </c>
-      <c r="F12" s="21" t="s">
-        <v>40</v>
-      </c>
+      <c r="D12" s="22"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="21"/>
       <c r="G12" s="21"/>
       <c r="H12" s="23"/>
       <c r="I12" s="25"/>
       <c r="J12" s="22"/>
       <c r="K12" s="22"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
       <c r="N12" s="22"/>
       <c r="O12" s="22"/>
       <c r="P12" s="22"/>
@@ -4136,13 +4126,13 @@
       <c r="AH12" s="22"/>
       <c r="AI12" s="22"/>
     </row>
-    <row r="13" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="21"/>
       <c r="B13" s="22"/>
       <c r="C13" s="23"/>
       <c r="D13" s="22"/>
       <c r="E13" s="24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E13:E149" si="0">IF(ISBLANK(D13),"","treated with")</f>
         <v/>
       </c>
       <c r="F13" s="21"/>
@@ -4151,8 +4141,8 @@
       <c r="I13" s="25"/>
       <c r="J13" s="22"/>
       <c r="K13" s="22"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
       <c r="N13" s="22"/>
       <c r="O13" s="22"/>
       <c r="P13" s="22"/>
@@ -4176,7 +4166,7 @@
       <c r="AH13" s="22"/>
       <c r="AI13" s="22"/>
     </row>
-    <row r="14" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="21"/>
       <c r="B14" s="22"/>
       <c r="C14" s="23"/>
@@ -4191,8 +4181,8 @@
       <c r="I14" s="25"/>
       <c r="J14" s="22"/>
       <c r="K14" s="22"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
       <c r="N14" s="22"/>
       <c r="O14" s="22"/>
       <c r="P14" s="22"/>
@@ -4216,7 +4206,7 @@
       <c r="AH14" s="22"/>
       <c r="AI14" s="22"/>
     </row>
-    <row r="15" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="21"/>
       <c r="B15" s="22"/>
       <c r="C15" s="23"/>
@@ -4231,8 +4221,8 @@
       <c r="I15" s="25"/>
       <c r="J15" s="22"/>
       <c r="K15" s="22"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
       <c r="N15" s="22"/>
       <c r="O15" s="22"/>
       <c r="P15" s="22"/>
@@ -4256,7 +4246,7 @@
       <c r="AH15" s="22"/>
       <c r="AI15" s="22"/>
     </row>
-    <row r="16" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="21"/>
       <c r="B16" s="22"/>
       <c r="C16" s="23"/>
@@ -4271,8 +4261,8 @@
       <c r="I16" s="25"/>
       <c r="J16" s="22"/>
       <c r="K16" s="22"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="28"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
       <c r="N16" s="22"/>
       <c r="O16" s="22"/>
       <c r="P16" s="22"/>
@@ -4296,7 +4286,7 @@
       <c r="AH16" s="22"/>
       <c r="AI16" s="22"/>
     </row>
-    <row r="17" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="21"/>
       <c r="B17" s="22"/>
       <c r="C17" s="23"/>
@@ -4311,8 +4301,8 @@
       <c r="I17" s="25"/>
       <c r="J17" s="22"/>
       <c r="K17" s="22"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
       <c r="N17" s="22"/>
       <c r="O17" s="22"/>
       <c r="P17" s="22"/>
@@ -4336,7 +4326,7 @@
       <c r="AH17" s="22"/>
       <c r="AI17" s="22"/>
     </row>
-    <row r="18" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="21"/>
       <c r="B18" s="22"/>
       <c r="C18" s="23"/>
@@ -4351,8 +4341,8 @@
       <c r="I18" s="25"/>
       <c r="J18" s="22"/>
       <c r="K18" s="22"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="28"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
       <c r="N18" s="22"/>
       <c r="O18" s="22"/>
       <c r="P18" s="22"/>
@@ -4376,7 +4366,7 @@
       <c r="AH18" s="22"/>
       <c r="AI18" s="22"/>
     </row>
-    <row r="19" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="21"/>
       <c r="B19" s="22"/>
       <c r="C19" s="23"/>
@@ -4391,8 +4381,8 @@
       <c r="I19" s="25"/>
       <c r="J19" s="22"/>
       <c r="K19" s="22"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="28"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
       <c r="N19" s="22"/>
       <c r="O19" s="22"/>
       <c r="P19" s="22"/>
@@ -4416,7 +4406,7 @@
       <c r="AH19" s="22"/>
       <c r="AI19" s="22"/>
     </row>
-    <row r="20" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="21"/>
       <c r="B20" s="22"/>
       <c r="C20" s="23"/>
@@ -4431,8 +4421,8 @@
       <c r="I20" s="25"/>
       <c r="J20" s="22"/>
       <c r="K20" s="22"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="28"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
       <c r="N20" s="22"/>
       <c r="O20" s="22"/>
       <c r="P20" s="22"/>
@@ -4456,7 +4446,7 @@
       <c r="AH20" s="22"/>
       <c r="AI20" s="22"/>
     </row>
-    <row r="21" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="21"/>
       <c r="B21" s="22"/>
       <c r="C21" s="23"/>
@@ -4471,8 +4461,8 @@
       <c r="I21" s="25"/>
       <c r="J21" s="22"/>
       <c r="K21" s="22"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
       <c r="N21" s="22"/>
       <c r="O21" s="22"/>
       <c r="P21" s="22"/>
@@ -4496,7 +4486,7 @@
       <c r="AH21" s="22"/>
       <c r="AI21" s="22"/>
     </row>
-    <row r="22" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="21"/>
       <c r="B22" s="22"/>
       <c r="C22" s="23"/>
@@ -4511,8 +4501,8 @@
       <c r="I22" s="25"/>
       <c r="J22" s="22"/>
       <c r="K22" s="22"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="28"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
       <c r="N22" s="22"/>
       <c r="O22" s="22"/>
       <c r="P22" s="22"/>
@@ -4536,7 +4526,7 @@
       <c r="AH22" s="22"/>
       <c r="AI22" s="22"/>
     </row>
-    <row r="23" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="21"/>
       <c r="B23" s="22"/>
       <c r="C23" s="23"/>
@@ -4551,8 +4541,8 @@
       <c r="I23" s="25"/>
       <c r="J23" s="22"/>
       <c r="K23" s="22"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="28"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
       <c r="N23" s="22"/>
       <c r="O23" s="22"/>
       <c r="P23" s="22"/>
@@ -4576,7 +4566,7 @@
       <c r="AH23" s="22"/>
       <c r="AI23" s="22"/>
     </row>
-    <row r="24" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="21"/>
       <c r="B24" s="22"/>
       <c r="C24" s="23"/>
@@ -4591,8 +4581,8 @@
       <c r="I24" s="25"/>
       <c r="J24" s="22"/>
       <c r="K24" s="22"/>
-      <c r="L24" s="28"/>
-      <c r="M24" s="28"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="26"/>
       <c r="N24" s="22"/>
       <c r="O24" s="22"/>
       <c r="P24" s="22"/>
@@ -4616,7 +4606,7 @@
       <c r="AH24" s="22"/>
       <c r="AI24" s="22"/>
     </row>
-    <row r="25" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="21"/>
       <c r="B25" s="22"/>
       <c r="C25" s="23"/>
@@ -4631,8 +4621,8 @@
       <c r="I25" s="25"/>
       <c r="J25" s="22"/>
       <c r="K25" s="22"/>
-      <c r="L25" s="28"/>
-      <c r="M25" s="28"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="26"/>
       <c r="N25" s="22"/>
       <c r="O25" s="22"/>
       <c r="P25" s="22"/>
@@ -4656,7 +4646,7 @@
       <c r="AH25" s="22"/>
       <c r="AI25" s="22"/>
     </row>
-    <row r="26" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="21"/>
       <c r="B26" s="22"/>
       <c r="C26" s="23"/>
@@ -4671,8 +4661,8 @@
       <c r="I26" s="25"/>
       <c r="J26" s="22"/>
       <c r="K26" s="22"/>
-      <c r="L26" s="28"/>
-      <c r="M26" s="28"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
       <c r="N26" s="22"/>
       <c r="O26" s="22"/>
       <c r="P26" s="22"/>
@@ -4696,7 +4686,7 @@
       <c r="AH26" s="22"/>
       <c r="AI26" s="22"/>
     </row>
-    <row r="27" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="21"/>
       <c r="B27" s="22"/>
       <c r="C27" s="23"/>
@@ -4711,8 +4701,8 @@
       <c r="I27" s="25"/>
       <c r="J27" s="22"/>
       <c r="K27" s="22"/>
-      <c r="L27" s="28"/>
-      <c r="M27" s="28"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="26"/>
       <c r="N27" s="22"/>
       <c r="O27" s="22"/>
       <c r="P27" s="22"/>
@@ -4736,7 +4726,7 @@
       <c r="AH27" s="22"/>
       <c r="AI27" s="22"/>
     </row>
-    <row r="28" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="21"/>
       <c r="B28" s="22"/>
       <c r="C28" s="23"/>
@@ -4751,8 +4741,8 @@
       <c r="I28" s="25"/>
       <c r="J28" s="22"/>
       <c r="K28" s="22"/>
-      <c r="L28" s="28"/>
-      <c r="M28" s="28"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="26"/>
       <c r="N28" s="22"/>
       <c r="O28" s="22"/>
       <c r="P28" s="22"/>
@@ -4776,7 +4766,7 @@
       <c r="AH28" s="22"/>
       <c r="AI28" s="22"/>
     </row>
-    <row r="29" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="21"/>
       <c r="B29" s="22"/>
       <c r="C29" s="23"/>
@@ -4791,8 +4781,8 @@
       <c r="I29" s="25"/>
       <c r="J29" s="22"/>
       <c r="K29" s="22"/>
-      <c r="L29" s="28"/>
-      <c r="M29" s="28"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="26"/>
       <c r="N29" s="22"/>
       <c r="O29" s="22"/>
       <c r="P29" s="22"/>
@@ -4816,7 +4806,7 @@
       <c r="AH29" s="22"/>
       <c r="AI29" s="22"/>
     </row>
-    <row r="30" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="21"/>
       <c r="B30" s="22"/>
       <c r="C30" s="23"/>
@@ -4831,8 +4821,8 @@
       <c r="I30" s="25"/>
       <c r="J30" s="22"/>
       <c r="K30" s="22"/>
-      <c r="L30" s="28"/>
-      <c r="M30" s="28"/>
+      <c r="L30" s="26"/>
+      <c r="M30" s="26"/>
       <c r="N30" s="22"/>
       <c r="O30" s="22"/>
       <c r="P30" s="22"/>
@@ -4856,7 +4846,7 @@
       <c r="AH30" s="22"/>
       <c r="AI30" s="22"/>
     </row>
-    <row r="31" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="21"/>
       <c r="B31" s="22"/>
       <c r="C31" s="23"/>
@@ -4871,8 +4861,8 @@
       <c r="I31" s="25"/>
       <c r="J31" s="22"/>
       <c r="K31" s="22"/>
-      <c r="L31" s="28"/>
-      <c r="M31" s="28"/>
+      <c r="L31" s="26"/>
+      <c r="M31" s="26"/>
       <c r="N31" s="22"/>
       <c r="O31" s="22"/>
       <c r="P31" s="22"/>
@@ -4896,7 +4886,7 @@
       <c r="AH31" s="22"/>
       <c r="AI31" s="22"/>
     </row>
-    <row r="32" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="21"/>
       <c r="B32" s="22"/>
       <c r="C32" s="23"/>
@@ -4911,8 +4901,8 @@
       <c r="I32" s="25"/>
       <c r="J32" s="22"/>
       <c r="K32" s="22"/>
-      <c r="L32" s="28"/>
-      <c r="M32" s="28"/>
+      <c r="L32" s="26"/>
+      <c r="M32" s="26"/>
       <c r="N32" s="22"/>
       <c r="O32" s="22"/>
       <c r="P32" s="22"/>
@@ -4936,7 +4926,7 @@
       <c r="AH32" s="22"/>
       <c r="AI32" s="22"/>
     </row>
-    <row r="33" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
       <c r="B33" s="22"/>
       <c r="C33" s="23"/>
@@ -4951,8 +4941,8 @@
       <c r="I33" s="25"/>
       <c r="J33" s="22"/>
       <c r="K33" s="22"/>
-      <c r="L33" s="28"/>
-      <c r="M33" s="28"/>
+      <c r="L33" s="26"/>
+      <c r="M33" s="26"/>
       <c r="N33" s="22"/>
       <c r="O33" s="22"/>
       <c r="P33" s="22"/>
@@ -4976,7 +4966,7 @@
       <c r="AH33" s="22"/>
       <c r="AI33" s="22"/>
     </row>
-    <row r="34" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
       <c r="B34" s="22"/>
       <c r="C34" s="23"/>
@@ -4991,8 +4981,8 @@
       <c r="I34" s="25"/>
       <c r="J34" s="22"/>
       <c r="K34" s="22"/>
-      <c r="L34" s="28"/>
-      <c r="M34" s="28"/>
+      <c r="L34" s="26"/>
+      <c r="M34" s="26"/>
       <c r="N34" s="22"/>
       <c r="O34" s="22"/>
       <c r="P34" s="22"/>
@@ -5016,7 +5006,7 @@
       <c r="AH34" s="22"/>
       <c r="AI34" s="22"/>
     </row>
-    <row r="35" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
       <c r="B35" s="22"/>
       <c r="C35" s="23"/>
@@ -5031,8 +5021,8 @@
       <c r="I35" s="25"/>
       <c r="J35" s="22"/>
       <c r="K35" s="22"/>
-      <c r="L35" s="28"/>
-      <c r="M35" s="28"/>
+      <c r="L35" s="26"/>
+      <c r="M35" s="26"/>
       <c r="N35" s="22"/>
       <c r="O35" s="22"/>
       <c r="P35" s="22"/>
@@ -5056,7 +5046,7 @@
       <c r="AH35" s="22"/>
       <c r="AI35" s="22"/>
     </row>
-    <row r="36" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
       <c r="B36" s="22"/>
       <c r="C36" s="23"/>
@@ -5071,8 +5061,8 @@
       <c r="I36" s="25"/>
       <c r="J36" s="22"/>
       <c r="K36" s="22"/>
-      <c r="L36" s="28"/>
-      <c r="M36" s="28"/>
+      <c r="L36" s="26"/>
+      <c r="M36" s="26"/>
       <c r="N36" s="22"/>
       <c r="O36" s="22"/>
       <c r="P36" s="22"/>
@@ -5096,7 +5086,7 @@
       <c r="AH36" s="22"/>
       <c r="AI36" s="22"/>
     </row>
-    <row r="37" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
       <c r="B37" s="22"/>
       <c r="C37" s="23"/>
@@ -5111,8 +5101,8 @@
       <c r="I37" s="25"/>
       <c r="J37" s="22"/>
       <c r="K37" s="22"/>
-      <c r="L37" s="28"/>
-      <c r="M37" s="28"/>
+      <c r="L37" s="26"/>
+      <c r="M37" s="26"/>
       <c r="N37" s="22"/>
       <c r="O37" s="22"/>
       <c r="P37" s="22"/>
@@ -5136,7 +5126,7 @@
       <c r="AH37" s="22"/>
       <c r="AI37" s="22"/>
     </row>
-    <row r="38" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
       <c r="B38" s="22"/>
       <c r="C38" s="23"/>
@@ -5151,8 +5141,8 @@
       <c r="I38" s="25"/>
       <c r="J38" s="22"/>
       <c r="K38" s="22"/>
-      <c r="L38" s="28"/>
-      <c r="M38" s="28"/>
+      <c r="L38" s="26"/>
+      <c r="M38" s="26"/>
       <c r="N38" s="22"/>
       <c r="O38" s="22"/>
       <c r="P38" s="22"/>
@@ -5176,7 +5166,7 @@
       <c r="AH38" s="22"/>
       <c r="AI38" s="22"/>
     </row>
-    <row r="39" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
       <c r="B39" s="22"/>
       <c r="C39" s="23"/>
@@ -5191,8 +5181,8 @@
       <c r="I39" s="25"/>
       <c r="J39" s="22"/>
       <c r="K39" s="22"/>
-      <c r="L39" s="28"/>
-      <c r="M39" s="28"/>
+      <c r="L39" s="26"/>
+      <c r="M39" s="26"/>
       <c r="N39" s="22"/>
       <c r="O39" s="22"/>
       <c r="P39" s="22"/>
@@ -5216,7 +5206,7 @@
       <c r="AH39" s="22"/>
       <c r="AI39" s="22"/>
     </row>
-    <row r="40" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
       <c r="B40" s="22"/>
       <c r="C40" s="23"/>
@@ -5231,8 +5221,8 @@
       <c r="I40" s="25"/>
       <c r="J40" s="22"/>
       <c r="K40" s="22"/>
-      <c r="L40" s="28"/>
-      <c r="M40" s="28"/>
+      <c r="L40" s="26"/>
+      <c r="M40" s="26"/>
       <c r="N40" s="22"/>
       <c r="O40" s="22"/>
       <c r="P40" s="22"/>
@@ -5256,7 +5246,7 @@
       <c r="AH40" s="22"/>
       <c r="AI40" s="22"/>
     </row>
-    <row r="41" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
       <c r="B41" s="22"/>
       <c r="C41" s="23"/>
@@ -5271,8 +5261,8 @@
       <c r="I41" s="25"/>
       <c r="J41" s="22"/>
       <c r="K41" s="22"/>
-      <c r="L41" s="28"/>
-      <c r="M41" s="28"/>
+      <c r="L41" s="26"/>
+      <c r="M41" s="26"/>
       <c r="N41" s="22"/>
       <c r="O41" s="22"/>
       <c r="P41" s="22"/>
@@ -5296,7 +5286,7 @@
       <c r="AH41" s="22"/>
       <c r="AI41" s="22"/>
     </row>
-    <row r="42" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
       <c r="B42" s="22"/>
       <c r="C42" s="23"/>
@@ -5311,8 +5301,8 @@
       <c r="I42" s="25"/>
       <c r="J42" s="22"/>
       <c r="K42" s="22"/>
-      <c r="L42" s="28"/>
-      <c r="M42" s="28"/>
+      <c r="L42" s="26"/>
+      <c r="M42" s="26"/>
       <c r="N42" s="22"/>
       <c r="O42" s="22"/>
       <c r="P42" s="22"/>
@@ -5336,7 +5326,7 @@
       <c r="AH42" s="22"/>
       <c r="AI42" s="22"/>
     </row>
-    <row r="43" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
       <c r="B43" s="22"/>
       <c r="C43" s="23"/>
@@ -5351,8 +5341,8 @@
       <c r="I43" s="25"/>
       <c r="J43" s="22"/>
       <c r="K43" s="22"/>
-      <c r="L43" s="28"/>
-      <c r="M43" s="28"/>
+      <c r="L43" s="26"/>
+      <c r="M43" s="26"/>
       <c r="N43" s="22"/>
       <c r="O43" s="22"/>
       <c r="P43" s="22"/>
@@ -5376,7 +5366,7 @@
       <c r="AH43" s="22"/>
       <c r="AI43" s="22"/>
     </row>
-    <row r="44" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
       <c r="B44" s="22"/>
       <c r="C44" s="23"/>
@@ -5391,8 +5381,8 @@
       <c r="I44" s="25"/>
       <c r="J44" s="22"/>
       <c r="K44" s="22"/>
-      <c r="L44" s="28"/>
-      <c r="M44" s="28"/>
+      <c r="L44" s="26"/>
+      <c r="M44" s="26"/>
       <c r="N44" s="22"/>
       <c r="O44" s="22"/>
       <c r="P44" s="22"/>
@@ -5416,7 +5406,7 @@
       <c r="AH44" s="22"/>
       <c r="AI44" s="22"/>
     </row>
-    <row r="45" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
       <c r="B45" s="22"/>
       <c r="C45" s="23"/>
@@ -5431,8 +5421,8 @@
       <c r="I45" s="25"/>
       <c r="J45" s="22"/>
       <c r="K45" s="22"/>
-      <c r="L45" s="28"/>
-      <c r="M45" s="28"/>
+      <c r="L45" s="26"/>
+      <c r="M45" s="26"/>
       <c r="N45" s="22"/>
       <c r="O45" s="22"/>
       <c r="P45" s="22"/>
@@ -5456,7 +5446,7 @@
       <c r="AH45" s="22"/>
       <c r="AI45" s="22"/>
     </row>
-    <row r="46" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
       <c r="B46" s="22"/>
       <c r="C46" s="23"/>
@@ -5471,8 +5461,8 @@
       <c r="I46" s="25"/>
       <c r="J46" s="22"/>
       <c r="K46" s="22"/>
-      <c r="L46" s="28"/>
-      <c r="M46" s="28"/>
+      <c r="L46" s="26"/>
+      <c r="M46" s="26"/>
       <c r="N46" s="22"/>
       <c r="O46" s="22"/>
       <c r="P46" s="22"/>
@@ -5496,7 +5486,7 @@
       <c r="AH46" s="22"/>
       <c r="AI46" s="22"/>
     </row>
-    <row r="47" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
       <c r="B47" s="22"/>
       <c r="C47" s="23"/>
@@ -5511,8 +5501,8 @@
       <c r="I47" s="25"/>
       <c r="J47" s="22"/>
       <c r="K47" s="22"/>
-      <c r="L47" s="28"/>
-      <c r="M47" s="28"/>
+      <c r="L47" s="26"/>
+      <c r="M47" s="26"/>
       <c r="N47" s="22"/>
       <c r="O47" s="22"/>
       <c r="P47" s="22"/>
@@ -5536,7 +5526,7 @@
       <c r="AH47" s="22"/>
       <c r="AI47" s="22"/>
     </row>
-    <row r="48" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
       <c r="B48" s="22"/>
       <c r="C48" s="23"/>
@@ -5551,8 +5541,8 @@
       <c r="I48" s="25"/>
       <c r="J48" s="22"/>
       <c r="K48" s="22"/>
-      <c r="L48" s="28"/>
-      <c r="M48" s="28"/>
+      <c r="L48" s="26"/>
+      <c r="M48" s="26"/>
       <c r="N48" s="22"/>
       <c r="O48" s="22"/>
       <c r="P48" s="22"/>
@@ -5576,7 +5566,7 @@
       <c r="AH48" s="22"/>
       <c r="AI48" s="22"/>
     </row>
-    <row r="49" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
       <c r="B49" s="22"/>
       <c r="C49" s="23"/>
@@ -5591,8 +5581,8 @@
       <c r="I49" s="25"/>
       <c r="J49" s="22"/>
       <c r="K49" s="22"/>
-      <c r="L49" s="28"/>
-      <c r="M49" s="28"/>
+      <c r="L49" s="26"/>
+      <c r="M49" s="26"/>
       <c r="N49" s="22"/>
       <c r="O49" s="22"/>
       <c r="P49" s="22"/>
@@ -5616,7 +5606,7 @@
       <c r="AH49" s="22"/>
       <c r="AI49" s="22"/>
     </row>
-    <row r="50" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
       <c r="B50" s="22"/>
       <c r="C50" s="23"/>
@@ -5631,8 +5621,8 @@
       <c r="I50" s="25"/>
       <c r="J50" s="22"/>
       <c r="K50" s="22"/>
-      <c r="L50" s="28"/>
-      <c r="M50" s="28"/>
+      <c r="L50" s="26"/>
+      <c r="M50" s="26"/>
       <c r="N50" s="22"/>
       <c r="O50" s="22"/>
       <c r="P50" s="22"/>
@@ -5656,7 +5646,7 @@
       <c r="AH50" s="22"/>
       <c r="AI50" s="22"/>
     </row>
-    <row r="51" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
       <c r="B51" s="22"/>
       <c r="C51" s="23"/>
@@ -5671,8 +5661,8 @@
       <c r="I51" s="25"/>
       <c r="J51" s="22"/>
       <c r="K51" s="22"/>
-      <c r="L51" s="28"/>
-      <c r="M51" s="28"/>
+      <c r="L51" s="26"/>
+      <c r="M51" s="26"/>
       <c r="N51" s="22"/>
       <c r="O51" s="22"/>
       <c r="P51" s="22"/>
@@ -5696,7 +5686,7 @@
       <c r="AH51" s="22"/>
       <c r="AI51" s="22"/>
     </row>
-    <row r="52" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
       <c r="B52" s="22"/>
       <c r="C52" s="23"/>
@@ -5711,8 +5701,8 @@
       <c r="I52" s="25"/>
       <c r="J52" s="22"/>
       <c r="K52" s="22"/>
-      <c r="L52" s="28"/>
-      <c r="M52" s="28"/>
+      <c r="L52" s="26"/>
+      <c r="M52" s="26"/>
       <c r="N52" s="22"/>
       <c r="O52" s="22"/>
       <c r="P52" s="22"/>
@@ -5736,7 +5726,7 @@
       <c r="AH52" s="22"/>
       <c r="AI52" s="22"/>
     </row>
-    <row r="53" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
       <c r="B53" s="22"/>
       <c r="C53" s="23"/>
@@ -5751,8 +5741,8 @@
       <c r="I53" s="25"/>
       <c r="J53" s="22"/>
       <c r="K53" s="22"/>
-      <c r="L53" s="28"/>
-      <c r="M53" s="28"/>
+      <c r="L53" s="26"/>
+      <c r="M53" s="26"/>
       <c r="N53" s="22"/>
       <c r="O53" s="22"/>
       <c r="P53" s="22"/>
@@ -5776,7 +5766,7 @@
       <c r="AH53" s="22"/>
       <c r="AI53" s="22"/>
     </row>
-    <row r="54" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
       <c r="B54" s="22"/>
       <c r="C54" s="23"/>
@@ -5791,8 +5781,8 @@
       <c r="I54" s="25"/>
       <c r="J54" s="22"/>
       <c r="K54" s="22"/>
-      <c r="L54" s="28"/>
-      <c r="M54" s="28"/>
+      <c r="L54" s="26"/>
+      <c r="M54" s="26"/>
       <c r="N54" s="22"/>
       <c r="O54" s="22"/>
       <c r="P54" s="22"/>
@@ -5816,7 +5806,7 @@
       <c r="AH54" s="22"/>
       <c r="AI54" s="22"/>
     </row>
-    <row r="55" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
       <c r="B55" s="22"/>
       <c r="C55" s="23"/>
@@ -5831,8 +5821,8 @@
       <c r="I55" s="25"/>
       <c r="J55" s="22"/>
       <c r="K55" s="22"/>
-      <c r="L55" s="28"/>
-      <c r="M55" s="28"/>
+      <c r="L55" s="26"/>
+      <c r="M55" s="26"/>
       <c r="N55" s="22"/>
       <c r="O55" s="22"/>
       <c r="P55" s="22"/>
@@ -5856,7 +5846,7 @@
       <c r="AH55" s="22"/>
       <c r="AI55" s="22"/>
     </row>
-    <row r="56" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
       <c r="B56" s="22"/>
       <c r="C56" s="23"/>
@@ -5871,8 +5861,8 @@
       <c r="I56" s="25"/>
       <c r="J56" s="22"/>
       <c r="K56" s="22"/>
-      <c r="L56" s="28"/>
-      <c r="M56" s="28"/>
+      <c r="L56" s="26"/>
+      <c r="M56" s="26"/>
       <c r="N56" s="22"/>
       <c r="O56" s="22"/>
       <c r="P56" s="22"/>
@@ -5896,7 +5886,7 @@
       <c r="AH56" s="22"/>
       <c r="AI56" s="22"/>
     </row>
-    <row r="57" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
       <c r="B57" s="22"/>
       <c r="C57" s="23"/>
@@ -5911,8 +5901,8 @@
       <c r="I57" s="25"/>
       <c r="J57" s="22"/>
       <c r="K57" s="22"/>
-      <c r="L57" s="28"/>
-      <c r="M57" s="28"/>
+      <c r="L57" s="26"/>
+      <c r="M57" s="26"/>
       <c r="N57" s="22"/>
       <c r="O57" s="22"/>
       <c r="P57" s="22"/>
@@ -5936,7 +5926,7 @@
       <c r="AH57" s="22"/>
       <c r="AI57" s="22"/>
     </row>
-    <row r="58" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
       <c r="B58" s="22"/>
       <c r="C58" s="23"/>
@@ -5951,8 +5941,8 @@
       <c r="I58" s="25"/>
       <c r="J58" s="22"/>
       <c r="K58" s="22"/>
-      <c r="L58" s="28"/>
-      <c r="M58" s="28"/>
+      <c r="L58" s="26"/>
+      <c r="M58" s="26"/>
       <c r="N58" s="22"/>
       <c r="O58" s="22"/>
       <c r="P58" s="22"/>
@@ -5976,7 +5966,7 @@
       <c r="AH58" s="22"/>
       <c r="AI58" s="22"/>
     </row>
-    <row r="59" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
       <c r="B59" s="22"/>
       <c r="C59" s="23"/>
@@ -5991,8 +5981,8 @@
       <c r="I59" s="25"/>
       <c r="J59" s="22"/>
       <c r="K59" s="22"/>
-      <c r="L59" s="28"/>
-      <c r="M59" s="28"/>
+      <c r="L59" s="26"/>
+      <c r="M59" s="26"/>
       <c r="N59" s="22"/>
       <c r="O59" s="22"/>
       <c r="P59" s="22"/>
@@ -6016,7 +6006,7 @@
       <c r="AH59" s="22"/>
       <c r="AI59" s="22"/>
     </row>
-    <row r="60" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
       <c r="B60" s="22"/>
       <c r="C60" s="23"/>
@@ -6031,8 +6021,8 @@
       <c r="I60" s="25"/>
       <c r="J60" s="22"/>
       <c r="K60" s="22"/>
-      <c r="L60" s="28"/>
-      <c r="M60" s="28"/>
+      <c r="L60" s="26"/>
+      <c r="M60" s="26"/>
       <c r="N60" s="22"/>
       <c r="O60" s="22"/>
       <c r="P60" s="22"/>
@@ -6056,7 +6046,7 @@
       <c r="AH60" s="22"/>
       <c r="AI60" s="22"/>
     </row>
-    <row r="61" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
       <c r="B61" s="22"/>
       <c r="C61" s="23"/>
@@ -6071,8 +6061,8 @@
       <c r="I61" s="25"/>
       <c r="J61" s="22"/>
       <c r="K61" s="22"/>
-      <c r="L61" s="28"/>
-      <c r="M61" s="28"/>
+      <c r="L61" s="26"/>
+      <c r="M61" s="26"/>
       <c r="N61" s="22"/>
       <c r="O61" s="22"/>
       <c r="P61" s="22"/>
@@ -6096,7 +6086,7 @@
       <c r="AH61" s="22"/>
       <c r="AI61" s="22"/>
     </row>
-    <row r="62" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
       <c r="B62" s="22"/>
       <c r="C62" s="23"/>
@@ -6111,8 +6101,8 @@
       <c r="I62" s="25"/>
       <c r="J62" s="22"/>
       <c r="K62" s="22"/>
-      <c r="L62" s="28"/>
-      <c r="M62" s="28"/>
+      <c r="L62" s="26"/>
+      <c r="M62" s="26"/>
       <c r="N62" s="22"/>
       <c r="O62" s="22"/>
       <c r="P62" s="22"/>
@@ -6136,7 +6126,7 @@
       <c r="AH62" s="22"/>
       <c r="AI62" s="22"/>
     </row>
-    <row r="63" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
       <c r="B63" s="22"/>
       <c r="C63" s="23"/>
@@ -6151,8 +6141,8 @@
       <c r="I63" s="25"/>
       <c r="J63" s="22"/>
       <c r="K63" s="22"/>
-      <c r="L63" s="28"/>
-      <c r="M63" s="28"/>
+      <c r="L63" s="26"/>
+      <c r="M63" s="26"/>
       <c r="N63" s="22"/>
       <c r="O63" s="22"/>
       <c r="P63" s="22"/>
@@ -6176,7 +6166,7 @@
       <c r="AH63" s="22"/>
       <c r="AI63" s="22"/>
     </row>
-    <row r="64" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
       <c r="B64" s="22"/>
       <c r="C64" s="23"/>
@@ -6191,8 +6181,8 @@
       <c r="I64" s="25"/>
       <c r="J64" s="22"/>
       <c r="K64" s="22"/>
-      <c r="L64" s="28"/>
-      <c r="M64" s="28"/>
+      <c r="L64" s="26"/>
+      <c r="M64" s="26"/>
       <c r="N64" s="22"/>
       <c r="O64" s="22"/>
       <c r="P64" s="22"/>
@@ -6216,7 +6206,7 @@
       <c r="AH64" s="22"/>
       <c r="AI64" s="22"/>
     </row>
-    <row r="65" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="21"/>
       <c r="B65" s="22"/>
       <c r="C65" s="23"/>
@@ -6231,8 +6221,8 @@
       <c r="I65" s="25"/>
       <c r="J65" s="22"/>
       <c r="K65" s="22"/>
-      <c r="L65" s="28"/>
-      <c r="M65" s="28"/>
+      <c r="L65" s="26"/>
+      <c r="M65" s="26"/>
       <c r="N65" s="22"/>
       <c r="O65" s="22"/>
       <c r="P65" s="22"/>
@@ -6256,7 +6246,7 @@
       <c r="AH65" s="22"/>
       <c r="AI65" s="22"/>
     </row>
-    <row r="66" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="21"/>
       <c r="B66" s="22"/>
       <c r="C66" s="23"/>
@@ -6271,8 +6261,8 @@
       <c r="I66" s="25"/>
       <c r="J66" s="22"/>
       <c r="K66" s="22"/>
-      <c r="L66" s="28"/>
-      <c r="M66" s="28"/>
+      <c r="L66" s="26"/>
+      <c r="M66" s="26"/>
       <c r="N66" s="22"/>
       <c r="O66" s="22"/>
       <c r="P66" s="22"/>
@@ -6296,7 +6286,7 @@
       <c r="AH66" s="22"/>
       <c r="AI66" s="22"/>
     </row>
-    <row r="67" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
       <c r="B67" s="22"/>
       <c r="C67" s="23"/>
@@ -6311,8 +6301,8 @@
       <c r="I67" s="25"/>
       <c r="J67" s="22"/>
       <c r="K67" s="22"/>
-      <c r="L67" s="28"/>
-      <c r="M67" s="28"/>
+      <c r="L67" s="26"/>
+      <c r="M67" s="26"/>
       <c r="N67" s="22"/>
       <c r="O67" s="22"/>
       <c r="P67" s="22"/>
@@ -6336,7 +6326,7 @@
       <c r="AH67" s="22"/>
       <c r="AI67" s="22"/>
     </row>
-    <row r="68" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="21"/>
       <c r="B68" s="22"/>
       <c r="C68" s="23"/>
@@ -6351,8 +6341,8 @@
       <c r="I68" s="25"/>
       <c r="J68" s="22"/>
       <c r="K68" s="22"/>
-      <c r="L68" s="28"/>
-      <c r="M68" s="28"/>
+      <c r="L68" s="26"/>
+      <c r="M68" s="26"/>
       <c r="N68" s="22"/>
       <c r="O68" s="22"/>
       <c r="P68" s="22"/>
@@ -6376,7 +6366,7 @@
       <c r="AH68" s="22"/>
       <c r="AI68" s="22"/>
     </row>
-    <row r="69" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="21"/>
       <c r="B69" s="22"/>
       <c r="C69" s="23"/>
@@ -6391,8 +6381,8 @@
       <c r="I69" s="25"/>
       <c r="J69" s="22"/>
       <c r="K69" s="22"/>
-      <c r="L69" s="28"/>
-      <c r="M69" s="28"/>
+      <c r="L69" s="26"/>
+      <c r="M69" s="26"/>
       <c r="N69" s="22"/>
       <c r="O69" s="22"/>
       <c r="P69" s="22"/>
@@ -6416,7 +6406,7 @@
       <c r="AH69" s="22"/>
       <c r="AI69" s="22"/>
     </row>
-    <row r="70" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="21"/>
       <c r="B70" s="22"/>
       <c r="C70" s="23"/>
@@ -6431,8 +6421,8 @@
       <c r="I70" s="25"/>
       <c r="J70" s="22"/>
       <c r="K70" s="22"/>
-      <c r="L70" s="28"/>
-      <c r="M70" s="28"/>
+      <c r="L70" s="26"/>
+      <c r="M70" s="26"/>
       <c r="N70" s="22"/>
       <c r="O70" s="22"/>
       <c r="P70" s="22"/>
@@ -6456,7 +6446,7 @@
       <c r="AH70" s="22"/>
       <c r="AI70" s="22"/>
     </row>
-    <row r="71" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="21"/>
       <c r="B71" s="22"/>
       <c r="C71" s="23"/>
@@ -6471,8 +6461,8 @@
       <c r="I71" s="25"/>
       <c r="J71" s="22"/>
       <c r="K71" s="22"/>
-      <c r="L71" s="28"/>
-      <c r="M71" s="28"/>
+      <c r="L71" s="26"/>
+      <c r="M71" s="26"/>
       <c r="N71" s="22"/>
       <c r="O71" s="22"/>
       <c r="P71" s="22"/>
@@ -6496,7 +6486,7 @@
       <c r="AH71" s="22"/>
       <c r="AI71" s="22"/>
     </row>
-    <row r="72" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="21"/>
       <c r="B72" s="22"/>
       <c r="C72" s="23"/>
@@ -6511,8 +6501,8 @@
       <c r="I72" s="25"/>
       <c r="J72" s="22"/>
       <c r="K72" s="22"/>
-      <c r="L72" s="28"/>
-      <c r="M72" s="28"/>
+      <c r="L72" s="26"/>
+      <c r="M72" s="26"/>
       <c r="N72" s="22"/>
       <c r="O72" s="22"/>
       <c r="P72" s="22"/>
@@ -6536,7 +6526,7 @@
       <c r="AH72" s="22"/>
       <c r="AI72" s="22"/>
     </row>
-    <row r="73" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="21"/>
       <c r="B73" s="22"/>
       <c r="C73" s="23"/>
@@ -6551,8 +6541,8 @@
       <c r="I73" s="25"/>
       <c r="J73" s="22"/>
       <c r="K73" s="22"/>
-      <c r="L73" s="28"/>
-      <c r="M73" s="28"/>
+      <c r="L73" s="26"/>
+      <c r="M73" s="26"/>
       <c r="N73" s="22"/>
       <c r="O73" s="22"/>
       <c r="P73" s="22"/>
@@ -6576,7 +6566,7 @@
       <c r="AH73" s="22"/>
       <c r="AI73" s="22"/>
     </row>
-    <row r="74" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="21"/>
       <c r="B74" s="22"/>
       <c r="C74" s="23"/>
@@ -6591,8 +6581,8 @@
       <c r="I74" s="25"/>
       <c r="J74" s="22"/>
       <c r="K74" s="22"/>
-      <c r="L74" s="28"/>
-      <c r="M74" s="28"/>
+      <c r="L74" s="26"/>
+      <c r="M74" s="26"/>
       <c r="N74" s="22"/>
       <c r="O74" s="22"/>
       <c r="P74" s="22"/>
@@ -6616,7 +6606,7 @@
       <c r="AH74" s="22"/>
       <c r="AI74" s="22"/>
     </row>
-    <row r="75" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="21"/>
       <c r="B75" s="22"/>
       <c r="C75" s="23"/>
@@ -6631,8 +6621,8 @@
       <c r="I75" s="25"/>
       <c r="J75" s="22"/>
       <c r="K75" s="22"/>
-      <c r="L75" s="28"/>
-      <c r="M75" s="28"/>
+      <c r="L75" s="26"/>
+      <c r="M75" s="26"/>
       <c r="N75" s="22"/>
       <c r="O75" s="22"/>
       <c r="P75" s="22"/>
@@ -6656,7 +6646,7 @@
       <c r="AH75" s="22"/>
       <c r="AI75" s="22"/>
     </row>
-    <row r="76" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="21"/>
       <c r="B76" s="22"/>
       <c r="C76" s="23"/>
@@ -6671,8 +6661,8 @@
       <c r="I76" s="25"/>
       <c r="J76" s="22"/>
       <c r="K76" s="22"/>
-      <c r="L76" s="28"/>
-      <c r="M76" s="28"/>
+      <c r="L76" s="26"/>
+      <c r="M76" s="26"/>
       <c r="N76" s="22"/>
       <c r="O76" s="22"/>
       <c r="P76" s="22"/>
@@ -6696,7 +6686,7 @@
       <c r="AH76" s="22"/>
       <c r="AI76" s="22"/>
     </row>
-    <row r="77" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
       <c r="B77" s="22"/>
       <c r="C77" s="23"/>
@@ -6711,8 +6701,8 @@
       <c r="I77" s="25"/>
       <c r="J77" s="22"/>
       <c r="K77" s="22"/>
-      <c r="L77" s="28"/>
-      <c r="M77" s="28"/>
+      <c r="L77" s="26"/>
+      <c r="M77" s="26"/>
       <c r="N77" s="22"/>
       <c r="O77" s="22"/>
       <c r="P77" s="22"/>
@@ -6736,7 +6726,7 @@
       <c r="AH77" s="22"/>
       <c r="AI77" s="22"/>
     </row>
-    <row r="78" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
       <c r="B78" s="22"/>
       <c r="C78" s="23"/>
@@ -6751,8 +6741,8 @@
       <c r="I78" s="25"/>
       <c r="J78" s="22"/>
       <c r="K78" s="22"/>
-      <c r="L78" s="28"/>
-      <c r="M78" s="28"/>
+      <c r="L78" s="26"/>
+      <c r="M78" s="26"/>
       <c r="N78" s="22"/>
       <c r="O78" s="22"/>
       <c r="P78" s="22"/>
@@ -6776,7 +6766,7 @@
       <c r="AH78" s="22"/>
       <c r="AI78" s="22"/>
     </row>
-    <row r="79" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
       <c r="B79" s="22"/>
       <c r="C79" s="23"/>
@@ -6791,8 +6781,8 @@
       <c r="I79" s="25"/>
       <c r="J79" s="22"/>
       <c r="K79" s="22"/>
-      <c r="L79" s="28"/>
-      <c r="M79" s="28"/>
+      <c r="L79" s="26"/>
+      <c r="M79" s="26"/>
       <c r="N79" s="22"/>
       <c r="O79" s="22"/>
       <c r="P79" s="22"/>
@@ -6816,7 +6806,7 @@
       <c r="AH79" s="22"/>
       <c r="AI79" s="22"/>
     </row>
-    <row r="80" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="21"/>
       <c r="B80" s="22"/>
       <c r="C80" s="23"/>
@@ -6831,8 +6821,8 @@
       <c r="I80" s="25"/>
       <c r="J80" s="22"/>
       <c r="K80" s="22"/>
-      <c r="L80" s="28"/>
-      <c r="M80" s="28"/>
+      <c r="L80" s="26"/>
+      <c r="M80" s="26"/>
       <c r="N80" s="22"/>
       <c r="O80" s="22"/>
       <c r="P80" s="22"/>
@@ -6856,7 +6846,7 @@
       <c r="AH80" s="22"/>
       <c r="AI80" s="22"/>
     </row>
-    <row r="81" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="21"/>
       <c r="B81" s="22"/>
       <c r="C81" s="23"/>
@@ -6871,8 +6861,8 @@
       <c r="I81" s="25"/>
       <c r="J81" s="22"/>
       <c r="K81" s="22"/>
-      <c r="L81" s="28"/>
-      <c r="M81" s="28"/>
+      <c r="L81" s="26"/>
+      <c r="M81" s="26"/>
       <c r="N81" s="22"/>
       <c r="O81" s="22"/>
       <c r="P81" s="22"/>
@@ -6896,7 +6886,7 @@
       <c r="AH81" s="22"/>
       <c r="AI81" s="22"/>
     </row>
-    <row r="82" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="21"/>
       <c r="B82" s="22"/>
       <c r="C82" s="23"/>
@@ -6911,8 +6901,8 @@
       <c r="I82" s="25"/>
       <c r="J82" s="22"/>
       <c r="K82" s="22"/>
-      <c r="L82" s="28"/>
-      <c r="M82" s="28"/>
+      <c r="L82" s="26"/>
+      <c r="M82" s="26"/>
       <c r="N82" s="22"/>
       <c r="O82" s="22"/>
       <c r="P82" s="22"/>
@@ -6936,7 +6926,7 @@
       <c r="AH82" s="22"/>
       <c r="AI82" s="22"/>
     </row>
-    <row r="83" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="21"/>
       <c r="B83" s="22"/>
       <c r="C83" s="23"/>
@@ -6951,8 +6941,8 @@
       <c r="I83" s="25"/>
       <c r="J83" s="22"/>
       <c r="K83" s="22"/>
-      <c r="L83" s="28"/>
-      <c r="M83" s="28"/>
+      <c r="L83" s="26"/>
+      <c r="M83" s="26"/>
       <c r="N83" s="22"/>
       <c r="O83" s="22"/>
       <c r="P83" s="22"/>
@@ -6976,7 +6966,7 @@
       <c r="AH83" s="22"/>
       <c r="AI83" s="22"/>
     </row>
-    <row r="84" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="21"/>
       <c r="B84" s="22"/>
       <c r="C84" s="23"/>
@@ -6991,8 +6981,8 @@
       <c r="I84" s="25"/>
       <c r="J84" s="22"/>
       <c r="K84" s="22"/>
-      <c r="L84" s="28"/>
-      <c r="M84" s="28"/>
+      <c r="L84" s="26"/>
+      <c r="M84" s="26"/>
       <c r="N84" s="22"/>
       <c r="O84" s="22"/>
       <c r="P84" s="22"/>
@@ -7016,7 +7006,7 @@
       <c r="AH84" s="22"/>
       <c r="AI84" s="22"/>
     </row>
-    <row r="85" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="21"/>
       <c r="B85" s="22"/>
       <c r="C85" s="23"/>
@@ -7031,8 +7021,8 @@
       <c r="I85" s="25"/>
       <c r="J85" s="22"/>
       <c r="K85" s="22"/>
-      <c r="L85" s="28"/>
-      <c r="M85" s="28"/>
+      <c r="L85" s="26"/>
+      <c r="M85" s="26"/>
       <c r="N85" s="22"/>
       <c r="O85" s="22"/>
       <c r="P85" s="22"/>
@@ -7056,7 +7046,7 @@
       <c r="AH85" s="22"/>
       <c r="AI85" s="22"/>
     </row>
-    <row r="86" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
       <c r="B86" s="22"/>
       <c r="C86" s="23"/>
@@ -7071,8 +7061,8 @@
       <c r="I86" s="25"/>
       <c r="J86" s="22"/>
       <c r="K86" s="22"/>
-      <c r="L86" s="28"/>
-      <c r="M86" s="28"/>
+      <c r="L86" s="26"/>
+      <c r="M86" s="26"/>
       <c r="N86" s="22"/>
       <c r="O86" s="22"/>
       <c r="P86" s="22"/>
@@ -7096,7 +7086,7 @@
       <c r="AH86" s="22"/>
       <c r="AI86" s="22"/>
     </row>
-    <row r="87" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
       <c r="B87" s="22"/>
       <c r="C87" s="23"/>
@@ -7111,8 +7101,8 @@
       <c r="I87" s="25"/>
       <c r="J87" s="22"/>
       <c r="K87" s="22"/>
-      <c r="L87" s="28"/>
-      <c r="M87" s="28"/>
+      <c r="L87" s="26"/>
+      <c r="M87" s="26"/>
       <c r="N87" s="22"/>
       <c r="O87" s="22"/>
       <c r="P87" s="22"/>
@@ -7136,7 +7126,7 @@
       <c r="AH87" s="22"/>
       <c r="AI87" s="22"/>
     </row>
-    <row r="88" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="21"/>
       <c r="B88" s="22"/>
       <c r="C88" s="23"/>
@@ -7151,8 +7141,8 @@
       <c r="I88" s="25"/>
       <c r="J88" s="22"/>
       <c r="K88" s="22"/>
-      <c r="L88" s="28"/>
-      <c r="M88" s="28"/>
+      <c r="L88" s="26"/>
+      <c r="M88" s="26"/>
       <c r="N88" s="22"/>
       <c r="O88" s="22"/>
       <c r="P88" s="22"/>
@@ -7176,7 +7166,7 @@
       <c r="AH88" s="22"/>
       <c r="AI88" s="22"/>
     </row>
-    <row r="89" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="21"/>
       <c r="B89" s="22"/>
       <c r="C89" s="23"/>
@@ -7191,8 +7181,8 @@
       <c r="I89" s="25"/>
       <c r="J89" s="22"/>
       <c r="K89" s="22"/>
-      <c r="L89" s="28"/>
-      <c r="M89" s="28"/>
+      <c r="L89" s="26"/>
+      <c r="M89" s="26"/>
       <c r="N89" s="22"/>
       <c r="O89" s="22"/>
       <c r="P89" s="22"/>
@@ -7216,7 +7206,7 @@
       <c r="AH89" s="22"/>
       <c r="AI89" s="22"/>
     </row>
-    <row r="90" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="21"/>
       <c r="B90" s="22"/>
       <c r="C90" s="23"/>
@@ -7231,8 +7221,8 @@
       <c r="I90" s="25"/>
       <c r="J90" s="22"/>
       <c r="K90" s="22"/>
-      <c r="L90" s="28"/>
-      <c r="M90" s="28"/>
+      <c r="L90" s="26"/>
+      <c r="M90" s="26"/>
       <c r="N90" s="22"/>
       <c r="O90" s="22"/>
       <c r="P90" s="22"/>
@@ -7256,7 +7246,7 @@
       <c r="AH90" s="22"/>
       <c r="AI90" s="22"/>
     </row>
-    <row r="91" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="21"/>
       <c r="B91" s="22"/>
       <c r="C91" s="23"/>
@@ -7271,8 +7261,8 @@
       <c r="I91" s="25"/>
       <c r="J91" s="22"/>
       <c r="K91" s="22"/>
-      <c r="L91" s="28"/>
-      <c r="M91" s="28"/>
+      <c r="L91" s="26"/>
+      <c r="M91" s="26"/>
       <c r="N91" s="22"/>
       <c r="O91" s="22"/>
       <c r="P91" s="22"/>
@@ -7296,7 +7286,7 @@
       <c r="AH91" s="22"/>
       <c r="AI91" s="22"/>
     </row>
-    <row r="92" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="21"/>
       <c r="B92" s="22"/>
       <c r="C92" s="23"/>
@@ -7311,8 +7301,8 @@
       <c r="I92" s="25"/>
       <c r="J92" s="22"/>
       <c r="K92" s="22"/>
-      <c r="L92" s="28"/>
-      <c r="M92" s="28"/>
+      <c r="L92" s="26"/>
+      <c r="M92" s="26"/>
       <c r="N92" s="22"/>
       <c r="O92" s="22"/>
       <c r="P92" s="22"/>
@@ -7336,7 +7326,7 @@
       <c r="AH92" s="22"/>
       <c r="AI92" s="22"/>
     </row>
-    <row r="93" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="21"/>
       <c r="B93" s="22"/>
       <c r="C93" s="23"/>
@@ -7351,8 +7341,8 @@
       <c r="I93" s="25"/>
       <c r="J93" s="22"/>
       <c r="K93" s="22"/>
-      <c r="L93" s="28"/>
-      <c r="M93" s="28"/>
+      <c r="L93" s="26"/>
+      <c r="M93" s="26"/>
       <c r="N93" s="22"/>
       <c r="O93" s="22"/>
       <c r="P93" s="22"/>
@@ -7376,7 +7366,7 @@
       <c r="AH93" s="22"/>
       <c r="AI93" s="22"/>
     </row>
-    <row r="94" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="21"/>
       <c r="B94" s="22"/>
       <c r="C94" s="23"/>
@@ -7391,8 +7381,8 @@
       <c r="I94" s="25"/>
       <c r="J94" s="22"/>
       <c r="K94" s="22"/>
-      <c r="L94" s="28"/>
-      <c r="M94" s="28"/>
+      <c r="L94" s="26"/>
+      <c r="M94" s="26"/>
       <c r="N94" s="22"/>
       <c r="O94" s="22"/>
       <c r="P94" s="22"/>
@@ -7416,7 +7406,7 @@
       <c r="AH94" s="22"/>
       <c r="AI94" s="22"/>
     </row>
-    <row r="95" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="21"/>
       <c r="B95" s="22"/>
       <c r="C95" s="23"/>
@@ -7431,8 +7421,8 @@
       <c r="I95" s="25"/>
       <c r="J95" s="22"/>
       <c r="K95" s="22"/>
-      <c r="L95" s="28"/>
-      <c r="M95" s="28"/>
+      <c r="L95" s="26"/>
+      <c r="M95" s="26"/>
       <c r="N95" s="22"/>
       <c r="O95" s="22"/>
       <c r="P95" s="22"/>
@@ -7456,7 +7446,7 @@
       <c r="AH95" s="22"/>
       <c r="AI95" s="22"/>
     </row>
-    <row r="96" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="21"/>
       <c r="B96" s="22"/>
       <c r="C96" s="23"/>
@@ -7471,8 +7461,8 @@
       <c r="I96" s="25"/>
       <c r="J96" s="22"/>
       <c r="K96" s="22"/>
-      <c r="L96" s="28"/>
-      <c r="M96" s="28"/>
+      <c r="L96" s="26"/>
+      <c r="M96" s="26"/>
       <c r="N96" s="22"/>
       <c r="O96" s="22"/>
       <c r="P96" s="22"/>
@@ -7496,7 +7486,7 @@
       <c r="AH96" s="22"/>
       <c r="AI96" s="22"/>
     </row>
-    <row r="97" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="21"/>
       <c r="B97" s="22"/>
       <c r="C97" s="23"/>
@@ -7511,8 +7501,8 @@
       <c r="I97" s="25"/>
       <c r="J97" s="22"/>
       <c r="K97" s="22"/>
-      <c r="L97" s="28"/>
-      <c r="M97" s="28"/>
+      <c r="L97" s="26"/>
+      <c r="M97" s="26"/>
       <c r="N97" s="22"/>
       <c r="O97" s="22"/>
       <c r="P97" s="22"/>
@@ -7536,7 +7526,7 @@
       <c r="AH97" s="22"/>
       <c r="AI97" s="22"/>
     </row>
-    <row r="98" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="21"/>
       <c r="B98" s="22"/>
       <c r="C98" s="23"/>
@@ -7551,8 +7541,8 @@
       <c r="I98" s="25"/>
       <c r="J98" s="22"/>
       <c r="K98" s="22"/>
-      <c r="L98" s="28"/>
-      <c r="M98" s="28"/>
+      <c r="L98" s="26"/>
+      <c r="M98" s="26"/>
       <c r="N98" s="22"/>
       <c r="O98" s="22"/>
       <c r="P98" s="22"/>
@@ -7576,7 +7566,7 @@
       <c r="AH98" s="22"/>
       <c r="AI98" s="22"/>
     </row>
-    <row r="99" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="21"/>
       <c r="B99" s="22"/>
       <c r="C99" s="23"/>
@@ -7591,8 +7581,8 @@
       <c r="I99" s="25"/>
       <c r="J99" s="22"/>
       <c r="K99" s="22"/>
-      <c r="L99" s="28"/>
-      <c r="M99" s="28"/>
+      <c r="L99" s="26"/>
+      <c r="M99" s="26"/>
       <c r="N99" s="22"/>
       <c r="O99" s="22"/>
       <c r="P99" s="22"/>
@@ -7616,7 +7606,7 @@
       <c r="AH99" s="22"/>
       <c r="AI99" s="22"/>
     </row>
-    <row r="100" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="21"/>
       <c r="B100" s="22"/>
       <c r="C100" s="23"/>
@@ -7631,8 +7621,8 @@
       <c r="I100" s="25"/>
       <c r="J100" s="22"/>
       <c r="K100" s="22"/>
-      <c r="L100" s="28"/>
-      <c r="M100" s="28"/>
+      <c r="L100" s="26"/>
+      <c r="M100" s="26"/>
       <c r="N100" s="22"/>
       <c r="O100" s="22"/>
       <c r="P100" s="22"/>
@@ -7656,7 +7646,7 @@
       <c r="AH100" s="22"/>
       <c r="AI100" s="22"/>
     </row>
-    <row r="101" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="21"/>
       <c r="B101" s="22"/>
       <c r="C101" s="23"/>
@@ -7671,8 +7661,8 @@
       <c r="I101" s="25"/>
       <c r="J101" s="22"/>
       <c r="K101" s="22"/>
-      <c r="L101" s="28"/>
-      <c r="M101" s="28"/>
+      <c r="L101" s="26"/>
+      <c r="M101" s="26"/>
       <c r="N101" s="22"/>
       <c r="O101" s="22"/>
       <c r="P101" s="22"/>
@@ -7696,7 +7686,7 @@
       <c r="AH101" s="22"/>
       <c r="AI101" s="22"/>
     </row>
-    <row r="102" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="21"/>
       <c r="B102" s="22"/>
       <c r="C102" s="23"/>
@@ -7711,8 +7701,8 @@
       <c r="I102" s="25"/>
       <c r="J102" s="22"/>
       <c r="K102" s="22"/>
-      <c r="L102" s="28"/>
-      <c r="M102" s="28"/>
+      <c r="L102" s="26"/>
+      <c r="M102" s="26"/>
       <c r="N102" s="22"/>
       <c r="O102" s="22"/>
       <c r="P102" s="22"/>
@@ -7736,7 +7726,7 @@
       <c r="AH102" s="22"/>
       <c r="AI102" s="22"/>
     </row>
-    <row r="103" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="21"/>
       <c r="B103" s="22"/>
       <c r="C103" s="23"/>
@@ -7751,8 +7741,8 @@
       <c r="I103" s="25"/>
       <c r="J103" s="22"/>
       <c r="K103" s="22"/>
-      <c r="L103" s="28"/>
-      <c r="M103" s="28"/>
+      <c r="L103" s="26"/>
+      <c r="M103" s="26"/>
       <c r="N103" s="22"/>
       <c r="O103" s="22"/>
       <c r="P103" s="22"/>
@@ -7776,7 +7766,7 @@
       <c r="AH103" s="22"/>
       <c r="AI103" s="22"/>
     </row>
-    <row r="104" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="21"/>
       <c r="B104" s="22"/>
       <c r="C104" s="23"/>
@@ -7791,8 +7781,8 @@
       <c r="I104" s="25"/>
       <c r="J104" s="22"/>
       <c r="K104" s="22"/>
-      <c r="L104" s="28"/>
-      <c r="M104" s="28"/>
+      <c r="L104" s="26"/>
+      <c r="M104" s="26"/>
       <c r="N104" s="22"/>
       <c r="O104" s="22"/>
       <c r="P104" s="22"/>
@@ -7816,7 +7806,7 @@
       <c r="AH104" s="22"/>
       <c r="AI104" s="22"/>
     </row>
-    <row r="105" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="21"/>
       <c r="B105" s="22"/>
       <c r="C105" s="23"/>
@@ -7831,8 +7821,8 @@
       <c r="I105" s="25"/>
       <c r="J105" s="22"/>
       <c r="K105" s="22"/>
-      <c r="L105" s="28"/>
-      <c r="M105" s="28"/>
+      <c r="L105" s="26"/>
+      <c r="M105" s="26"/>
       <c r="N105" s="22"/>
       <c r="O105" s="22"/>
       <c r="P105" s="22"/>
@@ -7856,7 +7846,7 @@
       <c r="AH105" s="22"/>
       <c r="AI105" s="22"/>
     </row>
-    <row r="106" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="21"/>
       <c r="B106" s="22"/>
       <c r="C106" s="23"/>
@@ -7871,8 +7861,8 @@
       <c r="I106" s="25"/>
       <c r="J106" s="22"/>
       <c r="K106" s="22"/>
-      <c r="L106" s="28"/>
-      <c r="M106" s="28"/>
+      <c r="L106" s="26"/>
+      <c r="M106" s="26"/>
       <c r="N106" s="22"/>
       <c r="O106" s="22"/>
       <c r="P106" s="22"/>
@@ -7896,7 +7886,7 @@
       <c r="AH106" s="22"/>
       <c r="AI106" s="22"/>
     </row>
-    <row r="107" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="21"/>
       <c r="B107" s="22"/>
       <c r="C107" s="23"/>
@@ -7911,8 +7901,8 @@
       <c r="I107" s="25"/>
       <c r="J107" s="22"/>
       <c r="K107" s="22"/>
-      <c r="L107" s="28"/>
-      <c r="M107" s="28"/>
+      <c r="L107" s="26"/>
+      <c r="M107" s="26"/>
       <c r="N107" s="22"/>
       <c r="O107" s="22"/>
       <c r="P107" s="22"/>
@@ -7936,7 +7926,7 @@
       <c r="AH107" s="22"/>
       <c r="AI107" s="22"/>
     </row>
-    <row r="108" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="21"/>
       <c r="B108" s="22"/>
       <c r="C108" s="23"/>
@@ -7951,8 +7941,8 @@
       <c r="I108" s="25"/>
       <c r="J108" s="22"/>
       <c r="K108" s="22"/>
-      <c r="L108" s="28"/>
-      <c r="M108" s="28"/>
+      <c r="L108" s="26"/>
+      <c r="M108" s="26"/>
       <c r="N108" s="22"/>
       <c r="O108" s="22"/>
       <c r="P108" s="22"/>
@@ -7976,7 +7966,7 @@
       <c r="AH108" s="22"/>
       <c r="AI108" s="22"/>
     </row>
-    <row r="109" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="21"/>
       <c r="B109" s="22"/>
       <c r="C109" s="23"/>
@@ -7991,8 +7981,8 @@
       <c r="I109" s="25"/>
       <c r="J109" s="22"/>
       <c r="K109" s="22"/>
-      <c r="L109" s="28"/>
-      <c r="M109" s="28"/>
+      <c r="L109" s="26"/>
+      <c r="M109" s="26"/>
       <c r="N109" s="22"/>
       <c r="O109" s="22"/>
       <c r="P109" s="22"/>
@@ -8016,7 +8006,7 @@
       <c r="AH109" s="22"/>
       <c r="AI109" s="22"/>
     </row>
-    <row r="110" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="21"/>
       <c r="B110" s="22"/>
       <c r="C110" s="23"/>
@@ -8031,8 +8021,8 @@
       <c r="I110" s="25"/>
       <c r="J110" s="22"/>
       <c r="K110" s="22"/>
-      <c r="L110" s="28"/>
-      <c r="M110" s="28"/>
+      <c r="L110" s="26"/>
+      <c r="M110" s="26"/>
       <c r="N110" s="22"/>
       <c r="O110" s="22"/>
       <c r="P110" s="22"/>
@@ -8056,7 +8046,7 @@
       <c r="AH110" s="22"/>
       <c r="AI110" s="22"/>
     </row>
-    <row r="111" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="21"/>
       <c r="B111" s="22"/>
       <c r="C111" s="23"/>
@@ -8071,8 +8061,8 @@
       <c r="I111" s="25"/>
       <c r="J111" s="22"/>
       <c r="K111" s="22"/>
-      <c r="L111" s="28"/>
-      <c r="M111" s="28"/>
+      <c r="L111" s="26"/>
+      <c r="M111" s="26"/>
       <c r="N111" s="22"/>
       <c r="O111" s="22"/>
       <c r="P111" s="22"/>
@@ -8096,7 +8086,7 @@
       <c r="AH111" s="22"/>
       <c r="AI111" s="22"/>
     </row>
-    <row r="112" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="21"/>
       <c r="B112" s="22"/>
       <c r="C112" s="23"/>
@@ -8111,8 +8101,8 @@
       <c r="I112" s="25"/>
       <c r="J112" s="22"/>
       <c r="K112" s="22"/>
-      <c r="L112" s="28"/>
-      <c r="M112" s="28"/>
+      <c r="L112" s="26"/>
+      <c r="M112" s="26"/>
       <c r="N112" s="22"/>
       <c r="O112" s="22"/>
       <c r="P112" s="22"/>
@@ -8136,7 +8126,7 @@
       <c r="AH112" s="22"/>
       <c r="AI112" s="22"/>
     </row>
-    <row r="113" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="21"/>
       <c r="B113" s="22"/>
       <c r="C113" s="23"/>
@@ -8151,8 +8141,8 @@
       <c r="I113" s="25"/>
       <c r="J113" s="22"/>
       <c r="K113" s="22"/>
-      <c r="L113" s="28"/>
-      <c r="M113" s="28"/>
+      <c r="L113" s="26"/>
+      <c r="M113" s="26"/>
       <c r="N113" s="22"/>
       <c r="O113" s="22"/>
       <c r="P113" s="22"/>
@@ -8176,7 +8166,7 @@
       <c r="AH113" s="22"/>
       <c r="AI113" s="22"/>
     </row>
-    <row r="114" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="21"/>
       <c r="B114" s="22"/>
       <c r="C114" s="23"/>
@@ -8191,8 +8181,8 @@
       <c r="I114" s="25"/>
       <c r="J114" s="22"/>
       <c r="K114" s="22"/>
-      <c r="L114" s="28"/>
-      <c r="M114" s="28"/>
+      <c r="L114" s="26"/>
+      <c r="M114" s="26"/>
       <c r="N114" s="22"/>
       <c r="O114" s="22"/>
       <c r="P114" s="22"/>
@@ -8216,7 +8206,7 @@
       <c r="AH114" s="22"/>
       <c r="AI114" s="22"/>
     </row>
-    <row r="115" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="21"/>
       <c r="B115" s="22"/>
       <c r="C115" s="23"/>
@@ -8231,8 +8221,8 @@
       <c r="I115" s="25"/>
       <c r="J115" s="22"/>
       <c r="K115" s="22"/>
-      <c r="L115" s="28"/>
-      <c r="M115" s="28"/>
+      <c r="L115" s="26"/>
+      <c r="M115" s="26"/>
       <c r="N115" s="22"/>
       <c r="O115" s="22"/>
       <c r="P115" s="22"/>
@@ -8256,7 +8246,7 @@
       <c r="AH115" s="22"/>
       <c r="AI115" s="22"/>
     </row>
-    <row r="116" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="21"/>
       <c r="B116" s="22"/>
       <c r="C116" s="23"/>
@@ -8271,8 +8261,8 @@
       <c r="I116" s="25"/>
       <c r="J116" s="22"/>
       <c r="K116" s="22"/>
-      <c r="L116" s="28"/>
-      <c r="M116" s="28"/>
+      <c r="L116" s="26"/>
+      <c r="M116" s="26"/>
       <c r="N116" s="22"/>
       <c r="O116" s="22"/>
       <c r="P116" s="22"/>
@@ -8296,7 +8286,7 @@
       <c r="AH116" s="22"/>
       <c r="AI116" s="22"/>
     </row>
-    <row r="117" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="21"/>
       <c r="B117" s="22"/>
       <c r="C117" s="23"/>
@@ -8311,8 +8301,8 @@
       <c r="I117" s="25"/>
       <c r="J117" s="22"/>
       <c r="K117" s="22"/>
-      <c r="L117" s="28"/>
-      <c r="M117" s="28"/>
+      <c r="L117" s="26"/>
+      <c r="M117" s="26"/>
       <c r="N117" s="22"/>
       <c r="O117" s="22"/>
       <c r="P117" s="22"/>
@@ -8336,7 +8326,7 @@
       <c r="AH117" s="22"/>
       <c r="AI117" s="22"/>
     </row>
-    <row r="118" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="21"/>
       <c r="B118" s="22"/>
       <c r="C118" s="23"/>
@@ -8351,8 +8341,8 @@
       <c r="I118" s="25"/>
       <c r="J118" s="22"/>
       <c r="K118" s="22"/>
-      <c r="L118" s="28"/>
-      <c r="M118" s="28"/>
+      <c r="L118" s="26"/>
+      <c r="M118" s="26"/>
       <c r="N118" s="22"/>
       <c r="O118" s="22"/>
       <c r="P118" s="22"/>
@@ -8376,7 +8366,7 @@
       <c r="AH118" s="22"/>
       <c r="AI118" s="22"/>
     </row>
-    <row r="119" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="21"/>
       <c r="B119" s="22"/>
       <c r="C119" s="23"/>
@@ -8391,8 +8381,8 @@
       <c r="I119" s="25"/>
       <c r="J119" s="22"/>
       <c r="K119" s="22"/>
-      <c r="L119" s="28"/>
-      <c r="M119" s="28"/>
+      <c r="L119" s="26"/>
+      <c r="M119" s="26"/>
       <c r="N119" s="22"/>
       <c r="O119" s="22"/>
       <c r="P119" s="22"/>
@@ -8416,7 +8406,7 @@
       <c r="AH119" s="22"/>
       <c r="AI119" s="22"/>
     </row>
-    <row r="120" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="21"/>
       <c r="B120" s="22"/>
       <c r="C120" s="23"/>
@@ -8431,8 +8421,8 @@
       <c r="I120" s="25"/>
       <c r="J120" s="22"/>
       <c r="K120" s="22"/>
-      <c r="L120" s="28"/>
-      <c r="M120" s="28"/>
+      <c r="L120" s="26"/>
+      <c r="M120" s="26"/>
       <c r="N120" s="22"/>
       <c r="O120" s="22"/>
       <c r="P120" s="22"/>
@@ -8456,7 +8446,7 @@
       <c r="AH120" s="22"/>
       <c r="AI120" s="22"/>
     </row>
-    <row r="121" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="21"/>
       <c r="B121" s="22"/>
       <c r="C121" s="23"/>
@@ -8471,8 +8461,8 @@
       <c r="I121" s="25"/>
       <c r="J121" s="22"/>
       <c r="K121" s="22"/>
-      <c r="L121" s="28"/>
-      <c r="M121" s="28"/>
+      <c r="L121" s="26"/>
+      <c r="M121" s="26"/>
       <c r="N121" s="22"/>
       <c r="O121" s="22"/>
       <c r="P121" s="22"/>
@@ -8496,7 +8486,7 @@
       <c r="AH121" s="22"/>
       <c r="AI121" s="22"/>
     </row>
-    <row r="122" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="21"/>
       <c r="B122" s="22"/>
       <c r="C122" s="23"/>
@@ -8511,8 +8501,8 @@
       <c r="I122" s="25"/>
       <c r="J122" s="22"/>
       <c r="K122" s="22"/>
-      <c r="L122" s="28"/>
-      <c r="M122" s="28"/>
+      <c r="L122" s="26"/>
+      <c r="M122" s="26"/>
       <c r="N122" s="22"/>
       <c r="O122" s="22"/>
       <c r="P122" s="22"/>
@@ -8536,7 +8526,7 @@
       <c r="AH122" s="22"/>
       <c r="AI122" s="22"/>
     </row>
-    <row r="123" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="21"/>
       <c r="B123" s="22"/>
       <c r="C123" s="23"/>
@@ -8551,8 +8541,8 @@
       <c r="I123" s="25"/>
       <c r="J123" s="22"/>
       <c r="K123" s="22"/>
-      <c r="L123" s="28"/>
-      <c r="M123" s="28"/>
+      <c r="L123" s="26"/>
+      <c r="M123" s="26"/>
       <c r="N123" s="22"/>
       <c r="O123" s="22"/>
       <c r="P123" s="22"/>
@@ -8576,7 +8566,7 @@
       <c r="AH123" s="22"/>
       <c r="AI123" s="22"/>
     </row>
-    <row r="124" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="21"/>
       <c r="B124" s="22"/>
       <c r="C124" s="23"/>
@@ -8591,8 +8581,8 @@
       <c r="I124" s="25"/>
       <c r="J124" s="22"/>
       <c r="K124" s="22"/>
-      <c r="L124" s="28"/>
-      <c r="M124" s="28"/>
+      <c r="L124" s="26"/>
+      <c r="M124" s="26"/>
       <c r="N124" s="22"/>
       <c r="O124" s="22"/>
       <c r="P124" s="22"/>
@@ -8616,7 +8606,7 @@
       <c r="AH124" s="22"/>
       <c r="AI124" s="22"/>
     </row>
-    <row r="125" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="21"/>
       <c r="B125" s="22"/>
       <c r="C125" s="23"/>
@@ -8631,8 +8621,8 @@
       <c r="I125" s="25"/>
       <c r="J125" s="22"/>
       <c r="K125" s="22"/>
-      <c r="L125" s="28"/>
-      <c r="M125" s="28"/>
+      <c r="L125" s="26"/>
+      <c r="M125" s="26"/>
       <c r="N125" s="22"/>
       <c r="O125" s="22"/>
       <c r="P125" s="22"/>
@@ -8656,7 +8646,7 @@
       <c r="AH125" s="22"/>
       <c r="AI125" s="22"/>
     </row>
-    <row r="126" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="21"/>
       <c r="B126" s="22"/>
       <c r="C126" s="23"/>
@@ -8671,8 +8661,8 @@
       <c r="I126" s="25"/>
       <c r="J126" s="22"/>
       <c r="K126" s="22"/>
-      <c r="L126" s="28"/>
-      <c r="M126" s="28"/>
+      <c r="L126" s="26"/>
+      <c r="M126" s="26"/>
       <c r="N126" s="22"/>
       <c r="O126" s="22"/>
       <c r="P126" s="22"/>
@@ -8696,7 +8686,7 @@
       <c r="AH126" s="22"/>
       <c r="AI126" s="22"/>
     </row>
-    <row r="127" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="21"/>
       <c r="B127" s="22"/>
       <c r="C127" s="23"/>
@@ -8711,8 +8701,8 @@
       <c r="I127" s="25"/>
       <c r="J127" s="22"/>
       <c r="K127" s="22"/>
-      <c r="L127" s="28"/>
-      <c r="M127" s="28"/>
+      <c r="L127" s="26"/>
+      <c r="M127" s="26"/>
       <c r="N127" s="22"/>
       <c r="O127" s="22"/>
       <c r="P127" s="22"/>
@@ -8736,7 +8726,7 @@
       <c r="AH127" s="22"/>
       <c r="AI127" s="22"/>
     </row>
-    <row r="128" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="21"/>
       <c r="B128" s="22"/>
       <c r="C128" s="23"/>
@@ -8751,8 +8741,8 @@
       <c r="I128" s="25"/>
       <c r="J128" s="22"/>
       <c r="K128" s="22"/>
-      <c r="L128" s="28"/>
-      <c r="M128" s="28"/>
+      <c r="L128" s="26"/>
+      <c r="M128" s="26"/>
       <c r="N128" s="22"/>
       <c r="O128" s="22"/>
       <c r="P128" s="22"/>
@@ -8776,7 +8766,7 @@
       <c r="AH128" s="22"/>
       <c r="AI128" s="22"/>
     </row>
-    <row r="129" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="21"/>
       <c r="B129" s="22"/>
       <c r="C129" s="23"/>
@@ -8791,8 +8781,8 @@
       <c r="I129" s="25"/>
       <c r="J129" s="22"/>
       <c r="K129" s="22"/>
-      <c r="L129" s="28"/>
-      <c r="M129" s="28"/>
+      <c r="L129" s="26"/>
+      <c r="M129" s="26"/>
       <c r="N129" s="22"/>
       <c r="O129" s="22"/>
       <c r="P129" s="22"/>
@@ -8816,7 +8806,7 @@
       <c r="AH129" s="22"/>
       <c r="AI129" s="22"/>
     </row>
-    <row r="130" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="21"/>
       <c r="B130" s="22"/>
       <c r="C130" s="23"/>
@@ -8831,8 +8821,8 @@
       <c r="I130" s="25"/>
       <c r="J130" s="22"/>
       <c r="K130" s="22"/>
-      <c r="L130" s="28"/>
-      <c r="M130" s="28"/>
+      <c r="L130" s="26"/>
+      <c r="M130" s="26"/>
       <c r="N130" s="22"/>
       <c r="O130" s="22"/>
       <c r="P130" s="22"/>
@@ -8856,7 +8846,7 @@
       <c r="AH130" s="22"/>
       <c r="AI130" s="22"/>
     </row>
-    <row r="131" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="21"/>
       <c r="B131" s="22"/>
       <c r="C131" s="23"/>
@@ -8871,8 +8861,8 @@
       <c r="I131" s="25"/>
       <c r="J131" s="22"/>
       <c r="K131" s="22"/>
-      <c r="L131" s="28"/>
-      <c r="M131" s="28"/>
+      <c r="L131" s="26"/>
+      <c r="M131" s="26"/>
       <c r="N131" s="22"/>
       <c r="O131" s="22"/>
       <c r="P131" s="22"/>
@@ -8896,7 +8886,7 @@
       <c r="AH131" s="22"/>
       <c r="AI131" s="22"/>
     </row>
-    <row r="132" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="21"/>
       <c r="B132" s="22"/>
       <c r="C132" s="23"/>
@@ -8911,8 +8901,8 @@
       <c r="I132" s="25"/>
       <c r="J132" s="22"/>
       <c r="K132" s="22"/>
-      <c r="L132" s="28"/>
-      <c r="M132" s="28"/>
+      <c r="L132" s="26"/>
+      <c r="M132" s="26"/>
       <c r="N132" s="22"/>
       <c r="O132" s="22"/>
       <c r="P132" s="22"/>
@@ -8936,7 +8926,7 @@
       <c r="AH132" s="22"/>
       <c r="AI132" s="22"/>
     </row>
-    <row r="133" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="21"/>
       <c r="B133" s="22"/>
       <c r="C133" s="23"/>
@@ -8951,8 +8941,8 @@
       <c r="I133" s="25"/>
       <c r="J133" s="22"/>
       <c r="K133" s="22"/>
-      <c r="L133" s="28"/>
-      <c r="M133" s="28"/>
+      <c r="L133" s="26"/>
+      <c r="M133" s="26"/>
       <c r="N133" s="22"/>
       <c r="O133" s="22"/>
       <c r="P133" s="22"/>
@@ -8976,7 +8966,7 @@
       <c r="AH133" s="22"/>
       <c r="AI133" s="22"/>
     </row>
-    <row r="134" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="21"/>
       <c r="B134" s="22"/>
       <c r="C134" s="23"/>
@@ -8991,8 +8981,8 @@
       <c r="I134" s="25"/>
       <c r="J134" s="22"/>
       <c r="K134" s="22"/>
-      <c r="L134" s="28"/>
-      <c r="M134" s="28"/>
+      <c r="L134" s="26"/>
+      <c r="M134" s="26"/>
       <c r="N134" s="22"/>
       <c r="O134" s="22"/>
       <c r="P134" s="22"/>
@@ -9016,7 +9006,7 @@
       <c r="AH134" s="22"/>
       <c r="AI134" s="22"/>
     </row>
-    <row r="135" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="21"/>
       <c r="B135" s="22"/>
       <c r="C135" s="23"/>
@@ -9031,8 +9021,8 @@
       <c r="I135" s="25"/>
       <c r="J135" s="22"/>
       <c r="K135" s="22"/>
-      <c r="L135" s="28"/>
-      <c r="M135" s="28"/>
+      <c r="L135" s="26"/>
+      <c r="M135" s="26"/>
       <c r="N135" s="22"/>
       <c r="O135" s="22"/>
       <c r="P135" s="22"/>
@@ -9056,7 +9046,7 @@
       <c r="AH135" s="22"/>
       <c r="AI135" s="22"/>
     </row>
-    <row r="136" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="21"/>
       <c r="B136" s="22"/>
       <c r="C136" s="23"/>
@@ -9071,8 +9061,8 @@
       <c r="I136" s="25"/>
       <c r="J136" s="22"/>
       <c r="K136" s="22"/>
-      <c r="L136" s="28"/>
-      <c r="M136" s="28"/>
+      <c r="L136" s="26"/>
+      <c r="M136" s="26"/>
       <c r="N136" s="22"/>
       <c r="O136" s="22"/>
       <c r="P136" s="22"/>
@@ -9096,7 +9086,7 @@
       <c r="AH136" s="22"/>
       <c r="AI136" s="22"/>
     </row>
-    <row r="137" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="21"/>
       <c r="B137" s="22"/>
       <c r="C137" s="23"/>
@@ -9111,8 +9101,8 @@
       <c r="I137" s="25"/>
       <c r="J137" s="22"/>
       <c r="K137" s="22"/>
-      <c r="L137" s="28"/>
-      <c r="M137" s="28"/>
+      <c r="L137" s="26"/>
+      <c r="M137" s="26"/>
       <c r="N137" s="22"/>
       <c r="O137" s="22"/>
       <c r="P137" s="22"/>
@@ -9136,7 +9126,7 @@
       <c r="AH137" s="22"/>
       <c r="AI137" s="22"/>
     </row>
-    <row r="138" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="21"/>
       <c r="B138" s="22"/>
       <c r="C138" s="23"/>
@@ -9151,8 +9141,8 @@
       <c r="I138" s="25"/>
       <c r="J138" s="22"/>
       <c r="K138" s="22"/>
-      <c r="L138" s="28"/>
-      <c r="M138" s="28"/>
+      <c r="L138" s="26"/>
+      <c r="M138" s="26"/>
       <c r="N138" s="22"/>
       <c r="O138" s="22"/>
       <c r="P138" s="22"/>
@@ -9176,7 +9166,7 @@
       <c r="AH138" s="22"/>
       <c r="AI138" s="22"/>
     </row>
-    <row r="139" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="21"/>
       <c r="B139" s="22"/>
       <c r="C139" s="23"/>
@@ -9191,8 +9181,8 @@
       <c r="I139" s="25"/>
       <c r="J139" s="22"/>
       <c r="K139" s="22"/>
-      <c r="L139" s="28"/>
-      <c r="M139" s="28"/>
+      <c r="L139" s="26"/>
+      <c r="M139" s="26"/>
       <c r="N139" s="22"/>
       <c r="O139" s="22"/>
       <c r="P139" s="22"/>
@@ -9216,7 +9206,7 @@
       <c r="AH139" s="22"/>
       <c r="AI139" s="22"/>
     </row>
-    <row r="140" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="21"/>
       <c r="B140" s="22"/>
       <c r="C140" s="23"/>
@@ -9231,8 +9221,8 @@
       <c r="I140" s="25"/>
       <c r="J140" s="22"/>
       <c r="K140" s="22"/>
-      <c r="L140" s="28"/>
-      <c r="M140" s="28"/>
+      <c r="L140" s="26"/>
+      <c r="M140" s="26"/>
       <c r="N140" s="22"/>
       <c r="O140" s="22"/>
       <c r="P140" s="22"/>
@@ -9256,7 +9246,7 @@
       <c r="AH140" s="22"/>
       <c r="AI140" s="22"/>
     </row>
-    <row r="141" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="21"/>
       <c r="B141" s="22"/>
       <c r="C141" s="23"/>
@@ -9271,8 +9261,8 @@
       <c r="I141" s="25"/>
       <c r="J141" s="22"/>
       <c r="K141" s="22"/>
-      <c r="L141" s="28"/>
-      <c r="M141" s="28"/>
+      <c r="L141" s="26"/>
+      <c r="M141" s="26"/>
       <c r="N141" s="22"/>
       <c r="O141" s="22"/>
       <c r="P141" s="22"/>
@@ -9296,7 +9286,7 @@
       <c r="AH141" s="22"/>
       <c r="AI141" s="22"/>
     </row>
-    <row r="142" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="21"/>
       <c r="B142" s="22"/>
       <c r="C142" s="23"/>
@@ -9311,8 +9301,8 @@
       <c r="I142" s="25"/>
       <c r="J142" s="22"/>
       <c r="K142" s="22"/>
-      <c r="L142" s="28"/>
-      <c r="M142" s="28"/>
+      <c r="L142" s="26"/>
+      <c r="M142" s="26"/>
       <c r="N142" s="22"/>
       <c r="O142" s="22"/>
       <c r="P142" s="22"/>
@@ -9336,7 +9326,7 @@
       <c r="AH142" s="22"/>
       <c r="AI142" s="22"/>
     </row>
-    <row r="143" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="21"/>
       <c r="B143" s="22"/>
       <c r="C143" s="23"/>
@@ -9351,8 +9341,8 @@
       <c r="I143" s="25"/>
       <c r="J143" s="22"/>
       <c r="K143" s="22"/>
-      <c r="L143" s="28"/>
-      <c r="M143" s="28"/>
+      <c r="L143" s="26"/>
+      <c r="M143" s="26"/>
       <c r="N143" s="22"/>
       <c r="O143" s="22"/>
       <c r="P143" s="22"/>
@@ -9376,7 +9366,7 @@
       <c r="AH143" s="22"/>
       <c r="AI143" s="22"/>
     </row>
-    <row r="144" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="21"/>
       <c r="B144" s="22"/>
       <c r="C144" s="23"/>
@@ -9391,8 +9381,8 @@
       <c r="I144" s="25"/>
       <c r="J144" s="22"/>
       <c r="K144" s="22"/>
-      <c r="L144" s="28"/>
-      <c r="M144" s="28"/>
+      <c r="L144" s="26"/>
+      <c r="M144" s="26"/>
       <c r="N144" s="22"/>
       <c r="O144" s="22"/>
       <c r="P144" s="22"/>
@@ -9416,7 +9406,7 @@
       <c r="AH144" s="22"/>
       <c r="AI144" s="22"/>
     </row>
-    <row r="145" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="21"/>
       <c r="B145" s="22"/>
       <c r="C145" s="23"/>
@@ -9431,8 +9421,8 @@
       <c r="I145" s="25"/>
       <c r="J145" s="22"/>
       <c r="K145" s="22"/>
-      <c r="L145" s="28"/>
-      <c r="M145" s="28"/>
+      <c r="L145" s="26"/>
+      <c r="M145" s="26"/>
       <c r="N145" s="22"/>
       <c r="O145" s="22"/>
       <c r="P145" s="22"/>
@@ -9456,7 +9446,7 @@
       <c r="AH145" s="22"/>
       <c r="AI145" s="22"/>
     </row>
-    <row r="146" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="21"/>
       <c r="B146" s="22"/>
       <c r="C146" s="23"/>
@@ -9471,8 +9461,8 @@
       <c r="I146" s="25"/>
       <c r="J146" s="22"/>
       <c r="K146" s="22"/>
-      <c r="L146" s="28"/>
-      <c r="M146" s="28"/>
+      <c r="L146" s="26"/>
+      <c r="M146" s="26"/>
       <c r="N146" s="22"/>
       <c r="O146" s="22"/>
       <c r="P146" s="22"/>
@@ -9496,7 +9486,7 @@
       <c r="AH146" s="22"/>
       <c r="AI146" s="22"/>
     </row>
-    <row r="147" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="21"/>
       <c r="B147" s="22"/>
       <c r="C147" s="23"/>
@@ -9511,8 +9501,8 @@
       <c r="I147" s="25"/>
       <c r="J147" s="22"/>
       <c r="K147" s="22"/>
-      <c r="L147" s="28"/>
-      <c r="M147" s="28"/>
+      <c r="L147" s="26"/>
+      <c r="M147" s="26"/>
       <c r="N147" s="22"/>
       <c r="O147" s="22"/>
       <c r="P147" s="22"/>
@@ -9536,7 +9526,7 @@
       <c r="AH147" s="22"/>
       <c r="AI147" s="22"/>
     </row>
-    <row r="148" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="21"/>
       <c r="B148" s="22"/>
       <c r="C148" s="23"/>
@@ -9551,8 +9541,8 @@
       <c r="I148" s="25"/>
       <c r="J148" s="22"/>
       <c r="K148" s="22"/>
-      <c r="L148" s="28"/>
-      <c r="M148" s="28"/>
+      <c r="L148" s="26"/>
+      <c r="M148" s="26"/>
       <c r="N148" s="22"/>
       <c r="O148" s="22"/>
       <c r="P148" s="22"/>
@@ -9576,7 +9566,7 @@
       <c r="AH148" s="22"/>
       <c r="AI148" s="22"/>
     </row>
-    <row r="149" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="21"/>
       <c r="B149" s="22"/>
       <c r="C149" s="23"/>
@@ -9591,8 +9581,8 @@
       <c r="I149" s="25"/>
       <c r="J149" s="22"/>
       <c r="K149" s="22"/>
-      <c r="L149" s="28"/>
-      <c r="M149" s="28"/>
+      <c r="L149" s="26"/>
+      <c r="M149" s="26"/>
       <c r="N149" s="22"/>
       <c r="O149" s="22"/>
       <c r="P149" s="22"/>
@@ -9616,7 +9606,7 @@
       <c r="AH149" s="22"/>
       <c r="AI149" s="22"/>
     </row>
-    <row r="150" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="21"/>
       <c r="B150" s="22"/>
       <c r="C150" s="23"/>
@@ -9628,8 +9618,8 @@
       <c r="I150" s="25"/>
       <c r="J150" s="22"/>
       <c r="K150" s="22"/>
-      <c r="L150" s="28"/>
-      <c r="M150" s="28"/>
+      <c r="L150" s="26"/>
+      <c r="M150" s="26"/>
       <c r="N150" s="22"/>
       <c r="O150" s="22"/>
       <c r="P150" s="22"/>
@@ -9653,7 +9643,7 @@
       <c r="AH150" s="22"/>
       <c r="AI150" s="22"/>
     </row>
-    <row r="151" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="21"/>
       <c r="B151" s="22"/>
       <c r="C151" s="23"/>
@@ -9665,8 +9655,8 @@
       <c r="I151" s="25"/>
       <c r="J151" s="22"/>
       <c r="K151" s="22"/>
-      <c r="L151" s="28"/>
-      <c r="M151" s="28"/>
+      <c r="L151" s="26"/>
+      <c r="M151" s="26"/>
       <c r="N151" s="22"/>
       <c r="O151" s="22"/>
       <c r="P151" s="22"/>
@@ -9690,7 +9680,7 @@
       <c r="AH151" s="22"/>
       <c r="AI151" s="22"/>
     </row>
-    <row r="152" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="21"/>
       <c r="B152" s="22"/>
       <c r="C152" s="23"/>
@@ -9702,8 +9692,8 @@
       <c r="I152" s="25"/>
       <c r="J152" s="22"/>
       <c r="K152" s="22"/>
-      <c r="L152" s="28"/>
-      <c r="M152" s="28"/>
+      <c r="L152" s="26"/>
+      <c r="M152" s="26"/>
       <c r="N152" s="22"/>
       <c r="O152" s="22"/>
       <c r="P152" s="22"/>
@@ -9727,7 +9717,7 @@
       <c r="AH152" s="22"/>
       <c r="AI152" s="22"/>
     </row>
-    <row r="153" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="21"/>
       <c r="B153" s="22"/>
       <c r="C153" s="23"/>
@@ -9739,8 +9729,8 @@
       <c r="I153" s="25"/>
       <c r="J153" s="22"/>
       <c r="K153" s="22"/>
-      <c r="L153" s="28"/>
-      <c r="M153" s="28"/>
+      <c r="L153" s="26"/>
+      <c r="M153" s="26"/>
       <c r="N153" s="22"/>
       <c r="O153" s="22"/>
       <c r="P153" s="22"/>
@@ -9764,7 +9754,7 @@
       <c r="AH153" s="22"/>
       <c r="AI153" s="22"/>
     </row>
-    <row r="154" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="21"/>
       <c r="B154" s="22"/>
       <c r="C154" s="23"/>
@@ -9776,8 +9766,8 @@
       <c r="I154" s="25"/>
       <c r="J154" s="22"/>
       <c r="K154" s="22"/>
-      <c r="L154" s="28"/>
-      <c r="M154" s="28"/>
+      <c r="L154" s="26"/>
+      <c r="M154" s="26"/>
       <c r="N154" s="22"/>
       <c r="O154" s="22"/>
       <c r="P154" s="22"/>
@@ -9801,7 +9791,7 @@
       <c r="AH154" s="22"/>
       <c r="AI154" s="22"/>
     </row>
-    <row r="155" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="21"/>
       <c r="B155" s="22"/>
       <c r="C155" s="23"/>
@@ -9813,8 +9803,8 @@
       <c r="I155" s="25"/>
       <c r="J155" s="22"/>
       <c r="K155" s="22"/>
-      <c r="L155" s="28"/>
-      <c r="M155" s="28"/>
+      <c r="L155" s="26"/>
+      <c r="M155" s="26"/>
       <c r="N155" s="22"/>
       <c r="O155" s="22"/>
       <c r="P155" s="22"/>
@@ -9838,7 +9828,7 @@
       <c r="AH155" s="22"/>
       <c r="AI155" s="22"/>
     </row>
-    <row r="156" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="21"/>
       <c r="B156" s="22"/>
       <c r="C156" s="23"/>
@@ -9850,8 +9840,8 @@
       <c r="I156" s="25"/>
       <c r="J156" s="22"/>
       <c r="K156" s="22"/>
-      <c r="L156" s="28"/>
-      <c r="M156" s="28"/>
+      <c r="L156" s="26"/>
+      <c r="M156" s="26"/>
       <c r="N156" s="22"/>
       <c r="O156" s="22"/>
       <c r="P156" s="22"/>
@@ -9875,7 +9865,7 @@
       <c r="AH156" s="22"/>
       <c r="AI156" s="22"/>
     </row>
-    <row r="157" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="21"/>
       <c r="B157" s="22"/>
       <c r="C157" s="23"/>
@@ -9887,8 +9877,8 @@
       <c r="I157" s="25"/>
       <c r="J157" s="22"/>
       <c r="K157" s="22"/>
-      <c r="L157" s="28"/>
-      <c r="M157" s="28"/>
+      <c r="L157" s="26"/>
+      <c r="M157" s="26"/>
       <c r="N157" s="22"/>
       <c r="O157" s="22"/>
       <c r="P157" s="22"/>
@@ -9912,7 +9902,7 @@
       <c r="AH157" s="22"/>
       <c r="AI157" s="22"/>
     </row>
-    <row r="158" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="21"/>
       <c r="B158" s="22"/>
       <c r="C158" s="23"/>
@@ -9924,8 +9914,8 @@
       <c r="I158" s="25"/>
       <c r="J158" s="22"/>
       <c r="K158" s="22"/>
-      <c r="L158" s="28"/>
-      <c r="M158" s="28"/>
+      <c r="L158" s="26"/>
+      <c r="M158" s="26"/>
       <c r="N158" s="22"/>
       <c r="O158" s="22"/>
       <c r="P158" s="22"/>
@@ -9949,7 +9939,7 @@
       <c r="AH158" s="22"/>
       <c r="AI158" s="22"/>
     </row>
-    <row r="159" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="21"/>
       <c r="B159" s="22"/>
       <c r="C159" s="23"/>
@@ -9961,8 +9951,8 @@
       <c r="I159" s="25"/>
       <c r="J159" s="22"/>
       <c r="K159" s="22"/>
-      <c r="L159" s="28"/>
-      <c r="M159" s="28"/>
+      <c r="L159" s="26"/>
+      <c r="M159" s="26"/>
       <c r="N159" s="22"/>
       <c r="O159" s="22"/>
       <c r="P159" s="22"/>
@@ -9986,7 +9976,7 @@
       <c r="AH159" s="22"/>
       <c r="AI159" s="22"/>
     </row>
-    <row r="160" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="21"/>
       <c r="B160" s="22"/>
       <c r="C160" s="23"/>
@@ -9998,8 +9988,8 @@
       <c r="I160" s="25"/>
       <c r="J160" s="22"/>
       <c r="K160" s="22"/>
-      <c r="L160" s="28"/>
-      <c r="M160" s="28"/>
+      <c r="L160" s="26"/>
+      <c r="M160" s="26"/>
       <c r="N160" s="22"/>
       <c r="O160" s="22"/>
       <c r="P160" s="22"/>
@@ -10023,7 +10013,7 @@
       <c r="AH160" s="22"/>
       <c r="AI160" s="22"/>
     </row>
-    <row r="161" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="21"/>
       <c r="B161" s="22"/>
       <c r="C161" s="23"/>
@@ -10035,8 +10025,8 @@
       <c r="I161" s="25"/>
       <c r="J161" s="22"/>
       <c r="K161" s="22"/>
-      <c r="L161" s="28"/>
-      <c r="M161" s="28"/>
+      <c r="L161" s="26"/>
+      <c r="M161" s="26"/>
       <c r="N161" s="22"/>
       <c r="O161" s="22"/>
       <c r="P161" s="22"/>
@@ -10060,7 +10050,7 @@
       <c r="AH161" s="22"/>
       <c r="AI161" s="22"/>
     </row>
-    <row r="162" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="21"/>
       <c r="B162" s="22"/>
       <c r="C162" s="23"/>
@@ -10072,8 +10062,8 @@
       <c r="I162" s="25"/>
       <c r="J162" s="22"/>
       <c r="K162" s="22"/>
-      <c r="L162" s="28"/>
-      <c r="M162" s="28"/>
+      <c r="L162" s="26"/>
+      <c r="M162" s="26"/>
       <c r="N162" s="22"/>
       <c r="O162" s="22"/>
       <c r="P162" s="22"/>
@@ -10097,7 +10087,7 @@
       <c r="AH162" s="22"/>
       <c r="AI162" s="22"/>
     </row>
-    <row r="163" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="21"/>
       <c r="B163" s="22"/>
       <c r="C163" s="23"/>
@@ -10109,8 +10099,8 @@
       <c r="I163" s="25"/>
       <c r="J163" s="22"/>
       <c r="K163" s="22"/>
-      <c r="L163" s="28"/>
-      <c r="M163" s="28"/>
+      <c r="L163" s="26"/>
+      <c r="M163" s="26"/>
       <c r="N163" s="22"/>
       <c r="O163" s="22"/>
       <c r="P163" s="22"/>
@@ -10134,7 +10124,7 @@
       <c r="AH163" s="22"/>
       <c r="AI163" s="22"/>
     </row>
-    <row r="164" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="21"/>
       <c r="B164" s="22"/>
       <c r="C164" s="23"/>
@@ -10146,8 +10136,8 @@
       <c r="I164" s="25"/>
       <c r="J164" s="22"/>
       <c r="K164" s="22"/>
-      <c r="L164" s="28"/>
-      <c r="M164" s="28"/>
+      <c r="L164" s="26"/>
+      <c r="M164" s="26"/>
       <c r="N164" s="22"/>
       <c r="O164" s="22"/>
       <c r="P164" s="22"/>
@@ -10171,7 +10161,7 @@
       <c r="AH164" s="22"/>
       <c r="AI164" s="22"/>
     </row>
-    <row r="165" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="21"/>
       <c r="B165" s="22"/>
       <c r="C165" s="23"/>
@@ -10183,8 +10173,8 @@
       <c r="I165" s="25"/>
       <c r="J165" s="22"/>
       <c r="K165" s="22"/>
-      <c r="L165" s="28"/>
-      <c r="M165" s="28"/>
+      <c r="L165" s="26"/>
+      <c r="M165" s="26"/>
       <c r="N165" s="22"/>
       <c r="O165" s="22"/>
       <c r="P165" s="22"/>
@@ -10208,7 +10198,7 @@
       <c r="AH165" s="22"/>
       <c r="AI165" s="22"/>
     </row>
-    <row r="166" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="21"/>
       <c r="B166" s="22"/>
       <c r="C166" s="23"/>
@@ -10220,8 +10210,8 @@
       <c r="I166" s="25"/>
       <c r="J166" s="22"/>
       <c r="K166" s="22"/>
-      <c r="L166" s="28"/>
-      <c r="M166" s="28"/>
+      <c r="L166" s="26"/>
+      <c r="M166" s="26"/>
       <c r="N166" s="22"/>
       <c r="O166" s="22"/>
       <c r="P166" s="22"/>
@@ -10245,7 +10235,7 @@
       <c r="AH166" s="22"/>
       <c r="AI166" s="22"/>
     </row>
-    <row r="167" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="21"/>
       <c r="B167" s="22"/>
       <c r="C167" s="23"/>
@@ -10257,8 +10247,8 @@
       <c r="I167" s="25"/>
       <c r="J167" s="22"/>
       <c r="K167" s="22"/>
-      <c r="L167" s="28"/>
-      <c r="M167" s="28"/>
+      <c r="L167" s="26"/>
+      <c r="M167" s="26"/>
       <c r="N167" s="22"/>
       <c r="O167" s="22"/>
       <c r="P167" s="22"/>
@@ -10282,7 +10272,7 @@
       <c r="AH167" s="22"/>
       <c r="AI167" s="22"/>
     </row>
-    <row r="168" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="21"/>
       <c r="B168" s="22"/>
       <c r="C168" s="23"/>
@@ -10294,8 +10284,8 @@
       <c r="I168" s="25"/>
       <c r="J168" s="22"/>
       <c r="K168" s="22"/>
-      <c r="L168" s="28"/>
-      <c r="M168" s="28"/>
+      <c r="L168" s="26"/>
+      <c r="M168" s="26"/>
       <c r="N168" s="22"/>
       <c r="O168" s="22"/>
       <c r="P168" s="22"/>
@@ -10319,7 +10309,7 @@
       <c r="AH168" s="22"/>
       <c r="AI168" s="22"/>
     </row>
-    <row r="169" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="21"/>
       <c r="B169" s="22"/>
       <c r="C169" s="23"/>
@@ -10331,8 +10321,8 @@
       <c r="I169" s="25"/>
       <c r="J169" s="22"/>
       <c r="K169" s="22"/>
-      <c r="L169" s="28"/>
-      <c r="M169" s="28"/>
+      <c r="L169" s="26"/>
+      <c r="M169" s="26"/>
       <c r="N169" s="22"/>
       <c r="O169" s="22"/>
       <c r="P169" s="22"/>
@@ -10356,7 +10346,7 @@
       <c r="AH169" s="22"/>
       <c r="AI169" s="22"/>
     </row>
-    <row r="170" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="21"/>
       <c r="B170" s="22"/>
       <c r="C170" s="23"/>
@@ -10368,8 +10358,8 @@
       <c r="I170" s="25"/>
       <c r="J170" s="22"/>
       <c r="K170" s="22"/>
-      <c r="L170" s="28"/>
-      <c r="M170" s="28"/>
+      <c r="L170" s="26"/>
+      <c r="M170" s="26"/>
       <c r="N170" s="22"/>
       <c r="O170" s="22"/>
       <c r="P170" s="22"/>
@@ -10393,7 +10383,7 @@
       <c r="AH170" s="22"/>
       <c r="AI170" s="22"/>
     </row>
-    <row r="171" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="21"/>
       <c r="B171" s="22"/>
       <c r="C171" s="23"/>
@@ -10405,8 +10395,8 @@
       <c r="I171" s="25"/>
       <c r="J171" s="22"/>
       <c r="K171" s="22"/>
-      <c r="L171" s="28"/>
-      <c r="M171" s="28"/>
+      <c r="L171" s="26"/>
+      <c r="M171" s="26"/>
       <c r="N171" s="22"/>
       <c r="O171" s="22"/>
       <c r="P171" s="22"/>
@@ -10430,7 +10420,7 @@
       <c r="AH171" s="22"/>
       <c r="AI171" s="22"/>
     </row>
-    <row r="172" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="21"/>
       <c r="B172" s="22"/>
       <c r="C172" s="23"/>
@@ -10442,8 +10432,8 @@
       <c r="I172" s="25"/>
       <c r="J172" s="22"/>
       <c r="K172" s="22"/>
-      <c r="L172" s="28"/>
-      <c r="M172" s="28"/>
+      <c r="L172" s="26"/>
+      <c r="M172" s="26"/>
       <c r="N172" s="22"/>
       <c r="O172" s="22"/>
       <c r="P172" s="22"/>
@@ -10467,7 +10457,7 @@
       <c r="AH172" s="22"/>
       <c r="AI172" s="22"/>
     </row>
-    <row r="173" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="21"/>
       <c r="B173" s="22"/>
       <c r="C173" s="23"/>
@@ -10479,8 +10469,8 @@
       <c r="I173" s="25"/>
       <c r="J173" s="22"/>
       <c r="K173" s="22"/>
-      <c r="L173" s="28"/>
-      <c r="M173" s="28"/>
+      <c r="L173" s="26"/>
+      <c r="M173" s="26"/>
       <c r="N173" s="22"/>
       <c r="O173" s="22"/>
       <c r="P173" s="22"/>
@@ -10504,7 +10494,7 @@
       <c r="AH173" s="22"/>
       <c r="AI173" s="22"/>
     </row>
-    <row r="174" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="21"/>
       <c r="B174" s="22"/>
       <c r="C174" s="23"/>
@@ -10516,8 +10506,8 @@
       <c r="I174" s="25"/>
       <c r="J174" s="22"/>
       <c r="K174" s="22"/>
-      <c r="L174" s="28"/>
-      <c r="M174" s="28"/>
+      <c r="L174" s="26"/>
+      <c r="M174" s="26"/>
       <c r="N174" s="22"/>
       <c r="O174" s="22"/>
       <c r="P174" s="22"/>
@@ -10541,7 +10531,7 @@
       <c r="AH174" s="22"/>
       <c r="AI174" s="22"/>
     </row>
-    <row r="175" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="21"/>
       <c r="B175" s="22"/>
       <c r="C175" s="23"/>
@@ -10553,8 +10543,8 @@
       <c r="I175" s="25"/>
       <c r="J175" s="22"/>
       <c r="K175" s="22"/>
-      <c r="L175" s="28"/>
-      <c r="M175" s="28"/>
+      <c r="L175" s="26"/>
+      <c r="M175" s="26"/>
       <c r="N175" s="22"/>
       <c r="O175" s="22"/>
       <c r="P175" s="22"/>
@@ -10578,7 +10568,7 @@
       <c r="AH175" s="22"/>
       <c r="AI175" s="22"/>
     </row>
-    <row r="176" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="21"/>
       <c r="B176" s="22"/>
       <c r="C176" s="23"/>
@@ -10590,8 +10580,8 @@
       <c r="I176" s="25"/>
       <c r="J176" s="22"/>
       <c r="K176" s="22"/>
-      <c r="L176" s="28"/>
-      <c r="M176" s="28"/>
+      <c r="L176" s="26"/>
+      <c r="M176" s="26"/>
       <c r="N176" s="22"/>
       <c r="O176" s="22"/>
       <c r="P176" s="22"/>
@@ -10615,7 +10605,7 @@
       <c r="AH176" s="22"/>
       <c r="AI176" s="22"/>
     </row>
-    <row r="177" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="21"/>
       <c r="B177" s="22"/>
       <c r="C177" s="23"/>
@@ -10627,8 +10617,8 @@
       <c r="I177" s="25"/>
       <c r="J177" s="22"/>
       <c r="K177" s="22"/>
-      <c r="L177" s="28"/>
-      <c r="M177" s="28"/>
+      <c r="L177" s="26"/>
+      <c r="M177" s="26"/>
       <c r="N177" s="22"/>
       <c r="O177" s="22"/>
       <c r="P177" s="22"/>
@@ -10652,7 +10642,7 @@
       <c r="AH177" s="22"/>
       <c r="AI177" s="22"/>
     </row>
-    <row r="178" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="21"/>
       <c r="B178" s="22"/>
       <c r="C178" s="23"/>
@@ -10664,8 +10654,8 @@
       <c r="I178" s="25"/>
       <c r="J178" s="22"/>
       <c r="K178" s="22"/>
-      <c r="L178" s="28"/>
-      <c r="M178" s="28"/>
+      <c r="L178" s="26"/>
+      <c r="M178" s="26"/>
       <c r="N178" s="22"/>
       <c r="O178" s="22"/>
       <c r="P178" s="22"/>
@@ -10689,7 +10679,7 @@
       <c r="AH178" s="22"/>
       <c r="AI178" s="22"/>
     </row>
-    <row r="179" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="21"/>
       <c r="B179" s="22"/>
       <c r="C179" s="23"/>
@@ -10701,8 +10691,8 @@
       <c r="I179" s="25"/>
       <c r="J179" s="22"/>
       <c r="K179" s="22"/>
-      <c r="L179" s="28"/>
-      <c r="M179" s="28"/>
+      <c r="L179" s="26"/>
+      <c r="M179" s="26"/>
       <c r="N179" s="22"/>
       <c r="O179" s="22"/>
       <c r="P179" s="22"/>
@@ -10726,7 +10716,7 @@
       <c r="AH179" s="22"/>
       <c r="AI179" s="22"/>
     </row>
-    <row r="180" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="21"/>
       <c r="B180" s="22"/>
       <c r="C180" s="23"/>
@@ -10738,8 +10728,8 @@
       <c r="I180" s="25"/>
       <c r="J180" s="22"/>
       <c r="K180" s="22"/>
-      <c r="L180" s="28"/>
-      <c r="M180" s="28"/>
+      <c r="L180" s="26"/>
+      <c r="M180" s="26"/>
       <c r="N180" s="22"/>
       <c r="O180" s="22"/>
       <c r="P180" s="22"/>
@@ -10763,7 +10753,7 @@
       <c r="AH180" s="22"/>
       <c r="AI180" s="22"/>
     </row>
-    <row r="181" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="21"/>
       <c r="B181" s="22"/>
       <c r="C181" s="23"/>
@@ -10775,8 +10765,8 @@
       <c r="I181" s="25"/>
       <c r="J181" s="22"/>
       <c r="K181" s="22"/>
-      <c r="L181" s="28"/>
-      <c r="M181" s="28"/>
+      <c r="L181" s="26"/>
+      <c r="M181" s="26"/>
       <c r="N181" s="22"/>
       <c r="O181" s="22"/>
       <c r="P181" s="22"/>
@@ -10800,7 +10790,7 @@
       <c r="AH181" s="22"/>
       <c r="AI181" s="22"/>
     </row>
-    <row r="182" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="21"/>
       <c r="B182" s="22"/>
       <c r="C182" s="23"/>
@@ -10812,8 +10802,8 @@
       <c r="I182" s="25"/>
       <c r="J182" s="22"/>
       <c r="K182" s="22"/>
-      <c r="L182" s="28"/>
-      <c r="M182" s="28"/>
+      <c r="L182" s="26"/>
+      <c r="M182" s="26"/>
       <c r="N182" s="22"/>
       <c r="O182" s="22"/>
       <c r="P182" s="22"/>
@@ -10837,7 +10827,7 @@
       <c r="AH182" s="22"/>
       <c r="AI182" s="22"/>
     </row>
-    <row r="183" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="21"/>
       <c r="B183" s="22"/>
       <c r="C183" s="23"/>
@@ -10849,8 +10839,8 @@
       <c r="I183" s="25"/>
       <c r="J183" s="22"/>
       <c r="K183" s="22"/>
-      <c r="L183" s="28"/>
-      <c r="M183" s="28"/>
+      <c r="L183" s="26"/>
+      <c r="M183" s="26"/>
       <c r="N183" s="22"/>
       <c r="O183" s="22"/>
       <c r="P183" s="22"/>
@@ -10874,7 +10864,7 @@
       <c r="AH183" s="22"/>
       <c r="AI183" s="22"/>
     </row>
-    <row r="184" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="21"/>
       <c r="B184" s="22"/>
       <c r="C184" s="23"/>
@@ -10886,8 +10876,8 @@
       <c r="I184" s="25"/>
       <c r="J184" s="22"/>
       <c r="K184" s="22"/>
-      <c r="L184" s="28"/>
-      <c r="M184" s="28"/>
+      <c r="L184" s="26"/>
+      <c r="M184" s="26"/>
       <c r="N184" s="22"/>
       <c r="O184" s="22"/>
       <c r="P184" s="22"/>
@@ -10911,7 +10901,7 @@
       <c r="AH184" s="22"/>
       <c r="AI184" s="22"/>
     </row>
-    <row r="185" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="21"/>
       <c r="B185" s="22"/>
       <c r="C185" s="23"/>
@@ -10923,8 +10913,8 @@
       <c r="I185" s="25"/>
       <c r="J185" s="22"/>
       <c r="K185" s="22"/>
-      <c r="L185" s="28"/>
-      <c r="M185" s="28"/>
+      <c r="L185" s="26"/>
+      <c r="M185" s="26"/>
       <c r="N185" s="22"/>
       <c r="O185" s="22"/>
       <c r="P185" s="22"/>
@@ -10948,7 +10938,7 @@
       <c r="AH185" s="22"/>
       <c r="AI185" s="22"/>
     </row>
-    <row r="186" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="21"/>
       <c r="B186" s="22"/>
       <c r="C186" s="23"/>
@@ -10960,8 +10950,8 @@
       <c r="I186" s="25"/>
       <c r="J186" s="22"/>
       <c r="K186" s="22"/>
-      <c r="L186" s="28"/>
-      <c r="M186" s="28"/>
+      <c r="L186" s="26"/>
+      <c r="M186" s="26"/>
       <c r="N186" s="22"/>
       <c r="O186" s="22"/>
       <c r="P186" s="22"/>
@@ -10985,7 +10975,7 @@
       <c r="AH186" s="22"/>
       <c r="AI186" s="22"/>
     </row>
-    <row r="187" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="21"/>
       <c r="B187" s="22"/>
       <c r="C187" s="23"/>
@@ -10997,8 +10987,8 @@
       <c r="I187" s="25"/>
       <c r="J187" s="22"/>
       <c r="K187" s="22"/>
-      <c r="L187" s="28"/>
-      <c r="M187" s="28"/>
+      <c r="L187" s="26"/>
+      <c r="M187" s="26"/>
       <c r="N187" s="22"/>
       <c r="O187" s="22"/>
       <c r="P187" s="22"/>
@@ -11022,7 +11012,7 @@
       <c r="AH187" s="22"/>
       <c r="AI187" s="22"/>
     </row>
-    <row r="188" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="21"/>
       <c r="B188" s="22"/>
       <c r="C188" s="23"/>
@@ -11034,8 +11024,8 @@
       <c r="I188" s="25"/>
       <c r="J188" s="22"/>
       <c r="K188" s="22"/>
-      <c r="L188" s="28"/>
-      <c r="M188" s="28"/>
+      <c r="L188" s="26"/>
+      <c r="M188" s="26"/>
       <c r="N188" s="22"/>
       <c r="O188" s="22"/>
       <c r="P188" s="22"/>
@@ -11059,7 +11049,7 @@
       <c r="AH188" s="22"/>
       <c r="AI188" s="22"/>
     </row>
-    <row r="189" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="21"/>
       <c r="B189" s="22"/>
       <c r="C189" s="23"/>
@@ -11071,8 +11061,8 @@
       <c r="I189" s="25"/>
       <c r="J189" s="22"/>
       <c r="K189" s="22"/>
-      <c r="L189" s="28"/>
-      <c r="M189" s="28"/>
+      <c r="L189" s="26"/>
+      <c r="M189" s="26"/>
       <c r="N189" s="22"/>
       <c r="O189" s="22"/>
       <c r="P189" s="22"/>
@@ -11096,7 +11086,7 @@
       <c r="AH189" s="22"/>
       <c r="AI189" s="22"/>
     </row>
-    <row r="190" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="21"/>
       <c r="B190" s="22"/>
       <c r="C190" s="23"/>
@@ -11108,8 +11098,8 @@
       <c r="I190" s="25"/>
       <c r="J190" s="22"/>
       <c r="K190" s="22"/>
-      <c r="L190" s="28"/>
-      <c r="M190" s="28"/>
+      <c r="L190" s="26"/>
+      <c r="M190" s="26"/>
       <c r="N190" s="22"/>
       <c r="O190" s="22"/>
       <c r="P190" s="22"/>
@@ -11133,7 +11123,7 @@
       <c r="AH190" s="22"/>
       <c r="AI190" s="22"/>
     </row>
-    <row r="191" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="21"/>
       <c r="B191" s="22"/>
       <c r="C191" s="23"/>
@@ -11145,8 +11135,8 @@
       <c r="I191" s="25"/>
       <c r="J191" s="22"/>
       <c r="K191" s="22"/>
-      <c r="L191" s="28"/>
-      <c r="M191" s="28"/>
+      <c r="L191" s="26"/>
+      <c r="M191" s="26"/>
       <c r="N191" s="22"/>
       <c r="O191" s="22"/>
       <c r="P191" s="22"/>
@@ -11170,7 +11160,7 @@
       <c r="AH191" s="22"/>
       <c r="AI191" s="22"/>
     </row>
-    <row r="192" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="21"/>
       <c r="B192" s="22"/>
       <c r="C192" s="23"/>
@@ -11182,8 +11172,8 @@
       <c r="I192" s="25"/>
       <c r="J192" s="22"/>
       <c r="K192" s="22"/>
-      <c r="L192" s="28"/>
-      <c r="M192" s="28"/>
+      <c r="L192" s="26"/>
+      <c r="M192" s="26"/>
       <c r="N192" s="22"/>
       <c r="O192" s="22"/>
       <c r="P192" s="22"/>
@@ -11207,7 +11197,7 @@
       <c r="AH192" s="22"/>
       <c r="AI192" s="22"/>
     </row>
-    <row r="193" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="21"/>
       <c r="B193" s="22"/>
       <c r="C193" s="23"/>
@@ -11219,8 +11209,8 @@
       <c r="I193" s="25"/>
       <c r="J193" s="22"/>
       <c r="K193" s="22"/>
-      <c r="L193" s="28"/>
-      <c r="M193" s="28"/>
+      <c r="L193" s="26"/>
+      <c r="M193" s="26"/>
       <c r="N193" s="22"/>
       <c r="O193" s="22"/>
       <c r="P193" s="22"/>
@@ -11244,7 +11234,7 @@
       <c r="AH193" s="22"/>
       <c r="AI193" s="22"/>
     </row>
-    <row r="194" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="21"/>
       <c r="B194" s="22"/>
       <c r="C194" s="23"/>
@@ -11256,8 +11246,8 @@
       <c r="I194" s="25"/>
       <c r="J194" s="22"/>
       <c r="K194" s="22"/>
-      <c r="L194" s="28"/>
-      <c r="M194" s="28"/>
+      <c r="L194" s="26"/>
+      <c r="M194" s="26"/>
       <c r="N194" s="22"/>
       <c r="O194" s="22"/>
       <c r="P194" s="22"/>
@@ -11281,7 +11271,7 @@
       <c r="AH194" s="22"/>
       <c r="AI194" s="22"/>
     </row>
-    <row r="195" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="21"/>
       <c r="B195" s="22"/>
       <c r="C195" s="23"/>
@@ -11293,8 +11283,8 @@
       <c r="I195" s="25"/>
       <c r="J195" s="22"/>
       <c r="K195" s="22"/>
-      <c r="L195" s="28"/>
-      <c r="M195" s="28"/>
+      <c r="L195" s="26"/>
+      <c r="M195" s="26"/>
       <c r="N195" s="22"/>
       <c r="O195" s="22"/>
       <c r="P195" s="22"/>
@@ -11318,7 +11308,7 @@
       <c r="AH195" s="22"/>
       <c r="AI195" s="22"/>
     </row>
-    <row r="196" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="21"/>
       <c r="B196" s="22"/>
       <c r="C196" s="23"/>
@@ -11330,8 +11320,8 @@
       <c r="I196" s="25"/>
       <c r="J196" s="22"/>
       <c r="K196" s="22"/>
-      <c r="L196" s="28"/>
-      <c r="M196" s="28"/>
+      <c r="L196" s="26"/>
+      <c r="M196" s="26"/>
       <c r="N196" s="22"/>
       <c r="O196" s="22"/>
       <c r="P196" s="22"/>
@@ -11355,7 +11345,7 @@
       <c r="AH196" s="22"/>
       <c r="AI196" s="22"/>
     </row>
-    <row r="197" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="21"/>
       <c r="B197" s="22"/>
       <c r="C197" s="23"/>
@@ -11367,8 +11357,8 @@
       <c r="I197" s="25"/>
       <c r="J197" s="22"/>
       <c r="K197" s="22"/>
-      <c r="L197" s="28"/>
-      <c r="M197" s="28"/>
+      <c r="L197" s="26"/>
+      <c r="M197" s="26"/>
       <c r="N197" s="22"/>
       <c r="O197" s="22"/>
       <c r="P197" s="22"/>
@@ -11392,7 +11382,7 @@
       <c r="AH197" s="22"/>
       <c r="AI197" s="22"/>
     </row>
-    <row r="198" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="21"/>
       <c r="B198" s="22"/>
       <c r="C198" s="23"/>
@@ -11404,8 +11394,8 @@
       <c r="I198" s="25"/>
       <c r="J198" s="22"/>
       <c r="K198" s="22"/>
-      <c r="L198" s="28"/>
-      <c r="M198" s="28"/>
+      <c r="L198" s="26"/>
+      <c r="M198" s="26"/>
       <c r="N198" s="22"/>
       <c r="O198" s="22"/>
       <c r="P198" s="22"/>
@@ -11429,7 +11419,7 @@
       <c r="AH198" s="22"/>
       <c r="AI198" s="22"/>
     </row>
-    <row r="199" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="21"/>
       <c r="B199" s="22"/>
       <c r="C199" s="23"/>
@@ -11441,8 +11431,8 @@
       <c r="I199" s="25"/>
       <c r="J199" s="22"/>
       <c r="K199" s="22"/>
-      <c r="L199" s="28"/>
-      <c r="M199" s="28"/>
+      <c r="L199" s="26"/>
+      <c r="M199" s="26"/>
       <c r="N199" s="22"/>
       <c r="O199" s="22"/>
       <c r="P199" s="22"/>
@@ -11466,7 +11456,7 @@
       <c r="AH199" s="22"/>
       <c r="AI199" s="22"/>
     </row>
-    <row r="200" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="21"/>
       <c r="B200" s="22"/>
       <c r="C200" s="23"/>
@@ -11478,8 +11468,8 @@
       <c r="I200" s="25"/>
       <c r="J200" s="22"/>
       <c r="K200" s="22"/>
-      <c r="L200" s="28"/>
-      <c r="M200" s="28"/>
+      <c r="L200" s="26"/>
+      <c r="M200" s="26"/>
       <c r="N200" s="22"/>
       <c r="O200" s="22"/>
       <c r="P200" s="22"/>
@@ -11503,7 +11493,7 @@
       <c r="AH200" s="22"/>
       <c r="AI200" s="22"/>
     </row>
-    <row r="201" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="21"/>
       <c r="B201" s="22"/>
       <c r="C201" s="23"/>
@@ -11515,8 +11505,8 @@
       <c r="I201" s="25"/>
       <c r="J201" s="22"/>
       <c r="K201" s="22"/>
-      <c r="L201" s="28"/>
-      <c r="M201" s="28"/>
+      <c r="L201" s="26"/>
+      <c r="M201" s="26"/>
       <c r="N201" s="22"/>
       <c r="O201" s="22"/>
       <c r="P201" s="22"/>
@@ -11540,7 +11530,7 @@
       <c r="AH201" s="22"/>
       <c r="AI201" s="22"/>
     </row>
-    <row r="202" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="21"/>
       <c r="B202" s="22"/>
       <c r="C202" s="23"/>
@@ -11552,8 +11542,8 @@
       <c r="I202" s="25"/>
       <c r="J202" s="22"/>
       <c r="K202" s="22"/>
-      <c r="L202" s="28"/>
-      <c r="M202" s="28"/>
+      <c r="L202" s="26"/>
+      <c r="M202" s="26"/>
       <c r="N202" s="22"/>
       <c r="O202" s="22"/>
       <c r="P202" s="22"/>
@@ -11577,7 +11567,7 @@
       <c r="AH202" s="22"/>
       <c r="AI202" s="22"/>
     </row>
-    <row r="203" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="21"/>
       <c r="B203" s="22"/>
       <c r="C203" s="23"/>
@@ -11589,8 +11579,8 @@
       <c r="I203" s="25"/>
       <c r="J203" s="22"/>
       <c r="K203" s="22"/>
-      <c r="L203" s="28"/>
-      <c r="M203" s="28"/>
+      <c r="L203" s="26"/>
+      <c r="M203" s="26"/>
       <c r="N203" s="22"/>
       <c r="O203" s="22"/>
       <c r="P203" s="22"/>
@@ -11614,7 +11604,7 @@
       <c r="AH203" s="22"/>
       <c r="AI203" s="22"/>
     </row>
-    <row r="204" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="21"/>
       <c r="B204" s="22"/>
       <c r="C204" s="23"/>
@@ -11626,8 +11616,8 @@
       <c r="I204" s="25"/>
       <c r="J204" s="22"/>
       <c r="K204" s="22"/>
-      <c r="L204" s="28"/>
-      <c r="M204" s="28"/>
+      <c r="L204" s="26"/>
+      <c r="M204" s="26"/>
       <c r="N204" s="22"/>
       <c r="O204" s="22"/>
       <c r="P204" s="22"/>
@@ -11651,7 +11641,7 @@
       <c r="AH204" s="22"/>
       <c r="AI204" s="22"/>
     </row>
-    <row r="205" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="21"/>
       <c r="B205" s="22"/>
       <c r="C205" s="23"/>
@@ -11663,8 +11653,8 @@
       <c r="I205" s="25"/>
       <c r="J205" s="22"/>
       <c r="K205" s="22"/>
-      <c r="L205" s="28"/>
-      <c r="M205" s="28"/>
+      <c r="L205" s="26"/>
+      <c r="M205" s="26"/>
       <c r="N205" s="22"/>
       <c r="O205" s="22"/>
       <c r="P205" s="22"/>
@@ -11688,7 +11678,7 @@
       <c r="AH205" s="22"/>
       <c r="AI205" s="22"/>
     </row>
-    <row r="206" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="21"/>
       <c r="B206" s="22"/>
       <c r="C206" s="23"/>
@@ -11700,8 +11690,8 @@
       <c r="I206" s="25"/>
       <c r="J206" s="22"/>
       <c r="K206" s="22"/>
-      <c r="L206" s="28"/>
-      <c r="M206" s="28"/>
+      <c r="L206" s="26"/>
+      <c r="M206" s="26"/>
       <c r="N206" s="22"/>
       <c r="O206" s="22"/>
       <c r="P206" s="22"/>
@@ -11725,7 +11715,7 @@
       <c r="AH206" s="22"/>
       <c r="AI206" s="22"/>
     </row>
-    <row r="207" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="21"/>
       <c r="B207" s="22"/>
       <c r="C207" s="23"/>
@@ -11737,8 +11727,8 @@
       <c r="I207" s="25"/>
       <c r="J207" s="22"/>
       <c r="K207" s="22"/>
-      <c r="L207" s="28"/>
-      <c r="M207" s="28"/>
+      <c r="L207" s="26"/>
+      <c r="M207" s="26"/>
       <c r="N207" s="22"/>
       <c r="O207" s="22"/>
       <c r="P207" s="22"/>
@@ -11762,7 +11752,7 @@
       <c r="AH207" s="22"/>
       <c r="AI207" s="22"/>
     </row>
-    <row r="208" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="21"/>
       <c r="B208" s="22"/>
       <c r="C208" s="23"/>
@@ -11774,8 +11764,8 @@
       <c r="I208" s="25"/>
       <c r="J208" s="22"/>
       <c r="K208" s="22"/>
-      <c r="L208" s="28"/>
-      <c r="M208" s="28"/>
+      <c r="L208" s="26"/>
+      <c r="M208" s="26"/>
       <c r="N208" s="22"/>
       <c r="O208" s="22"/>
       <c r="P208" s="22"/>
@@ -11799,7 +11789,7 @@
       <c r="AH208" s="22"/>
       <c r="AI208" s="22"/>
     </row>
-    <row r="209" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="21"/>
       <c r="B209" s="22"/>
       <c r="C209" s="23"/>
@@ -11811,8 +11801,8 @@
       <c r="I209" s="25"/>
       <c r="J209" s="22"/>
       <c r="K209" s="22"/>
-      <c r="L209" s="28"/>
-      <c r="M209" s="28"/>
+      <c r="L209" s="26"/>
+      <c r="M209" s="26"/>
       <c r="N209" s="22"/>
       <c r="O209" s="22"/>
       <c r="P209" s="22"/>
@@ -11836,7 +11826,7 @@
       <c r="AH209" s="22"/>
       <c r="AI209" s="22"/>
     </row>
-    <row r="210" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="21"/>
       <c r="B210" s="22"/>
       <c r="C210" s="23"/>
@@ -11848,8 +11838,8 @@
       <c r="I210" s="25"/>
       <c r="J210" s="22"/>
       <c r="K210" s="22"/>
-      <c r="L210" s="28"/>
-      <c r="M210" s="28"/>
+      <c r="L210" s="26"/>
+      <c r="M210" s="26"/>
       <c r="N210" s="22"/>
       <c r="O210" s="22"/>
       <c r="P210" s="22"/>
@@ -11873,7 +11863,7 @@
       <c r="AH210" s="22"/>
       <c r="AI210" s="22"/>
     </row>
-    <row r="211" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="21"/>
       <c r="B211" s="22"/>
       <c r="C211" s="23"/>
@@ -11885,8 +11875,8 @@
       <c r="I211" s="25"/>
       <c r="J211" s="22"/>
       <c r="K211" s="22"/>
-      <c r="L211" s="28"/>
-      <c r="M211" s="28"/>
+      <c r="L211" s="26"/>
+      <c r="M211" s="26"/>
       <c r="N211" s="22"/>
       <c r="O211" s="22"/>
       <c r="P211" s="22"/>
@@ -11910,7 +11900,7 @@
       <c r="AH211" s="22"/>
       <c r="AI211" s="22"/>
     </row>
-    <row r="212" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="21"/>
       <c r="B212" s="22"/>
       <c r="C212" s="23"/>
@@ -11922,8 +11912,8 @@
       <c r="I212" s="25"/>
       <c r="J212" s="22"/>
       <c r="K212" s="22"/>
-      <c r="L212" s="28"/>
-      <c r="M212" s="28"/>
+      <c r="L212" s="26"/>
+      <c r="M212" s="26"/>
       <c r="N212" s="22"/>
       <c r="O212" s="22"/>
       <c r="P212" s="22"/>
@@ -11947,7 +11937,7 @@
       <c r="AH212" s="22"/>
       <c r="AI212" s="22"/>
     </row>
-    <row r="213" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="21"/>
       <c r="B213" s="22"/>
       <c r="C213" s="23"/>
@@ -11959,8 +11949,8 @@
       <c r="I213" s="25"/>
       <c r="J213" s="22"/>
       <c r="K213" s="22"/>
-      <c r="L213" s="28"/>
-      <c r="M213" s="28"/>
+      <c r="L213" s="26"/>
+      <c r="M213" s="26"/>
       <c r="N213" s="22"/>
       <c r="O213" s="22"/>
       <c r="P213" s="22"/>
@@ -11984,7 +11974,7 @@
       <c r="AH213" s="22"/>
       <c r="AI213" s="22"/>
     </row>
-    <row r="214" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="21"/>
       <c r="B214" s="22"/>
       <c r="C214" s="23"/>
@@ -11996,8 +11986,8 @@
       <c r="I214" s="25"/>
       <c r="J214" s="22"/>
       <c r="K214" s="22"/>
-      <c r="L214" s="28"/>
-      <c r="M214" s="28"/>
+      <c r="L214" s="26"/>
+      <c r="M214" s="26"/>
       <c r="N214" s="22"/>
       <c r="O214" s="22"/>
       <c r="P214" s="22"/>
@@ -12021,7 +12011,7 @@
       <c r="AH214" s="22"/>
       <c r="AI214" s="22"/>
     </row>
-    <row r="215" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="21"/>
       <c r="B215" s="22"/>
       <c r="C215" s="23"/>
@@ -12033,8 +12023,8 @@
       <c r="I215" s="25"/>
       <c r="J215" s="22"/>
       <c r="K215" s="22"/>
-      <c r="L215" s="28"/>
-      <c r="M215" s="28"/>
+      <c r="L215" s="26"/>
+      <c r="M215" s="26"/>
       <c r="N215" s="22"/>
       <c r="O215" s="22"/>
       <c r="P215" s="22"/>
@@ -12058,7 +12048,7 @@
       <c r="AH215" s="22"/>
       <c r="AI215" s="22"/>
     </row>
-    <row r="216" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="21"/>
       <c r="B216" s="22"/>
       <c r="C216" s="23"/>
@@ -12070,8 +12060,8 @@
       <c r="I216" s="25"/>
       <c r="J216" s="22"/>
       <c r="K216" s="22"/>
-      <c r="L216" s="28"/>
-      <c r="M216" s="28"/>
+      <c r="L216" s="26"/>
+      <c r="M216" s="26"/>
       <c r="N216" s="22"/>
       <c r="O216" s="22"/>
       <c r="P216" s="22"/>
@@ -12095,7 +12085,7 @@
       <c r="AH216" s="22"/>
       <c r="AI216" s="22"/>
     </row>
-    <row r="217" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="21"/>
       <c r="B217" s="22"/>
       <c r="C217" s="23"/>
@@ -12107,8 +12097,8 @@
       <c r="I217" s="25"/>
       <c r="J217" s="22"/>
       <c r="K217" s="22"/>
-      <c r="L217" s="28"/>
-      <c r="M217" s="28"/>
+      <c r="L217" s="26"/>
+      <c r="M217" s="26"/>
       <c r="N217" s="22"/>
       <c r="O217" s="22"/>
       <c r="P217" s="22"/>
@@ -12132,7 +12122,7 @@
       <c r="AH217" s="22"/>
       <c r="AI217" s="22"/>
     </row>
-    <row r="218" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="21"/>
       <c r="B218" s="22"/>
       <c r="C218" s="23"/>
@@ -12144,8 +12134,8 @@
       <c r="I218" s="25"/>
       <c r="J218" s="22"/>
       <c r="K218" s="22"/>
-      <c r="L218" s="28"/>
-      <c r="M218" s="28"/>
+      <c r="L218" s="26"/>
+      <c r="M218" s="26"/>
       <c r="N218" s="22"/>
       <c r="O218" s="22"/>
       <c r="P218" s="22"/>
@@ -12169,7 +12159,7 @@
       <c r="AH218" s="22"/>
       <c r="AI218" s="22"/>
     </row>
-    <row r="219" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="21"/>
       <c r="B219" s="22"/>
       <c r="C219" s="23"/>
@@ -12181,8 +12171,8 @@
       <c r="I219" s="25"/>
       <c r="J219" s="22"/>
       <c r="K219" s="22"/>
-      <c r="L219" s="28"/>
-      <c r="M219" s="28"/>
+      <c r="L219" s="26"/>
+      <c r="M219" s="26"/>
       <c r="N219" s="22"/>
       <c r="O219" s="22"/>
       <c r="P219" s="22"/>
@@ -12206,7 +12196,7 @@
       <c r="AH219" s="22"/>
       <c r="AI219" s="22"/>
     </row>
-    <row r="220" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="21"/>
       <c r="B220" s="22"/>
       <c r="C220" s="23"/>
@@ -12243,7 +12233,7 @@
       <c r="AH220" s="22"/>
       <c r="AI220" s="22"/>
     </row>
-    <row r="221" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="21"/>
       <c r="B221" s="22"/>
       <c r="C221" s="23"/>
@@ -12280,7 +12270,7 @@
       <c r="AH221" s="22"/>
       <c r="AI221" s="22"/>
     </row>
-    <row r="222" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="21"/>
       <c r="B222" s="22"/>
       <c r="C222" s="23"/>
@@ -12317,7 +12307,7 @@
       <c r="AH222" s="22"/>
       <c r="AI222" s="22"/>
     </row>
-    <row r="223" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="21"/>
       <c r="B223" s="22"/>
       <c r="C223" s="23"/>
@@ -12354,7 +12344,7 @@
       <c r="AH223" s="22"/>
       <c r="AI223" s="22"/>
     </row>
-    <row r="224" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="21"/>
       <c r="B224" s="22"/>
       <c r="C224" s="23"/>
@@ -12391,7 +12381,7 @@
       <c r="AH224" s="22"/>
       <c r="AI224" s="22"/>
     </row>
-    <row r="225" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="21"/>
       <c r="B225" s="22"/>
       <c r="C225" s="23"/>
@@ -12428,7 +12418,7 @@
       <c r="AH225" s="22"/>
       <c r="AI225" s="22"/>
     </row>
-    <row r="226" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="21"/>
       <c r="B226" s="22"/>
       <c r="C226" s="23"/>
@@ -12465,7 +12455,7 @@
       <c r="AH226" s="22"/>
       <c r="AI226" s="22"/>
     </row>
-    <row r="227" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="21"/>
       <c r="B227" s="22"/>
       <c r="C227" s="23"/>
@@ -12502,7 +12492,7 @@
       <c r="AH227" s="22"/>
       <c r="AI227" s="22"/>
     </row>
-    <row r="228" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="21"/>
       <c r="B228" s="22"/>
       <c r="C228" s="23"/>
@@ -12539,7 +12529,7 @@
       <c r="AH228" s="22"/>
       <c r="AI228" s="22"/>
     </row>
-    <row r="229" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="21"/>
       <c r="B229" s="22"/>
       <c r="C229" s="23"/>
@@ -12576,7 +12566,7 @@
       <c r="AH229" s="22"/>
       <c r="AI229" s="22"/>
     </row>
-    <row r="230" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="21"/>
       <c r="B230" s="22"/>
       <c r="C230" s="23"/>
@@ -12613,7 +12603,7 @@
       <c r="AH230" s="22"/>
       <c r="AI230" s="22"/>
     </row>
-    <row r="231" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="21"/>
       <c r="B231" s="22"/>
       <c r="C231" s="23"/>
@@ -12650,7 +12640,7 @@
       <c r="AH231" s="22"/>
       <c r="AI231" s="22"/>
     </row>
-    <row r="232" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="21"/>
       <c r="B232" s="22"/>
       <c r="C232" s="23"/>
@@ -12687,7 +12677,7 @@
       <c r="AH232" s="22"/>
       <c r="AI232" s="22"/>
     </row>
-    <row r="233" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="21"/>
       <c r="B233" s="22"/>
       <c r="C233" s="23"/>
@@ -12724,7 +12714,7 @@
       <c r="AH233" s="22"/>
       <c r="AI233" s="22"/>
     </row>
-    <row r="234" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="21"/>
       <c r="B234" s="22"/>
       <c r="C234" s="23"/>
@@ -12761,7 +12751,7 @@
       <c r="AH234" s="22"/>
       <c r="AI234" s="22"/>
     </row>
-    <row r="235" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="21"/>
       <c r="B235" s="22"/>
       <c r="C235" s="23"/>
@@ -12798,7 +12788,7 @@
       <c r="AH235" s="22"/>
       <c r="AI235" s="22"/>
     </row>
-    <row r="236" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="21"/>
       <c r="B236" s="22"/>
       <c r="C236" s="23"/>
@@ -12835,7 +12825,7 @@
       <c r="AH236" s="22"/>
       <c r="AI236" s="22"/>
     </row>
-    <row r="237" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="21"/>
       <c r="B237" s="22"/>
       <c r="C237" s="23"/>
@@ -12872,7 +12862,7 @@
       <c r="AH237" s="22"/>
       <c r="AI237" s="22"/>
     </row>
-    <row r="238" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="21"/>
       <c r="B238" s="22"/>
       <c r="C238" s="23"/>
@@ -12909,7 +12899,7 @@
       <c r="AH238" s="22"/>
       <c r="AI238" s="22"/>
     </row>
-    <row r="239" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="21"/>
       <c r="B239" s="22"/>
       <c r="C239" s="23"/>
@@ -12946,7 +12936,7 @@
       <c r="AH239" s="22"/>
       <c r="AI239" s="22"/>
     </row>
-    <row r="240" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="21"/>
       <c r="B240" s="22"/>
       <c r="C240" s="23"/>
@@ -12983,7 +12973,7 @@
       <c r="AH240" s="22"/>
       <c r="AI240" s="22"/>
     </row>
-    <row r="241" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="21"/>
       <c r="B241" s="22"/>
       <c r="C241" s="23"/>
@@ -13020,7 +13010,7 @@
       <c r="AH241" s="22"/>
       <c r="AI241" s="22"/>
     </row>
-    <row r="242" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="21"/>
       <c r="B242" s="22"/>
       <c r="C242" s="23"/>
@@ -13057,7 +13047,7 @@
       <c r="AH242" s="22"/>
       <c r="AI242" s="22"/>
     </row>
-    <row r="243" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="21"/>
       <c r="B243" s="22"/>
       <c r="C243" s="23"/>
@@ -13094,7 +13084,7 @@
       <c r="AH243" s="22"/>
       <c r="AI243" s="22"/>
     </row>
-    <row r="244" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="21"/>
       <c r="B244" s="22"/>
       <c r="C244" s="23"/>
@@ -13131,7 +13121,7 @@
       <c r="AH244" s="22"/>
       <c r="AI244" s="22"/>
     </row>
-    <row r="245" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="21"/>
       <c r="B245" s="22"/>
       <c r="C245" s="23"/>
@@ -13168,7 +13158,7 @@
       <c r="AH245" s="22"/>
       <c r="AI245" s="22"/>
     </row>
-    <row r="246" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="21"/>
       <c r="B246" s="22"/>
       <c r="C246" s="23"/>
@@ -13205,7 +13195,7 @@
       <c r="AH246" s="22"/>
       <c r="AI246" s="22"/>
     </row>
-    <row r="247" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="21"/>
       <c r="B247" s="22"/>
       <c r="C247" s="23"/>
@@ -13242,7 +13232,7 @@
       <c r="AH247" s="22"/>
       <c r="AI247" s="22"/>
     </row>
-    <row r="248" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="21"/>
       <c r="B248" s="22"/>
       <c r="C248" s="23"/>
@@ -13279,7 +13269,7 @@
       <c r="AH248" s="22"/>
       <c r="AI248" s="22"/>
     </row>
-    <row r="249" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="21"/>
       <c r="B249" s="22"/>
       <c r="C249" s="23"/>
@@ -13316,7 +13306,7 @@
       <c r="AH249" s="22"/>
       <c r="AI249" s="22"/>
     </row>
-    <row r="250" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="21"/>
       <c r="B250" s="22"/>
       <c r="C250" s="23"/>
@@ -13353,7 +13343,7 @@
       <c r="AH250" s="22"/>
       <c r="AI250" s="22"/>
     </row>
-    <row r="251" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="21"/>
       <c r="B251" s="22"/>
       <c r="C251" s="23"/>
@@ -13390,7 +13380,7 @@
       <c r="AH251" s="22"/>
       <c r="AI251" s="22"/>
     </row>
-    <row r="252" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="21"/>
       <c r="B252" s="22"/>
       <c r="C252" s="23"/>
@@ -13427,7 +13417,7 @@
       <c r="AH252" s="22"/>
       <c r="AI252" s="22"/>
     </row>
-    <row r="253" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="21"/>
       <c r="B253" s="22"/>
       <c r="C253" s="23"/>
@@ -13464,7 +13454,7 @@
       <c r="AH253" s="22"/>
       <c r="AI253" s="22"/>
     </row>
-    <row r="254" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="21"/>
       <c r="B254" s="22"/>
       <c r="C254" s="23"/>
@@ -13501,7 +13491,7 @@
       <c r="AH254" s="22"/>
       <c r="AI254" s="22"/>
     </row>
-    <row r="255" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="21"/>
       <c r="B255" s="22"/>
       <c r="C255" s="23"/>
@@ -13538,7 +13528,7 @@
       <c r="AH255" s="22"/>
       <c r="AI255" s="22"/>
     </row>
-    <row r="256" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="21"/>
       <c r="B256" s="22"/>
       <c r="C256" s="23"/>
@@ -13575,7 +13565,7 @@
       <c r="AH256" s="22"/>
       <c r="AI256" s="22"/>
     </row>
-    <row r="257" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="21"/>
       <c r="B257" s="22"/>
       <c r="C257" s="23"/>
@@ -13612,7 +13602,7 @@
       <c r="AH257" s="22"/>
       <c r="AI257" s="22"/>
     </row>
-    <row r="258" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="21"/>
       <c r="B258" s="22"/>
       <c r="C258" s="23"/>
@@ -13649,7 +13639,7 @@
       <c r="AH258" s="22"/>
       <c r="AI258" s="22"/>
     </row>
-    <row r="259" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="21"/>
       <c r="B259" s="22"/>
       <c r="C259" s="23"/>
@@ -13686,7 +13676,7 @@
       <c r="AH259" s="22"/>
       <c r="AI259" s="22"/>
     </row>
-    <row r="260" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="21"/>
       <c r="B260" s="22"/>
       <c r="C260" s="23"/>
@@ -13723,7 +13713,7 @@
       <c r="AH260" s="22"/>
       <c r="AI260" s="22"/>
     </row>
-    <row r="261" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="21"/>
       <c r="B261" s="22"/>
       <c r="C261" s="23"/>
@@ -13760,7 +13750,7 @@
       <c r="AH261" s="22"/>
       <c r="AI261" s="22"/>
     </row>
-    <row r="262" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="21"/>
       <c r="B262" s="22"/>
       <c r="C262" s="23"/>
@@ -13797,7 +13787,7 @@
       <c r="AH262" s="22"/>
       <c r="AI262" s="22"/>
     </row>
-    <row r="263" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="21"/>
       <c r="B263" s="22"/>
       <c r="C263" s="23"/>
@@ -13834,7 +13824,7 @@
       <c r="AH263" s="22"/>
       <c r="AI263" s="22"/>
     </row>
-    <row r="264" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="21"/>
       <c r="B264" s="22"/>
       <c r="C264" s="23"/>
@@ -13871,7 +13861,7 @@
       <c r="AH264" s="22"/>
       <c r="AI264" s="22"/>
     </row>
-    <row r="265" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="21"/>
       <c r="B265" s="22"/>
       <c r="C265" s="23"/>
@@ -13908,7 +13898,7 @@
       <c r="AH265" s="22"/>
       <c r="AI265" s="22"/>
     </row>
-    <row r="266" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="21"/>
       <c r="B266" s="22"/>
       <c r="C266" s="23"/>
@@ -13945,7 +13935,7 @@
       <c r="AH266" s="22"/>
       <c r="AI266" s="22"/>
     </row>
-    <row r="267" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="21"/>
       <c r="B267" s="22"/>
       <c r="C267" s="23"/>
@@ -13982,7 +13972,7 @@
       <c r="AH267" s="22"/>
       <c r="AI267" s="22"/>
     </row>
-    <row r="268" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="21"/>
       <c r="B268" s="22"/>
       <c r="C268" s="23"/>
@@ -14019,7 +14009,7 @@
       <c r="AH268" s="22"/>
       <c r="AI268" s="22"/>
     </row>
-    <row r="269" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="21"/>
       <c r="B269" s="22"/>
       <c r="C269" s="23"/>
@@ -14056,7 +14046,7 @@
       <c r="AH269" s="22"/>
       <c r="AI269" s="22"/>
     </row>
-    <row r="270" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="21"/>
       <c r="B270" s="22"/>
       <c r="C270" s="23"/>
@@ -14093,7 +14083,7 @@
       <c r="AH270" s="22"/>
       <c r="AI270" s="22"/>
     </row>
-    <row r="271" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="21"/>
       <c r="B271" s="22"/>
       <c r="C271" s="23"/>
@@ -14130,7 +14120,7 @@
       <c r="AH271" s="22"/>
       <c r="AI271" s="22"/>
     </row>
-    <row r="272" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="21"/>
       <c r="B272" s="22"/>
       <c r="C272" s="23"/>
@@ -14167,7 +14157,7 @@
       <c r="AH272" s="22"/>
       <c r="AI272" s="22"/>
     </row>
-    <row r="273" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="21"/>
       <c r="B273" s="22"/>
       <c r="C273" s="23"/>
@@ -14204,7 +14194,7 @@
       <c r="AH273" s="22"/>
       <c r="AI273" s="22"/>
     </row>
-    <row r="274" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="21"/>
       <c r="B274" s="22"/>
       <c r="C274" s="23"/>
@@ -14241,7 +14231,7 @@
       <c r="AH274" s="22"/>
       <c r="AI274" s="22"/>
     </row>
-    <row r="275" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="21"/>
       <c r="B275" s="22"/>
       <c r="C275" s="23"/>
@@ -14278,7 +14268,7 @@
       <c r="AH275" s="22"/>
       <c r="AI275" s="22"/>
     </row>
-    <row r="276" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="21"/>
       <c r="B276" s="22"/>
       <c r="C276" s="23"/>
@@ -14315,7 +14305,7 @@
       <c r="AH276" s="22"/>
       <c r="AI276" s="22"/>
     </row>
-    <row r="277" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="21"/>
       <c r="B277" s="22"/>
       <c r="C277" s="23"/>
@@ -14352,7 +14342,7 @@
       <c r="AH277" s="22"/>
       <c r="AI277" s="22"/>
     </row>
-    <row r="278" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="21"/>
       <c r="B278" s="22"/>
       <c r="C278" s="23"/>
@@ -14389,7 +14379,7 @@
       <c r="AH278" s="22"/>
       <c r="AI278" s="22"/>
     </row>
-    <row r="279" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="21"/>
       <c r="B279" s="22"/>
       <c r="C279" s="23"/>
@@ -14426,7 +14416,7 @@
       <c r="AH279" s="22"/>
       <c r="AI279" s="22"/>
     </row>
-    <row r="280" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="21"/>
       <c r="B280" s="22"/>
       <c r="C280" s="23"/>
@@ -14463,7 +14453,7 @@
       <c r="AH280" s="22"/>
       <c r="AI280" s="22"/>
     </row>
-    <row r="281" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="21"/>
       <c r="B281" s="22"/>
       <c r="C281" s="23"/>
@@ -14500,7 +14490,7 @@
       <c r="AH281" s="22"/>
       <c r="AI281" s="22"/>
     </row>
-    <row r="282" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="21"/>
       <c r="B282" s="22"/>
       <c r="C282" s="23"/>
@@ -14537,7 +14527,7 @@
       <c r="AH282" s="22"/>
       <c r="AI282" s="22"/>
     </row>
-    <row r="283" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="21"/>
       <c r="B283" s="22"/>
       <c r="C283" s="23"/>
@@ -14574,7 +14564,7 @@
       <c r="AH283" s="22"/>
       <c r="AI283" s="22"/>
     </row>
-    <row r="284" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="21"/>
       <c r="B284" s="22"/>
       <c r="C284" s="23"/>
@@ -14611,7 +14601,7 @@
       <c r="AH284" s="22"/>
       <c r="AI284" s="22"/>
     </row>
-    <row r="285" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="21"/>
       <c r="B285" s="22"/>
       <c r="C285" s="23"/>
@@ -14648,7 +14638,7 @@
       <c r="AH285" s="22"/>
       <c r="AI285" s="22"/>
     </row>
-    <row r="286" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="21"/>
       <c r="B286" s="22"/>
       <c r="C286" s="23"/>
@@ -14685,7 +14675,7 @@
       <c r="AH286" s="22"/>
       <c r="AI286" s="22"/>
     </row>
-    <row r="287" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="21"/>
       <c r="B287" s="22"/>
       <c r="C287" s="23"/>
@@ -14722,7 +14712,7 @@
       <c r="AH287" s="22"/>
       <c r="AI287" s="22"/>
     </row>
-    <row r="288" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="21"/>
       <c r="B288" s="22"/>
       <c r="C288" s="23"/>
@@ -14759,7 +14749,7 @@
       <c r="AH288" s="22"/>
       <c r="AI288" s="22"/>
     </row>
-    <row r="289" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="21"/>
       <c r="B289" s="22"/>
       <c r="C289" s="23"/>
@@ -14796,7 +14786,7 @@
       <c r="AH289" s="22"/>
       <c r="AI289" s="22"/>
     </row>
-    <row r="290" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="21"/>
       <c r="B290" s="22"/>
       <c r="C290" s="23"/>
@@ -14833,7 +14823,7 @@
       <c r="AH290" s="22"/>
       <c r="AI290" s="22"/>
     </row>
-    <row r="291" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="21"/>
       <c r="B291" s="22"/>
       <c r="C291" s="23"/>
@@ -14870,7 +14860,7 @@
       <c r="AH291" s="22"/>
       <c r="AI291" s="22"/>
     </row>
-    <row r="292" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="21"/>
       <c r="B292" s="22"/>
       <c r="C292" s="23"/>
@@ -14907,7 +14897,7 @@
       <c r="AH292" s="22"/>
       <c r="AI292" s="22"/>
     </row>
-    <row r="293" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="21"/>
       <c r="B293" s="22"/>
       <c r="C293" s="23"/>
@@ -14944,7 +14934,7 @@
       <c r="AH293" s="22"/>
       <c r="AI293" s="22"/>
     </row>
-    <row r="294" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="21"/>
       <c r="B294" s="22"/>
       <c r="C294" s="23"/>
@@ -14981,7 +14971,7 @@
       <c r="AH294" s="22"/>
       <c r="AI294" s="22"/>
     </row>
-    <row r="295" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="21"/>
       <c r="B295" s="22"/>
       <c r="C295" s="23"/>
@@ -15018,7 +15008,7 @@
       <c r="AH295" s="22"/>
       <c r="AI295" s="22"/>
     </row>
-    <row r="296" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="21"/>
       <c r="B296" s="22"/>
       <c r="C296" s="23"/>
@@ -15055,7 +15045,7 @@
       <c r="AH296" s="22"/>
       <c r="AI296" s="22"/>
     </row>
-    <row r="297" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="21"/>
       <c r="B297" s="22"/>
       <c r="C297" s="23"/>
@@ -15092,7 +15082,7 @@
       <c r="AH297" s="22"/>
       <c r="AI297" s="22"/>
     </row>
-    <row r="298" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="21"/>
       <c r="B298" s="22"/>
       <c r="C298" s="23"/>
@@ -15129,7 +15119,7 @@
       <c r="AH298" s="22"/>
       <c r="AI298" s="22"/>
     </row>
-    <row r="299" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="21"/>
       <c r="B299" s="22"/>
       <c r="C299" s="23"/>
@@ -15166,7 +15156,7 @@
       <c r="AH299" s="22"/>
       <c r="AI299" s="22"/>
     </row>
-    <row r="300" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="21"/>
       <c r="B300" s="22"/>
       <c r="C300" s="23"/>
@@ -15203,7 +15193,7 @@
       <c r="AH300" s="22"/>
       <c r="AI300" s="22"/>
     </row>
-    <row r="301" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="21"/>
       <c r="B301" s="22"/>
       <c r="C301" s="23"/>
@@ -15240,7 +15230,7 @@
       <c r="AH301" s="22"/>
       <c r="AI301" s="22"/>
     </row>
-    <row r="302" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="21"/>
       <c r="B302" s="22"/>
       <c r="C302" s="23"/>
@@ -15277,7 +15267,7 @@
       <c r="AH302" s="22"/>
       <c r="AI302" s="22"/>
     </row>
-    <row r="303" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="21"/>
       <c r="B303" s="22"/>
       <c r="C303" s="23"/>
@@ -15314,7 +15304,7 @@
       <c r="AH303" s="22"/>
       <c r="AI303" s="22"/>
     </row>
-    <row r="304" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="21"/>
       <c r="B304" s="22"/>
       <c r="C304" s="23"/>
@@ -15351,7 +15341,7 @@
       <c r="AH304" s="22"/>
       <c r="AI304" s="22"/>
     </row>
-    <row r="305" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="21"/>
       <c r="B305" s="22"/>
       <c r="C305" s="23"/>
@@ -15388,7 +15378,7 @@
       <c r="AH305" s="22"/>
       <c r="AI305" s="22"/>
     </row>
-    <row r="306" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="21"/>
       <c r="B306" s="22"/>
       <c r="C306" s="23"/>
@@ -15425,7 +15415,7 @@
       <c r="AH306" s="22"/>
       <c r="AI306" s="22"/>
     </row>
-    <row r="307" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="21"/>
       <c r="B307" s="22"/>
       <c r="C307" s="23"/>
@@ -15462,7 +15452,7 @@
       <c r="AH307" s="22"/>
       <c r="AI307" s="22"/>
     </row>
-    <row r="308" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="21"/>
       <c r="B308" s="22"/>
       <c r="C308" s="23"/>
@@ -15499,7 +15489,7 @@
       <c r="AH308" s="22"/>
       <c r="AI308" s="22"/>
     </row>
-    <row r="309" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="21"/>
       <c r="B309" s="22"/>
       <c r="C309" s="23"/>
@@ -15536,7 +15526,7 @@
       <c r="AH309" s="22"/>
       <c r="AI309" s="22"/>
     </row>
-    <row r="310" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="21"/>
       <c r="B310" s="22"/>
       <c r="C310" s="23"/>
@@ -15573,7 +15563,7 @@
       <c r="AH310" s="22"/>
       <c r="AI310" s="22"/>
     </row>
-    <row r="311" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="21"/>
       <c r="B311" s="22"/>
       <c r="C311" s="23"/>
@@ -15610,7 +15600,7 @@
       <c r="AH311" s="22"/>
       <c r="AI311" s="22"/>
     </row>
-    <row r="312" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="21"/>
       <c r="B312" s="22"/>
       <c r="C312" s="23"/>
@@ -15647,7 +15637,7 @@
       <c r="AH312" s="22"/>
       <c r="AI312" s="22"/>
     </row>
-    <row r="313" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="21"/>
       <c r="B313" s="22"/>
       <c r="C313" s="23"/>
@@ -15684,7 +15674,7 @@
       <c r="AH313" s="22"/>
       <c r="AI313" s="22"/>
     </row>
-    <row r="314" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="21"/>
       <c r="B314" s="22"/>
       <c r="C314" s="23"/>
@@ -15721,7 +15711,7 @@
       <c r="AH314" s="22"/>
       <c r="AI314" s="22"/>
     </row>
-    <row r="315" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="21"/>
       <c r="B315" s="22"/>
       <c r="C315" s="23"/>
@@ -15758,7 +15748,7 @@
       <c r="AH315" s="22"/>
       <c r="AI315" s="22"/>
     </row>
-    <row r="316" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="21"/>
       <c r="B316" s="22"/>
       <c r="C316" s="23"/>
@@ -15795,7 +15785,7 @@
       <c r="AH316" s="22"/>
       <c r="AI316" s="22"/>
     </row>
-    <row r="317" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="21"/>
       <c r="B317" s="22"/>
       <c r="C317" s="23"/>
@@ -15832,7 +15822,7 @@
       <c r="AH317" s="22"/>
       <c r="AI317" s="22"/>
     </row>
-    <row r="318" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="21"/>
       <c r="B318" s="22"/>
       <c r="C318" s="23"/>
@@ -15869,7 +15859,7 @@
       <c r="AH318" s="22"/>
       <c r="AI318" s="22"/>
     </row>
-    <row r="319" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="21"/>
       <c r="B319" s="22"/>
       <c r="C319" s="23"/>
@@ -15906,7 +15896,7 @@
       <c r="AH319" s="22"/>
       <c r="AI319" s="22"/>
     </row>
-    <row r="320" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="21"/>
       <c r="B320" s="22"/>
       <c r="C320" s="23"/>
@@ -15943,7 +15933,7 @@
       <c r="AH320" s="22"/>
       <c r="AI320" s="22"/>
     </row>
-    <row r="321" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="21"/>
       <c r="B321" s="22"/>
       <c r="C321" s="23"/>
@@ -15980,7 +15970,7 @@
       <c r="AH321" s="22"/>
       <c r="AI321" s="22"/>
     </row>
-    <row r="322" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="21"/>
       <c r="B322" s="22"/>
       <c r="C322" s="23"/>
@@ -16017,7 +16007,7 @@
       <c r="AH322" s="22"/>
       <c r="AI322" s="22"/>
     </row>
-    <row r="323" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="21"/>
       <c r="B323" s="22"/>
       <c r="C323" s="23"/>
@@ -16054,7 +16044,7 @@
       <c r="AH323" s="22"/>
       <c r="AI323" s="22"/>
     </row>
-    <row r="324" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="21"/>
       <c r="B324" s="22"/>
       <c r="C324" s="23"/>
@@ -16091,7 +16081,7 @@
       <c r="AH324" s="22"/>
       <c r="AI324" s="22"/>
     </row>
-    <row r="325" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="21"/>
       <c r="B325" s="22"/>
       <c r="C325" s="23"/>
@@ -16128,7 +16118,7 @@
       <c r="AH325" s="22"/>
       <c r="AI325" s="22"/>
     </row>
-    <row r="326" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="21"/>
       <c r="B326" s="22"/>
       <c r="C326" s="23"/>
@@ -16165,7 +16155,7 @@
       <c r="AH326" s="22"/>
       <c r="AI326" s="22"/>
     </row>
-    <row r="327" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="21"/>
       <c r="B327" s="22"/>
       <c r="C327" s="23"/>
@@ -16202,7 +16192,7 @@
       <c r="AH327" s="22"/>
       <c r="AI327" s="22"/>
     </row>
-    <row r="328" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="21"/>
       <c r="B328" s="22"/>
       <c r="C328" s="23"/>
@@ -16239,7 +16229,7 @@
       <c r="AH328" s="22"/>
       <c r="AI328" s="22"/>
     </row>
-    <row r="329" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="21"/>
       <c r="B329" s="22"/>
       <c r="C329" s="23"/>
@@ -16276,7 +16266,7 @@
       <c r="AH329" s="22"/>
       <c r="AI329" s="22"/>
     </row>
-    <row r="330" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="21"/>
       <c r="B330" s="22"/>
       <c r="C330" s="23"/>
@@ -16313,7 +16303,7 @@
       <c r="AH330" s="22"/>
       <c r="AI330" s="22"/>
     </row>
-    <row r="331" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="21"/>
       <c r="B331" s="22"/>
       <c r="C331" s="23"/>
@@ -16350,7 +16340,7 @@
       <c r="AH331" s="22"/>
       <c r="AI331" s="22"/>
     </row>
-    <row r="332" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="21"/>
       <c r="B332" s="22"/>
       <c r="C332" s="23"/>
@@ -16387,7 +16377,7 @@
       <c r="AH332" s="22"/>
       <c r="AI332" s="22"/>
     </row>
-    <row r="333" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="21"/>
       <c r="B333" s="22"/>
       <c r="C333" s="23"/>
@@ -16424,7 +16414,7 @@
       <c r="AH333" s="22"/>
       <c r="AI333" s="22"/>
     </row>
-    <row r="334" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="21"/>
       <c r="B334" s="22"/>
       <c r="C334" s="23"/>
@@ -16461,7 +16451,7 @@
       <c r="AH334" s="22"/>
       <c r="AI334" s="22"/>
     </row>
-    <row r="335" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="21"/>
       <c r="B335" s="22"/>
       <c r="C335" s="23"/>
@@ -16498,7 +16488,7 @@
       <c r="AH335" s="22"/>
       <c r="AI335" s="22"/>
     </row>
-    <row r="336" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="21"/>
       <c r="B336" s="22"/>
       <c r="C336" s="23"/>
@@ -16535,7 +16525,7 @@
       <c r="AH336" s="22"/>
       <c r="AI336" s="22"/>
     </row>
-    <row r="337" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="21"/>
       <c r="B337" s="22"/>
       <c r="C337" s="23"/>
@@ -16572,7 +16562,7 @@
       <c r="AH337" s="22"/>
       <c r="AI337" s="22"/>
     </row>
-    <row r="338" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="21"/>
       <c r="B338" s="22"/>
       <c r="C338" s="23"/>
@@ -16609,7 +16599,7 @@
       <c r="AH338" s="22"/>
       <c r="AI338" s="22"/>
     </row>
-    <row r="339" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="21"/>
       <c r="B339" s="22"/>
       <c r="C339" s="23"/>
@@ -16646,7 +16636,7 @@
       <c r="AH339" s="22"/>
       <c r="AI339" s="22"/>
     </row>
-    <row r="340" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="21"/>
       <c r="B340" s="22"/>
       <c r="C340" s="23"/>
@@ -16683,7 +16673,7 @@
       <c r="AH340" s="22"/>
       <c r="AI340" s="22"/>
     </row>
-    <row r="341" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="21"/>
       <c r="B341" s="22"/>
       <c r="C341" s="23"/>
@@ -16720,7 +16710,7 @@
       <c r="AH341" s="22"/>
       <c r="AI341" s="22"/>
     </row>
-    <row r="342" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="21"/>
       <c r="B342" s="22"/>
       <c r="C342" s="23"/>
@@ -16757,7 +16747,7 @@
       <c r="AH342" s="22"/>
       <c r="AI342" s="22"/>
     </row>
-    <row r="343" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="21"/>
       <c r="B343" s="22"/>
       <c r="C343" s="23"/>
@@ -16794,7 +16784,7 @@
       <c r="AH343" s="22"/>
       <c r="AI343" s="22"/>
     </row>
-    <row r="344" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="21"/>
       <c r="B344" s="22"/>
       <c r="C344" s="23"/>
@@ -16831,7 +16821,7 @@
       <c r="AH344" s="22"/>
       <c r="AI344" s="22"/>
     </row>
-    <row r="345" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="21"/>
       <c r="B345" s="22"/>
       <c r="C345" s="23"/>
@@ -16868,7 +16858,7 @@
       <c r="AH345" s="22"/>
       <c r="AI345" s="22"/>
     </row>
-    <row r="346" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="21"/>
       <c r="B346" s="22"/>
       <c r="C346" s="23"/>
@@ -16905,7 +16895,7 @@
       <c r="AH346" s="22"/>
       <c r="AI346" s="22"/>
     </row>
-    <row r="347" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="21"/>
       <c r="B347" s="22"/>
       <c r="C347" s="23"/>
@@ -16942,7 +16932,7 @@
       <c r="AH347" s="22"/>
       <c r="AI347" s="22"/>
     </row>
-    <row r="348" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="21"/>
       <c r="B348" s="22"/>
       <c r="C348" s="23"/>
@@ -16979,7 +16969,7 @@
       <c r="AH348" s="22"/>
       <c r="AI348" s="22"/>
     </row>
-    <row r="349" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="21"/>
       <c r="B349" s="22"/>
       <c r="C349" s="23"/>
@@ -17016,7 +17006,7 @@
       <c r="AH349" s="22"/>
       <c r="AI349" s="22"/>
     </row>
-    <row r="350" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="21"/>
       <c r="B350" s="22"/>
       <c r="C350" s="23"/>
@@ -17053,7 +17043,7 @@
       <c r="AH350" s="22"/>
       <c r="AI350" s="22"/>
     </row>
-    <row r="351" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="21"/>
       <c r="B351" s="22"/>
       <c r="C351" s="23"/>
@@ -17090,7 +17080,7 @@
       <c r="AH351" s="22"/>
       <c r="AI351" s="22"/>
     </row>
-    <row r="352" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="21"/>
       <c r="B352" s="22"/>
       <c r="C352" s="23"/>
@@ -17127,7 +17117,7 @@
       <c r="AH352" s="22"/>
       <c r="AI352" s="22"/>
     </row>
-    <row r="353" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="21"/>
       <c r="B353" s="22"/>
       <c r="C353" s="23"/>
@@ -17164,7 +17154,7 @@
       <c r="AH353" s="22"/>
       <c r="AI353" s="22"/>
     </row>
-    <row r="354" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" s="21"/>
       <c r="B354" s="22"/>
       <c r="C354" s="23"/>
@@ -17201,7 +17191,7 @@
       <c r="AH354" s="22"/>
       <c r="AI354" s="22"/>
     </row>
-    <row r="355" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="21"/>
       <c r="B355" s="22"/>
       <c r="C355" s="23"/>
@@ -17238,7 +17228,7 @@
       <c r="AH355" s="22"/>
       <c r="AI355" s="22"/>
     </row>
-    <row r="356" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="21"/>
       <c r="B356" s="22"/>
       <c r="C356" s="23"/>
@@ -17275,7 +17265,7 @@
       <c r="AH356" s="22"/>
       <c r="AI356" s="22"/>
     </row>
-    <row r="357" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357" s="21"/>
       <c r="B357" s="22"/>
       <c r="C357" s="23"/>
@@ -17312,7 +17302,7 @@
       <c r="AH357" s="22"/>
       <c r="AI357" s="22"/>
     </row>
-    <row r="358" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" s="21"/>
       <c r="B358" s="22"/>
       <c r="C358" s="23"/>
@@ -17349,7 +17339,7 @@
       <c r="AH358" s="22"/>
       <c r="AI358" s="22"/>
     </row>
-    <row r="359" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359" s="21"/>
       <c r="B359" s="22"/>
       <c r="C359" s="23"/>
@@ -17386,7 +17376,7 @@
       <c r="AH359" s="22"/>
       <c r="AI359" s="22"/>
     </row>
-    <row r="360" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" s="21"/>
       <c r="B360" s="22"/>
       <c r="C360" s="23"/>
@@ -17423,7 +17413,7 @@
       <c r="AH360" s="22"/>
       <c r="AI360" s="22"/>
     </row>
-    <row r="361" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" s="21"/>
       <c r="B361" s="22"/>
       <c r="C361" s="23"/>
@@ -17460,7 +17450,7 @@
       <c r="AH361" s="22"/>
       <c r="AI361" s="22"/>
     </row>
-    <row r="362" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" s="21"/>
       <c r="B362" s="22"/>
       <c r="C362" s="23"/>
@@ -17497,7 +17487,7 @@
       <c r="AH362" s="22"/>
       <c r="AI362" s="22"/>
     </row>
-    <row r="363" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" s="21"/>
       <c r="B363" s="22"/>
       <c r="C363" s="23"/>
@@ -17534,7 +17524,7 @@
       <c r="AH363" s="22"/>
       <c r="AI363" s="22"/>
     </row>
-    <row r="364" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A364" s="21"/>
       <c r="B364" s="22"/>
       <c r="C364" s="23"/>
@@ -17571,7 +17561,7 @@
       <c r="AH364" s="22"/>
       <c r="AI364" s="22"/>
     </row>
-    <row r="365" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A365" s="21"/>
       <c r="B365" s="22"/>
       <c r="C365" s="23"/>
@@ -17608,7 +17598,7 @@
       <c r="AH365" s="22"/>
       <c r="AI365" s="22"/>
     </row>
-    <row r="366" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A366" s="21"/>
       <c r="B366" s="22"/>
       <c r="C366" s="23"/>
@@ -17645,7 +17635,7 @@
       <c r="AH366" s="22"/>
       <c r="AI366" s="22"/>
     </row>
-    <row r="367" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A367" s="21"/>
       <c r="B367" s="22"/>
       <c r="C367" s="23"/>
@@ -17682,7 +17672,7 @@
       <c r="AH367" s="22"/>
       <c r="AI367" s="22"/>
     </row>
-    <row r="368" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" s="21"/>
       <c r="B368" s="22"/>
       <c r="C368" s="23"/>
@@ -17719,7 +17709,7 @@
       <c r="AH368" s="22"/>
       <c r="AI368" s="22"/>
     </row>
-    <row r="369" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A369" s="21"/>
       <c r="B369" s="22"/>
       <c r="C369" s="23"/>
@@ -17756,7 +17746,7 @@
       <c r="AH369" s="22"/>
       <c r="AI369" s="22"/>
     </row>
-    <row r="370" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A370" s="21"/>
       <c r="B370" s="22"/>
       <c r="C370" s="23"/>
@@ -17793,7 +17783,7 @@
       <c r="AH370" s="22"/>
       <c r="AI370" s="22"/>
     </row>
-    <row r="371" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A371" s="21"/>
       <c r="B371" s="22"/>
       <c r="C371" s="23"/>
@@ -17830,7 +17820,7 @@
       <c r="AH371" s="22"/>
       <c r="AI371" s="22"/>
     </row>
-    <row r="372" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A372" s="21"/>
       <c r="B372" s="22"/>
       <c r="C372" s="23"/>
@@ -17867,7 +17857,7 @@
       <c r="AH372" s="22"/>
       <c r="AI372" s="22"/>
     </row>
-    <row r="373" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A373" s="21"/>
       <c r="B373" s="22"/>
       <c r="C373" s="23"/>
@@ -17904,7 +17894,7 @@
       <c r="AH373" s="22"/>
       <c r="AI373" s="22"/>
     </row>
-    <row r="374" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A374" s="21"/>
       <c r="B374" s="22"/>
       <c r="C374" s="23"/>
@@ -17941,7 +17931,7 @@
       <c r="AH374" s="22"/>
       <c r="AI374" s="22"/>
     </row>
-    <row r="375" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A375" s="21"/>
       <c r="B375" s="22"/>
       <c r="C375" s="23"/>
@@ -17978,7 +17968,7 @@
       <c r="AH375" s="22"/>
       <c r="AI375" s="22"/>
     </row>
-    <row r="376" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A376" s="21"/>
       <c r="B376" s="22"/>
       <c r="C376" s="23"/>
@@ -18015,7 +18005,7 @@
       <c r="AH376" s="22"/>
       <c r="AI376" s="22"/>
     </row>
-    <row r="377" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A377" s="21"/>
       <c r="B377" s="22"/>
       <c r="C377" s="23"/>
@@ -18052,7 +18042,7 @@
       <c r="AH377" s="22"/>
       <c r="AI377" s="22"/>
     </row>
-    <row r="378" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A378" s="21"/>
       <c r="B378" s="22"/>
       <c r="C378" s="23"/>
@@ -18089,7 +18079,7 @@
       <c r="AH378" s="22"/>
       <c r="AI378" s="22"/>
     </row>
-    <row r="379" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" s="21"/>
       <c r="B379" s="22"/>
       <c r="C379" s="23"/>
@@ -18126,7 +18116,7 @@
       <c r="AH379" s="22"/>
       <c r="AI379" s="22"/>
     </row>
-    <row r="380" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A380" s="21"/>
       <c r="B380" s="22"/>
       <c r="C380" s="23"/>
@@ -18163,7 +18153,7 @@
       <c r="AH380" s="22"/>
       <c r="AI380" s="22"/>
     </row>
-    <row r="381" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A381" s="21"/>
       <c r="B381" s="22"/>
       <c r="C381" s="23"/>
@@ -18200,7 +18190,7 @@
       <c r="AH381" s="22"/>
       <c r="AI381" s="22"/>
     </row>
-    <row r="382" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A382" s="21"/>
       <c r="B382" s="22"/>
       <c r="C382" s="23"/>
@@ -18237,7 +18227,7 @@
       <c r="AH382" s="22"/>
       <c r="AI382" s="22"/>
     </row>
-    <row r="383" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A383" s="21"/>
       <c r="B383" s="22"/>
       <c r="C383" s="23"/>
@@ -18274,7 +18264,7 @@
       <c r="AH383" s="22"/>
       <c r="AI383" s="22"/>
     </row>
-    <row r="384" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A384" s="21"/>
       <c r="B384" s="22"/>
       <c r="C384" s="23"/>
@@ -18311,7 +18301,7 @@
       <c r="AH384" s="22"/>
       <c r="AI384" s="22"/>
     </row>
-    <row r="385" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A385" s="21"/>
       <c r="B385" s="22"/>
       <c r="C385" s="23"/>
@@ -18348,7 +18338,7 @@
       <c r="AH385" s="22"/>
       <c r="AI385" s="22"/>
     </row>
-    <row r="386" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A386" s="21"/>
       <c r="B386" s="22"/>
       <c r="C386" s="23"/>
@@ -18385,7 +18375,7 @@
       <c r="AH386" s="22"/>
       <c r="AI386" s="22"/>
     </row>
-    <row r="387" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A387" s="21"/>
       <c r="B387" s="22"/>
       <c r="C387" s="23"/>
@@ -18422,7 +18412,7 @@
       <c r="AH387" s="22"/>
       <c r="AI387" s="22"/>
     </row>
-    <row r="388" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A388" s="21"/>
       <c r="B388" s="22"/>
       <c r="C388" s="23"/>
@@ -18459,7 +18449,7 @@
       <c r="AH388" s="22"/>
       <c r="AI388" s="22"/>
     </row>
-    <row r="389" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A389" s="21"/>
       <c r="B389" s="22"/>
       <c r="C389" s="23"/>
@@ -18496,7 +18486,7 @@
       <c r="AH389" s="22"/>
       <c r="AI389" s="22"/>
     </row>
-    <row r="390" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A390" s="21"/>
       <c r="B390" s="22"/>
       <c r="C390" s="23"/>
@@ -18533,7 +18523,7 @@
       <c r="AH390" s="22"/>
       <c r="AI390" s="22"/>
     </row>
-    <row r="391" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A391" s="21"/>
       <c r="B391" s="22"/>
       <c r="C391" s="23"/>
@@ -18570,7 +18560,7 @@
       <c r="AH391" s="22"/>
       <c r="AI391" s="22"/>
     </row>
-    <row r="392" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A392" s="21"/>
       <c r="B392" s="22"/>
       <c r="C392" s="23"/>
@@ -18607,7 +18597,7 @@
       <c r="AH392" s="22"/>
       <c r="AI392" s="22"/>
     </row>
-    <row r="393" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A393" s="21"/>
       <c r="B393" s="22"/>
       <c r="C393" s="23"/>
@@ -18644,7 +18634,7 @@
       <c r="AH393" s="22"/>
       <c r="AI393" s="22"/>
     </row>
-    <row r="394" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A394" s="21"/>
       <c r="B394" s="22"/>
       <c r="C394" s="23"/>
@@ -18681,7 +18671,7 @@
       <c r="AH394" s="22"/>
       <c r="AI394" s="22"/>
     </row>
-    <row r="395" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A395" s="21"/>
       <c r="B395" s="22"/>
       <c r="C395" s="23"/>
@@ -18718,7 +18708,7 @@
       <c r="AH395" s="22"/>
       <c r="AI395" s="22"/>
     </row>
-    <row r="396" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A396" s="21"/>
       <c r="B396" s="22"/>
       <c r="C396" s="23"/>
@@ -18755,7 +18745,7 @@
       <c r="AH396" s="22"/>
       <c r="AI396" s="22"/>
     </row>
-    <row r="397" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A397" s="21"/>
       <c r="B397" s="22"/>
       <c r="C397" s="23"/>
@@ -18792,7 +18782,7 @@
       <c r="AH397" s="22"/>
       <c r="AI397" s="22"/>
     </row>
-    <row r="398" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A398" s="21"/>
       <c r="B398" s="22"/>
       <c r="C398" s="23"/>
@@ -18829,7 +18819,7 @@
       <c r="AH398" s="22"/>
       <c r="AI398" s="22"/>
     </row>
-    <row r="399" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A399" s="21"/>
       <c r="B399" s="22"/>
       <c r="C399" s="23"/>
@@ -18866,7 +18856,7 @@
       <c r="AH399" s="22"/>
       <c r="AI399" s="22"/>
     </row>
-    <row r="400" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A400" s="21"/>
       <c r="B400" s="22"/>
       <c r="C400" s="23"/>
@@ -18903,7 +18893,7 @@
       <c r="AH400" s="22"/>
       <c r="AI400" s="22"/>
     </row>
-    <row r="401" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A401" s="21"/>
       <c r="B401" s="22"/>
       <c r="C401" s="23"/>
@@ -18940,7 +18930,7 @@
       <c r="AH401" s="22"/>
       <c r="AI401" s="22"/>
     </row>
-    <row r="402" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A402" s="21"/>
       <c r="B402" s="22"/>
       <c r="C402" s="23"/>
@@ -18977,7 +18967,7 @@
       <c r="AH402" s="22"/>
       <c r="AI402" s="22"/>
     </row>
-    <row r="403" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A403" s="21"/>
       <c r="B403" s="22"/>
       <c r="C403" s="23"/>
@@ -19014,7 +19004,7 @@
       <c r="AH403" s="22"/>
       <c r="AI403" s="22"/>
     </row>
-    <row r="404" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A404" s="21"/>
       <c r="B404" s="22"/>
       <c r="C404" s="23"/>
@@ -19051,7 +19041,7 @@
       <c r="AH404" s="22"/>
       <c r="AI404" s="22"/>
     </row>
-    <row r="405" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A405" s="21"/>
       <c r="B405" s="22"/>
       <c r="C405" s="23"/>
@@ -19088,7 +19078,7 @@
       <c r="AH405" s="22"/>
       <c r="AI405" s="22"/>
     </row>
-    <row r="406" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A406" s="21"/>
       <c r="B406" s="22"/>
       <c r="C406" s="23"/>
@@ -19125,7 +19115,7 @@
       <c r="AH406" s="22"/>
       <c r="AI406" s="22"/>
     </row>
-    <row r="407" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A407" s="21"/>
       <c r="B407" s="22"/>
       <c r="C407" s="23"/>
@@ -19162,7 +19152,7 @@
       <c r="AH407" s="22"/>
       <c r="AI407" s="22"/>
     </row>
-    <row r="408" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A408" s="21"/>
       <c r="B408" s="22"/>
       <c r="C408" s="23"/>
@@ -19199,7 +19189,7 @@
       <c r="AH408" s="22"/>
       <c r="AI408" s="22"/>
     </row>
-    <row r="409" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A409" s="21"/>
       <c r="B409" s="22"/>
       <c r="C409" s="23"/>
@@ -19236,7 +19226,7 @@
       <c r="AH409" s="22"/>
       <c r="AI409" s="22"/>
     </row>
-    <row r="410" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A410" s="21"/>
       <c r="B410" s="22"/>
       <c r="C410" s="23"/>
@@ -19273,7 +19263,7 @@
       <c r="AH410" s="22"/>
       <c r="AI410" s="22"/>
     </row>
-    <row r="411" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A411" s="21"/>
       <c r="B411" s="22"/>
       <c r="C411" s="23"/>
@@ -19310,7 +19300,7 @@
       <c r="AH411" s="22"/>
       <c r="AI411" s="22"/>
     </row>
-    <row r="412" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A412" s="21"/>
       <c r="B412" s="22"/>
       <c r="C412" s="23"/>
@@ -19347,7 +19337,7 @@
       <c r="AH412" s="22"/>
       <c r="AI412" s="22"/>
     </row>
-    <row r="413" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A413" s="21"/>
       <c r="B413" s="22"/>
       <c r="C413" s="23"/>
@@ -19384,7 +19374,7 @@
       <c r="AH413" s="22"/>
       <c r="AI413" s="22"/>
     </row>
-    <row r="414" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A414" s="21"/>
       <c r="B414" s="22"/>
       <c r="C414" s="23"/>
@@ -19421,7 +19411,7 @@
       <c r="AH414" s="22"/>
       <c r="AI414" s="22"/>
     </row>
-    <row r="415" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A415" s="21"/>
       <c r="B415" s="22"/>
       <c r="C415" s="23"/>
@@ -19458,7 +19448,7 @@
       <c r="AH415" s="22"/>
       <c r="AI415" s="22"/>
     </row>
-    <row r="416" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A416" s="21"/>
       <c r="B416" s="22"/>
       <c r="C416" s="23"/>
@@ -19495,7 +19485,7 @@
       <c r="AH416" s="22"/>
       <c r="AI416" s="22"/>
     </row>
-    <row r="417" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A417" s="21"/>
       <c r="B417" s="22"/>
       <c r="C417" s="23"/>
@@ -19532,7 +19522,7 @@
       <c r="AH417" s="22"/>
       <c r="AI417" s="22"/>
     </row>
-    <row r="418" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A418" s="21"/>
       <c r="B418" s="22"/>
       <c r="C418" s="23"/>
@@ -19569,7 +19559,7 @@
       <c r="AH418" s="22"/>
       <c r="AI418" s="22"/>
     </row>
-    <row r="419" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A419" s="21"/>
       <c r="B419" s="22"/>
       <c r="C419" s="23"/>
@@ -19606,7 +19596,7 @@
       <c r="AH419" s="22"/>
       <c r="AI419" s="22"/>
     </row>
-    <row r="420" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A420" s="21"/>
       <c r="B420" s="22"/>
       <c r="C420" s="23"/>
@@ -19643,7 +19633,7 @@
       <c r="AH420" s="22"/>
       <c r="AI420" s="22"/>
     </row>
-    <row r="421" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A421" s="21"/>
       <c r="B421" s="22"/>
       <c r="C421" s="23"/>
@@ -19680,7 +19670,7 @@
       <c r="AH421" s="22"/>
       <c r="AI421" s="22"/>
     </row>
-    <row r="422" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A422" s="21"/>
       <c r="B422" s="22"/>
       <c r="C422" s="23"/>
@@ -19717,7 +19707,7 @@
       <c r="AH422" s="22"/>
       <c r="AI422" s="22"/>
     </row>
-    <row r="423" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A423" s="21"/>
       <c r="B423" s="22"/>
       <c r="C423" s="23"/>
@@ -19754,7 +19744,7 @@
       <c r="AH423" s="22"/>
       <c r="AI423" s="22"/>
     </row>
-    <row r="424" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A424" s="21"/>
       <c r="B424" s="22"/>
       <c r="C424" s="23"/>
@@ -19791,7 +19781,7 @@
       <c r="AH424" s="22"/>
       <c r="AI424" s="22"/>
     </row>
-    <row r="425" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A425" s="21"/>
       <c r="B425" s="22"/>
       <c r="C425" s="23"/>
@@ -19828,7 +19818,7 @@
       <c r="AH425" s="22"/>
       <c r="AI425" s="22"/>
     </row>
-    <row r="426" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A426" s="21"/>
       <c r="B426" s="22"/>
       <c r="C426" s="23"/>
@@ -19865,7 +19855,7 @@
       <c r="AH426" s="22"/>
       <c r="AI426" s="22"/>
     </row>
-    <row r="427" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A427" s="21"/>
       <c r="B427" s="22"/>
       <c r="C427" s="23"/>
@@ -19902,7 +19892,7 @@
       <c r="AH427" s="22"/>
       <c r="AI427" s="22"/>
     </row>
-    <row r="428" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A428" s="21"/>
       <c r="B428" s="22"/>
       <c r="C428" s="23"/>
@@ -19939,7 +19929,7 @@
       <c r="AH428" s="22"/>
       <c r="AI428" s="22"/>
     </row>
-    <row r="429" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A429" s="21"/>
       <c r="B429" s="22"/>
       <c r="C429" s="23"/>
@@ -19976,7 +19966,7 @@
       <c r="AH429" s="22"/>
       <c r="AI429" s="22"/>
     </row>
-    <row r="430" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A430" s="21"/>
       <c r="B430" s="22"/>
       <c r="C430" s="23"/>
@@ -20013,7 +20003,7 @@
       <c r="AH430" s="22"/>
       <c r="AI430" s="22"/>
     </row>
-    <row r="431" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A431" s="21"/>
       <c r="B431" s="22"/>
       <c r="C431" s="23"/>
@@ -20050,7 +20040,7 @@
       <c r="AH431" s="22"/>
       <c r="AI431" s="22"/>
     </row>
-    <row r="432" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A432" s="21"/>
       <c r="B432" s="22"/>
       <c r="C432" s="23"/>
@@ -20087,7 +20077,7 @@
       <c r="AH432" s="22"/>
       <c r="AI432" s="22"/>
     </row>
-    <row r="433" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A433" s="21"/>
       <c r="B433" s="22"/>
       <c r="C433" s="23"/>
@@ -20124,7 +20114,7 @@
       <c r="AH433" s="22"/>
       <c r="AI433" s="22"/>
     </row>
-    <row r="434" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A434" s="21"/>
       <c r="B434" s="22"/>
       <c r="C434" s="23"/>
@@ -20161,7 +20151,7 @@
       <c r="AH434" s="22"/>
       <c r="AI434" s="22"/>
     </row>
-    <row r="435" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A435" s="21"/>
       <c r="B435" s="22"/>
       <c r="C435" s="23"/>
@@ -20198,7 +20188,7 @@
       <c r="AH435" s="22"/>
       <c r="AI435" s="22"/>
     </row>
-    <row r="436" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A436" s="21"/>
       <c r="B436" s="22"/>
       <c r="C436" s="23"/>
@@ -20235,7 +20225,7 @@
       <c r="AH436" s="22"/>
       <c r="AI436" s="22"/>
     </row>
-    <row r="437" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A437" s="21"/>
       <c r="B437" s="22"/>
       <c r="C437" s="23"/>
@@ -20272,7 +20262,7 @@
       <c r="AH437" s="22"/>
       <c r="AI437" s="22"/>
     </row>
-    <row r="438" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A438" s="21"/>
       <c r="B438" s="22"/>
       <c r="C438" s="23"/>
@@ -20309,7 +20299,7 @@
       <c r="AH438" s="22"/>
       <c r="AI438" s="22"/>
     </row>
-    <row r="439" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A439" s="21"/>
       <c r="B439" s="22"/>
       <c r="C439" s="23"/>
@@ -20346,7 +20336,7 @@
       <c r="AH439" s="22"/>
       <c r="AI439" s="22"/>
     </row>
-    <row r="440" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A440" s="21"/>
       <c r="B440" s="22"/>
       <c r="C440" s="23"/>
@@ -20383,7 +20373,7 @@
       <c r="AH440" s="22"/>
       <c r="AI440" s="22"/>
     </row>
-    <row r="441" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A441" s="21"/>
       <c r="B441" s="22"/>
       <c r="C441" s="23"/>
@@ -20420,7 +20410,7 @@
       <c r="AH441" s="22"/>
       <c r="AI441" s="22"/>
     </row>
-    <row r="442" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A442" s="21"/>
       <c r="B442" s="22"/>
       <c r="C442" s="23"/>
@@ -20457,7 +20447,7 @@
       <c r="AH442" s="22"/>
       <c r="AI442" s="22"/>
     </row>
-    <row r="443" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A443" s="21"/>
       <c r="B443" s="22"/>
       <c r="C443" s="23"/>
@@ -20494,7 +20484,7 @@
       <c r="AH443" s="22"/>
       <c r="AI443" s="22"/>
     </row>
-    <row r="444" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A444" s="21"/>
       <c r="B444" s="22"/>
       <c r="C444" s="23"/>
@@ -20531,7 +20521,7 @@
       <c r="AH444" s="22"/>
       <c r="AI444" s="22"/>
     </row>
-    <row r="445" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A445" s="21"/>
       <c r="B445" s="22"/>
       <c r="C445" s="23"/>
@@ -20568,7 +20558,7 @@
       <c r="AH445" s="22"/>
       <c r="AI445" s="22"/>
     </row>
-    <row r="446" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A446" s="21"/>
       <c r="B446" s="22"/>
       <c r="C446" s="23"/>
@@ -20605,7 +20595,7 @@
       <c r="AH446" s="22"/>
       <c r="AI446" s="22"/>
     </row>
-    <row r="447" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A447" s="21"/>
       <c r="B447" s="22"/>
       <c r="C447" s="23"/>
@@ -20642,7 +20632,7 @@
       <c r="AH447" s="22"/>
       <c r="AI447" s="22"/>
     </row>
-    <row r="448" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A448" s="21"/>
       <c r="B448" s="22"/>
       <c r="C448" s="23"/>
@@ -20679,7 +20669,7 @@
       <c r="AH448" s="22"/>
       <c r="AI448" s="22"/>
     </row>
-    <row r="449" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A449" s="21"/>
       <c r="B449" s="22"/>
       <c r="C449" s="23"/>
@@ -20716,7 +20706,7 @@
       <c r="AH449" s="22"/>
       <c r="AI449" s="22"/>
     </row>
-    <row r="450" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A450" s="21"/>
       <c r="B450" s="22"/>
       <c r="C450" s="23"/>
@@ -20753,7 +20743,7 @@
       <c r="AH450" s="22"/>
       <c r="AI450" s="22"/>
     </row>
-    <row r="451" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A451" s="21"/>
       <c r="B451" s="22"/>
       <c r="C451" s="23"/>
@@ -20790,7 +20780,7 @@
       <c r="AH451" s="22"/>
       <c r="AI451" s="22"/>
     </row>
-    <row r="452" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A452" s="21"/>
       <c r="B452" s="22"/>
       <c r="C452" s="23"/>
@@ -20827,7 +20817,7 @@
       <c r="AH452" s="22"/>
       <c r="AI452" s="22"/>
     </row>
-    <row r="453" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A453" s="21"/>
       <c r="B453" s="22"/>
       <c r="C453" s="23"/>
@@ -20864,7 +20854,7 @@
       <c r="AH453" s="22"/>
       <c r="AI453" s="22"/>
     </row>
-    <row r="454" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A454" s="21"/>
       <c r="B454" s="22"/>
       <c r="C454" s="23"/>
@@ -20901,7 +20891,7 @@
       <c r="AH454" s="22"/>
       <c r="AI454" s="22"/>
     </row>
-    <row r="455" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A455" s="21"/>
       <c r="B455" s="22"/>
       <c r="C455" s="23"/>
@@ -20938,7 +20928,7 @@
       <c r="AH455" s="22"/>
       <c r="AI455" s="22"/>
     </row>
-    <row r="456" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A456" s="21"/>
       <c r="B456" s="22"/>
       <c r="C456" s="23"/>
@@ -20975,7 +20965,7 @@
       <c r="AH456" s="22"/>
       <c r="AI456" s="22"/>
     </row>
-    <row r="457" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A457" s="21"/>
       <c r="B457" s="22"/>
       <c r="C457" s="23"/>
@@ -21012,7 +21002,7 @@
       <c r="AH457" s="22"/>
       <c r="AI457" s="22"/>
     </row>
-    <row r="458" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A458" s="21"/>
       <c r="B458" s="22"/>
       <c r="C458" s="23"/>
@@ -21049,7 +21039,7 @@
       <c r="AH458" s="22"/>
       <c r="AI458" s="22"/>
     </row>
-    <row r="459" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A459" s="21"/>
       <c r="B459" s="22"/>
       <c r="C459" s="23"/>
@@ -21086,7 +21076,7 @@
       <c r="AH459" s="22"/>
       <c r="AI459" s="22"/>
     </row>
-    <row r="460" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A460" s="21"/>
       <c r="B460" s="22"/>
       <c r="C460" s="23"/>
@@ -21123,7 +21113,7 @@
       <c r="AH460" s="22"/>
       <c r="AI460" s="22"/>
     </row>
-    <row r="461" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A461" s="21"/>
       <c r="B461" s="22"/>
       <c r="C461" s="23"/>
@@ -21160,7 +21150,7 @@
       <c r="AH461" s="22"/>
       <c r="AI461" s="22"/>
     </row>
-    <row r="462" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A462" s="21"/>
       <c r="B462" s="22"/>
       <c r="C462" s="23"/>
@@ -21197,7 +21187,7 @@
       <c r="AH462" s="22"/>
       <c r="AI462" s="22"/>
     </row>
-    <row r="463" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A463" s="21"/>
       <c r="B463" s="22"/>
       <c r="C463" s="23"/>
@@ -21234,7 +21224,7 @@
       <c r="AH463" s="22"/>
       <c r="AI463" s="22"/>
     </row>
-    <row r="464" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A464" s="21"/>
       <c r="B464" s="22"/>
       <c r="C464" s="23"/>
@@ -21271,7 +21261,7 @@
       <c r="AH464" s="22"/>
       <c r="AI464" s="22"/>
     </row>
-    <row r="465" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A465" s="21"/>
       <c r="B465" s="22"/>
       <c r="C465" s="23"/>
@@ -21308,7 +21298,7 @@
       <c r="AH465" s="22"/>
       <c r="AI465" s="22"/>
     </row>
-    <row r="466" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A466" s="21"/>
       <c r="B466" s="22"/>
       <c r="C466" s="23"/>
@@ -21345,7 +21335,7 @@
       <c r="AH466" s="22"/>
       <c r="AI466" s="22"/>
     </row>
-    <row r="467" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A467" s="21"/>
       <c r="B467" s="22"/>
       <c r="C467" s="23"/>
@@ -21382,7 +21372,7 @@
       <c r="AH467" s="22"/>
       <c r="AI467" s="22"/>
     </row>
-    <row r="468" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A468" s="21"/>
       <c r="B468" s="22"/>
       <c r="C468" s="23"/>
@@ -21419,7 +21409,7 @@
       <c r="AH468" s="22"/>
       <c r="AI468" s="22"/>
     </row>
-    <row r="469" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A469" s="21"/>
       <c r="B469" s="22"/>
       <c r="C469" s="23"/>
@@ -21456,7 +21446,7 @@
       <c r="AH469" s="22"/>
       <c r="AI469" s="22"/>
     </row>
-    <row r="470" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A470" s="21"/>
       <c r="B470" s="22"/>
       <c r="C470" s="23"/>
@@ -21493,7 +21483,7 @@
       <c r="AH470" s="22"/>
       <c r="AI470" s="22"/>
     </row>
-    <row r="471" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A471" s="21"/>
       <c r="B471" s="22"/>
       <c r="C471" s="23"/>
@@ -21530,7 +21520,7 @@
       <c r="AH471" s="22"/>
       <c r="AI471" s="22"/>
     </row>
-    <row r="472" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A472" s="21"/>
       <c r="B472" s="22"/>
       <c r="C472" s="23"/>
@@ -21567,7 +21557,7 @@
       <c r="AH472" s="22"/>
       <c r="AI472" s="22"/>
     </row>
-    <row r="473" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A473" s="21"/>
       <c r="B473" s="22"/>
       <c r="C473" s="23"/>
@@ -21604,7 +21594,7 @@
       <c r="AH473" s="22"/>
       <c r="AI473" s="22"/>
     </row>
-    <row r="474" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A474" s="21"/>
       <c r="B474" s="22"/>
       <c r="C474" s="23"/>
@@ -21641,7 +21631,7 @@
       <c r="AH474" s="22"/>
       <c r="AI474" s="22"/>
     </row>
-    <row r="475" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A475" s="21"/>
       <c r="B475" s="22"/>
       <c r="C475" s="23"/>
@@ -21678,7 +21668,7 @@
       <c r="AH475" s="22"/>
       <c r="AI475" s="22"/>
     </row>
-    <row r="476" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A476" s="21"/>
       <c r="B476" s="22"/>
       <c r="C476" s="23"/>
@@ -21715,7 +21705,7 @@
       <c r="AH476" s="22"/>
       <c r="AI476" s="22"/>
     </row>
-    <row r="477" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A477" s="21"/>
       <c r="B477" s="22"/>
       <c r="C477" s="23"/>
@@ -21752,7 +21742,7 @@
       <c r="AH477" s="22"/>
       <c r="AI477" s="22"/>
     </row>
-    <row r="478" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A478" s="21"/>
       <c r="B478" s="22"/>
       <c r="C478" s="23"/>
@@ -21789,7 +21779,7 @@
       <c r="AH478" s="22"/>
       <c r="AI478" s="22"/>
     </row>
-    <row r="479" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A479" s="21"/>
       <c r="B479" s="22"/>
       <c r="C479" s="23"/>
@@ -21826,7 +21816,7 @@
       <c r="AH479" s="22"/>
       <c r="AI479" s="22"/>
     </row>
-    <row r="480" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A480" s="21"/>
       <c r="B480" s="22"/>
       <c r="C480" s="23"/>
@@ -21863,7 +21853,7 @@
       <c r="AH480" s="22"/>
       <c r="AI480" s="22"/>
     </row>
-    <row r="481" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A481" s="21"/>
       <c r="B481" s="22"/>
       <c r="C481" s="23"/>
@@ -21900,7 +21890,7 @@
       <c r="AH481" s="22"/>
       <c r="AI481" s="22"/>
     </row>
-    <row r="482" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A482" s="21"/>
       <c r="B482" s="22"/>
       <c r="C482" s="23"/>
@@ -21937,7 +21927,7 @@
       <c r="AH482" s="22"/>
       <c r="AI482" s="22"/>
     </row>
-    <row r="483" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A483" s="21"/>
       <c r="B483" s="22"/>
       <c r="C483" s="23"/>
@@ -21974,7 +21964,7 @@
       <c r="AH483" s="22"/>
       <c r="AI483" s="22"/>
     </row>
-    <row r="484" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A484" s="21"/>
       <c r="B484" s="22"/>
       <c r="C484" s="23"/>
@@ -22011,7 +22001,7 @@
       <c r="AH484" s="22"/>
       <c r="AI484" s="22"/>
     </row>
-    <row r="485" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A485" s="21"/>
       <c r="B485" s="22"/>
       <c r="C485" s="23"/>
@@ -22048,7 +22038,7 @@
       <c r="AH485" s="22"/>
       <c r="AI485" s="22"/>
     </row>
-    <row r="486" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A486" s="21"/>
       <c r="B486" s="22"/>
       <c r="C486" s="23"/>
@@ -22085,7 +22075,7 @@
       <c r="AH486" s="22"/>
       <c r="AI486" s="22"/>
     </row>
-    <row r="487" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A487" s="21"/>
       <c r="B487" s="22"/>
       <c r="C487" s="23"/>
@@ -22122,7 +22112,7 @@
       <c r="AH487" s="22"/>
       <c r="AI487" s="22"/>
     </row>
-    <row r="488" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A488" s="21"/>
       <c r="B488" s="22"/>
       <c r="C488" s="23"/>
@@ -22159,7 +22149,7 @@
       <c r="AH488" s="22"/>
       <c r="AI488" s="22"/>
     </row>
-    <row r="489" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A489" s="21"/>
       <c r="B489" s="22"/>
       <c r="C489" s="23"/>
@@ -22196,7 +22186,7 @@
       <c r="AH489" s="22"/>
       <c r="AI489" s="22"/>
     </row>
-    <row r="490" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A490" s="21"/>
       <c r="B490" s="22"/>
       <c r="C490" s="23"/>
@@ -22233,7 +22223,7 @@
       <c r="AH490" s="22"/>
       <c r="AI490" s="22"/>
     </row>
-    <row r="491" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A491" s="21"/>
       <c r="B491" s="22"/>
       <c r="C491" s="23"/>
@@ -22270,7 +22260,7 @@
       <c r="AH491" s="22"/>
       <c r="AI491" s="22"/>
     </row>
-    <row r="492" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A492" s="21"/>
       <c r="B492" s="22"/>
       <c r="C492" s="23"/>
@@ -22307,7 +22297,7 @@
       <c r="AH492" s="22"/>
       <c r="AI492" s="22"/>
     </row>
-    <row r="493" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A493" s="21"/>
       <c r="B493" s="22"/>
       <c r="C493" s="23"/>
@@ -22344,7 +22334,7 @@
       <c r="AH493" s="22"/>
       <c r="AI493" s="22"/>
     </row>
-    <row r="494" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A494" s="21"/>
       <c r="B494" s="22"/>
       <c r="C494" s="23"/>
@@ -22381,7 +22371,7 @@
       <c r="AH494" s="22"/>
       <c r="AI494" s="22"/>
     </row>
-    <row r="495" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A495" s="21"/>
       <c r="B495" s="22"/>
       <c r="C495" s="23"/>
@@ -22418,7 +22408,7 @@
       <c r="AH495" s="22"/>
       <c r="AI495" s="22"/>
     </row>
-    <row r="496" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A496" s="21"/>
       <c r="B496" s="22"/>
       <c r="C496" s="23"/>
@@ -22455,7 +22445,7 @@
       <c r="AH496" s="22"/>
       <c r="AI496" s="22"/>
     </row>
-    <row r="497" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A497" s="21"/>
       <c r="B497" s="22"/>
       <c r="C497" s="23"/>
@@ -22492,7 +22482,7 @@
       <c r="AH497" s="22"/>
       <c r="AI497" s="22"/>
     </row>
-    <row r="498" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A498" s="21"/>
       <c r="B498" s="22"/>
       <c r="C498" s="23"/>
@@ -22529,7 +22519,7 @@
       <c r="AH498" s="22"/>
       <c r="AI498" s="22"/>
     </row>
-    <row r="499" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A499" s="21"/>
       <c r="B499" s="22"/>
       <c r="C499" s="23"/>
@@ -22566,7 +22556,7 @@
       <c r="AH499" s="22"/>
       <c r="AI499" s="22"/>
     </row>
-    <row r="500" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A500" s="21"/>
       <c r="B500" s="22"/>
       <c r="C500" s="23"/>
@@ -22603,7 +22593,7 @@
       <c r="AH500" s="22"/>
       <c r="AI500" s="22"/>
     </row>
-    <row r="501" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A501" s="21"/>
       <c r="B501" s="22"/>
       <c r="C501" s="23"/>
@@ -22640,7 +22630,7 @@
       <c r="AH501" s="22"/>
       <c r="AI501" s="22"/>
     </row>
-    <row r="502" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A502" s="21"/>
       <c r="B502" s="22"/>
       <c r="C502" s="23"/>
@@ -22677,7 +22667,7 @@
       <c r="AH502" s="22"/>
       <c r="AI502" s="22"/>
     </row>
-    <row r="503" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A503" s="21"/>
       <c r="B503" s="22"/>
       <c r="C503" s="23"/>
@@ -22714,7 +22704,7 @@
       <c r="AH503" s="22"/>
       <c r="AI503" s="22"/>
     </row>
-    <row r="504" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A504" s="21"/>
       <c r="B504" s="22"/>
       <c r="C504" s="23"/>
@@ -22751,7 +22741,7 @@
       <c r="AH504" s="22"/>
       <c r="AI504" s="22"/>
     </row>
-    <row r="505" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A505" s="21"/>
       <c r="B505" s="22"/>
       <c r="C505" s="23"/>
@@ -22788,7 +22778,7 @@
       <c r="AH505" s="22"/>
       <c r="AI505" s="22"/>
     </row>
-    <row r="506" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A506" s="21"/>
       <c r="B506" s="22"/>
       <c r="C506" s="23"/>
@@ -22825,7 +22815,7 @@
       <c r="AH506" s="22"/>
       <c r="AI506" s="22"/>
     </row>
-    <row r="507" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A507" s="21"/>
       <c r="B507" s="22"/>
       <c r="C507" s="23"/>
@@ -22862,7 +22852,7 @@
       <c r="AH507" s="22"/>
       <c r="AI507" s="22"/>
     </row>
-    <row r="508" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A508" s="21"/>
       <c r="B508" s="22"/>
       <c r="C508" s="23"/>
@@ -22899,7 +22889,7 @@
       <c r="AH508" s="22"/>
       <c r="AI508" s="22"/>
     </row>
-    <row r="509" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A509" s="21"/>
       <c r="B509" s="22"/>
       <c r="C509" s="23"/>
@@ -22936,7 +22926,7 @@
       <c r="AH509" s="22"/>
       <c r="AI509" s="22"/>
     </row>
-    <row r="510" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A510" s="21"/>
       <c r="B510" s="22"/>
       <c r="C510" s="23"/>
@@ -22973,7 +22963,7 @@
       <c r="AH510" s="22"/>
       <c r="AI510" s="22"/>
     </row>
-    <row r="511" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A511" s="21"/>
       <c r="B511" s="22"/>
       <c r="C511" s="23"/>
@@ -23010,7 +23000,7 @@
       <c r="AH511" s="22"/>
       <c r="AI511" s="22"/>
     </row>
-    <row r="512" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A512" s="21"/>
       <c r="B512" s="22"/>
       <c r="C512" s="23"/>
@@ -23047,7 +23037,7 @@
       <c r="AH512" s="22"/>
       <c r="AI512" s="22"/>
     </row>
-    <row r="513" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A513" s="21"/>
       <c r="B513" s="22"/>
       <c r="C513" s="23"/>
@@ -23084,7 +23074,7 @@
       <c r="AH513" s="22"/>
       <c r="AI513" s="22"/>
     </row>
-    <row r="514" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A514" s="21"/>
       <c r="B514" s="22"/>
       <c r="C514" s="23"/>
@@ -23121,7 +23111,7 @@
       <c r="AH514" s="22"/>
       <c r="AI514" s="22"/>
     </row>
-    <row r="515" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A515" s="21"/>
       <c r="B515" s="22"/>
       <c r="C515" s="23"/>
@@ -23158,7 +23148,7 @@
       <c r="AH515" s="22"/>
       <c r="AI515" s="22"/>
     </row>
-    <row r="516" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A516" s="21"/>
       <c r="B516" s="22"/>
       <c r="C516" s="23"/>
@@ -23195,7 +23185,7 @@
       <c r="AH516" s="22"/>
       <c r="AI516" s="22"/>
     </row>
-    <row r="517" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A517" s="21"/>
       <c r="B517" s="22"/>
       <c r="C517" s="23"/>
@@ -23232,7 +23222,7 @@
       <c r="AH517" s="22"/>
       <c r="AI517" s="22"/>
     </row>
-    <row r="518" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A518" s="21"/>
       <c r="B518" s="22"/>
       <c r="C518" s="23"/>
@@ -23269,7 +23259,7 @@
       <c r="AH518" s="22"/>
       <c r="AI518" s="22"/>
     </row>
-    <row r="519" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A519" s="21"/>
       <c r="B519" s="22"/>
       <c r="C519" s="23"/>
@@ -23306,7 +23296,7 @@
       <c r="AH519" s="22"/>
       <c r="AI519" s="22"/>
     </row>
-    <row r="520" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A520" s="21"/>
       <c r="B520" s="22"/>
       <c r="C520" s="23"/>
@@ -23343,7 +23333,7 @@
       <c r="AH520" s="22"/>
       <c r="AI520" s="22"/>
     </row>
-    <row r="521" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A521" s="21"/>
       <c r="B521" s="22"/>
       <c r="C521" s="23"/>
@@ -23380,7 +23370,7 @@
       <c r="AH521" s="22"/>
       <c r="AI521" s="22"/>
     </row>
-    <row r="522" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A522" s="21"/>
       <c r="B522" s="22"/>
       <c r="C522" s="23"/>
@@ -23417,7 +23407,7 @@
       <c r="AH522" s="22"/>
       <c r="AI522" s="22"/>
     </row>
-    <row r="523" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A523" s="21"/>
       <c r="B523" s="22"/>
       <c r="C523" s="23"/>
@@ -23454,7 +23444,7 @@
       <c r="AH523" s="22"/>
       <c r="AI523" s="22"/>
     </row>
-    <row r="524" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A524" s="21"/>
       <c r="B524" s="22"/>
       <c r="C524" s="23"/>
@@ -23491,7 +23481,7 @@
       <c r="AH524" s="22"/>
       <c r="AI524" s="22"/>
     </row>
-    <row r="525" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A525" s="21"/>
       <c r="B525" s="22"/>
       <c r="C525" s="23"/>
@@ -23528,7 +23518,7 @@
       <c r="AH525" s="22"/>
       <c r="AI525" s="22"/>
     </row>
-    <row r="526" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A526" s="21"/>
       <c r="B526" s="22"/>
       <c r="C526" s="23"/>
@@ -23565,7 +23555,7 @@
       <c r="AH526" s="22"/>
       <c r="AI526" s="22"/>
     </row>
-    <row r="527" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A527" s="21"/>
       <c r="B527" s="22"/>
       <c r="C527" s="23"/>
@@ -23602,7 +23592,7 @@
       <c r="AH527" s="22"/>
       <c r="AI527" s="22"/>
     </row>
-    <row r="528" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A528" s="21"/>
       <c r="B528" s="22"/>
       <c r="C528" s="23"/>
@@ -23639,7 +23629,7 @@
       <c r="AH528" s="22"/>
       <c r="AI528" s="22"/>
     </row>
-    <row r="529" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A529" s="21"/>
       <c r="B529" s="22"/>
       <c r="C529" s="23"/>
@@ -23676,7 +23666,7 @@
       <c r="AH529" s="22"/>
       <c r="AI529" s="22"/>
     </row>
-    <row r="530" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A530" s="21"/>
       <c r="B530" s="22"/>
       <c r="C530" s="23"/>
@@ -23713,7 +23703,7 @@
       <c r="AH530" s="22"/>
       <c r="AI530" s="22"/>
     </row>
-    <row r="531" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A531" s="21"/>
       <c r="B531" s="22"/>
       <c r="C531" s="23"/>
@@ -23750,7 +23740,7 @@
       <c r="AH531" s="22"/>
       <c r="AI531" s="22"/>
     </row>
-    <row r="532" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A532" s="21"/>
       <c r="B532" s="22"/>
       <c r="C532" s="23"/>
@@ -23787,7 +23777,7 @@
       <c r="AH532" s="22"/>
       <c r="AI532" s="22"/>
     </row>
-    <row r="533" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A533" s="21"/>
       <c r="B533" s="22"/>
       <c r="C533" s="23"/>
@@ -23824,7 +23814,7 @@
       <c r="AH533" s="22"/>
       <c r="AI533" s="22"/>
     </row>
-    <row r="534" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A534" s="21"/>
       <c r="B534" s="22"/>
       <c r="C534" s="23"/>
@@ -23861,7 +23851,7 @@
       <c r="AH534" s="22"/>
       <c r="AI534" s="22"/>
     </row>
-    <row r="535" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A535" s="21"/>
       <c r="B535" s="22"/>
       <c r="C535" s="23"/>
@@ -23898,7 +23888,7 @@
       <c r="AH535" s="22"/>
       <c r="AI535" s="22"/>
     </row>
-    <row r="536" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A536" s="21"/>
       <c r="B536" s="22"/>
       <c r="C536" s="23"/>
@@ -23935,7 +23925,7 @@
       <c r="AH536" s="22"/>
       <c r="AI536" s="22"/>
     </row>
-    <row r="537" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A537" s="21"/>
       <c r="B537" s="22"/>
       <c r="C537" s="23"/>
@@ -23972,7 +23962,7 @@
       <c r="AH537" s="22"/>
       <c r="AI537" s="22"/>
     </row>
-    <row r="538" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A538" s="21"/>
       <c r="B538" s="22"/>
       <c r="C538" s="23"/>
@@ -24009,7 +23999,7 @@
       <c r="AH538" s="22"/>
       <c r="AI538" s="22"/>
     </row>
-    <row r="539" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A539" s="21"/>
       <c r="B539" s="22"/>
       <c r="C539" s="23"/>
@@ -24046,7 +24036,7 @@
       <c r="AH539" s="22"/>
       <c r="AI539" s="22"/>
     </row>
-    <row r="540" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A540" s="21"/>
       <c r="B540" s="22"/>
       <c r="C540" s="23"/>
@@ -24083,7 +24073,7 @@
       <c r="AH540" s="22"/>
       <c r="AI540" s="22"/>
     </row>
-    <row r="541" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A541" s="21"/>
       <c r="B541" s="22"/>
       <c r="C541" s="23"/>
@@ -24120,7 +24110,7 @@
       <c r="AH541" s="22"/>
       <c r="AI541" s="22"/>
     </row>
-    <row r="542" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A542" s="21"/>
       <c r="B542" s="22"/>
       <c r="C542" s="23"/>
@@ -24157,7 +24147,7 @@
       <c r="AH542" s="22"/>
       <c r="AI542" s="22"/>
     </row>
-    <row r="543" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A543" s="21"/>
       <c r="B543" s="22"/>
       <c r="C543" s="23"/>
@@ -24194,7 +24184,7 @@
       <c r="AH543" s="22"/>
       <c r="AI543" s="22"/>
     </row>
-    <row r="544" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A544" s="21"/>
       <c r="B544" s="22"/>
       <c r="C544" s="23"/>
@@ -24231,7 +24221,7 @@
       <c r="AH544" s="22"/>
       <c r="AI544" s="22"/>
     </row>
-    <row r="545" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A545" s="21"/>
       <c r="B545" s="22"/>
       <c r="C545" s="23"/>
@@ -24268,7 +24258,7 @@
       <c r="AH545" s="22"/>
       <c r="AI545" s="22"/>
     </row>
-    <row r="546" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A546" s="21"/>
       <c r="B546" s="22"/>
       <c r="C546" s="23"/>
@@ -24305,7 +24295,7 @@
       <c r="AH546" s="22"/>
       <c r="AI546" s="22"/>
     </row>
-    <row r="547" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A547" s="21"/>
       <c r="B547" s="22"/>
       <c r="C547" s="23"/>
@@ -24342,7 +24332,7 @@
       <c r="AH547" s="22"/>
       <c r="AI547" s="22"/>
     </row>
-    <row r="548" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A548" s="21"/>
       <c r="B548" s="22"/>
       <c r="C548" s="23"/>
@@ -24379,7 +24369,7 @@
       <c r="AH548" s="22"/>
       <c r="AI548" s="22"/>
     </row>
-    <row r="549" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A549" s="21"/>
       <c r="B549" s="22"/>
       <c r="C549" s="23"/>
@@ -24416,7 +24406,7 @@
       <c r="AH549" s="22"/>
       <c r="AI549" s="22"/>
     </row>
-    <row r="550" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A550" s="21"/>
       <c r="B550" s="22"/>
       <c r="C550" s="23"/>
@@ -24453,7 +24443,7 @@
       <c r="AH550" s="22"/>
       <c r="AI550" s="22"/>
     </row>
-    <row r="551" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A551" s="21"/>
       <c r="B551" s="22"/>
       <c r="C551" s="23"/>
@@ -24490,7 +24480,7 @@
       <c r="AH551" s="22"/>
       <c r="AI551" s="22"/>
     </row>
-    <row r="552" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A552" s="21"/>
       <c r="B552" s="22"/>
       <c r="C552" s="23"/>
@@ -24527,7 +24517,7 @@
       <c r="AH552" s="22"/>
       <c r="AI552" s="22"/>
     </row>
-    <row r="553" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A553" s="21"/>
       <c r="B553" s="22"/>
       <c r="C553" s="23"/>
@@ -24564,7 +24554,7 @@
       <c r="AH553" s="22"/>
       <c r="AI553" s="22"/>
     </row>
-    <row r="554" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A554" s="21"/>
       <c r="B554" s="22"/>
       <c r="C554" s="23"/>
@@ -24601,7 +24591,7 @@
       <c r="AH554" s="22"/>
       <c r="AI554" s="22"/>
     </row>
-    <row r="555" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A555" s="21"/>
       <c r="B555" s="22"/>
       <c r="C555" s="23"/>
@@ -24638,7 +24628,7 @@
       <c r="AH555" s="22"/>
       <c r="AI555" s="22"/>
     </row>
-    <row r="556" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A556" s="21"/>
       <c r="B556" s="22"/>
       <c r="C556" s="23"/>
@@ -24675,7 +24665,7 @@
       <c r="AH556" s="22"/>
       <c r="AI556" s="22"/>
     </row>
-    <row r="557" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A557" s="21"/>
       <c r="B557" s="22"/>
       <c r="C557" s="23"/>
@@ -24712,7 +24702,7 @@
       <c r="AH557" s="22"/>
       <c r="AI557" s="22"/>
     </row>
-    <row r="558" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A558" s="21"/>
       <c r="B558" s="22"/>
       <c r="C558" s="23"/>
@@ -24749,7 +24739,7 @@
       <c r="AH558" s="22"/>
       <c r="AI558" s="22"/>
     </row>
-    <row r="559" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A559" s="21"/>
       <c r="B559" s="22"/>
       <c r="C559" s="23"/>
@@ -24786,7 +24776,7 @@
       <c r="AH559" s="22"/>
       <c r="AI559" s="22"/>
     </row>
-    <row r="560" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A560" s="21"/>
       <c r="B560" s="22"/>
       <c r="C560" s="23"/>
@@ -24823,7 +24813,7 @@
       <c r="AH560" s="22"/>
       <c r="AI560" s="22"/>
     </row>
-    <row r="561" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A561" s="21"/>
       <c r="B561" s="22"/>
       <c r="C561" s="23"/>
@@ -24860,7 +24850,7 @@
       <c r="AH561" s="22"/>
       <c r="AI561" s="22"/>
     </row>
-    <row r="562" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A562" s="21"/>
       <c r="B562" s="22"/>
       <c r="C562" s="23"/>
@@ -24897,7 +24887,7 @@
       <c r="AH562" s="22"/>
       <c r="AI562" s="22"/>
     </row>
-    <row r="563" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A563" s="21"/>
       <c r="B563" s="22"/>
       <c r="C563" s="23"/>
@@ -24934,7 +24924,7 @@
       <c r="AH563" s="22"/>
       <c r="AI563" s="22"/>
     </row>
-    <row r="564" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A564" s="21"/>
       <c r="B564" s="22"/>
       <c r="C564" s="23"/>
@@ -24971,7 +24961,7 @@
       <c r="AH564" s="22"/>
       <c r="AI564" s="22"/>
     </row>
-    <row r="565" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A565" s="21"/>
       <c r="B565" s="22"/>
       <c r="C565" s="23"/>
@@ -25008,7 +24998,7 @@
       <c r="AH565" s="22"/>
       <c r="AI565" s="22"/>
     </row>
-    <row r="566" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A566" s="21"/>
       <c r="B566" s="22"/>
       <c r="C566" s="23"/>
@@ -25045,7 +25035,7 @@
       <c r="AH566" s="22"/>
       <c r="AI566" s="22"/>
     </row>
-    <row r="567" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A567" s="21"/>
       <c r="B567" s="22"/>
       <c r="C567" s="23"/>
@@ -25082,7 +25072,7 @@
       <c r="AH567" s="22"/>
       <c r="AI567" s="22"/>
     </row>
-    <row r="568" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A568" s="21"/>
       <c r="B568" s="22"/>
       <c r="C568" s="23"/>
@@ -25119,7 +25109,7 @@
       <c r="AH568" s="22"/>
       <c r="AI568" s="22"/>
     </row>
-    <row r="569" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A569" s="21"/>
       <c r="B569" s="22"/>
       <c r="C569" s="23"/>
@@ -25156,7 +25146,7 @@
       <c r="AH569" s="22"/>
       <c r="AI569" s="22"/>
     </row>
-    <row r="570" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A570" s="21"/>
       <c r="B570" s="22"/>
       <c r="C570" s="23"/>
@@ -25193,7 +25183,7 @@
       <c r="AH570" s="22"/>
       <c r="AI570" s="22"/>
     </row>
-    <row r="571" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A571" s="21"/>
       <c r="B571" s="22"/>
       <c r="C571" s="23"/>
@@ -25230,7 +25220,7 @@
       <c r="AH571" s="22"/>
       <c r="AI571" s="22"/>
     </row>
-    <row r="572" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A572" s="21"/>
       <c r="B572" s="22"/>
       <c r="C572" s="23"/>
@@ -25267,7 +25257,7 @@
       <c r="AH572" s="22"/>
       <c r="AI572" s="22"/>
     </row>
-    <row r="573" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A573" s="21"/>
       <c r="B573" s="22"/>
       <c r="C573" s="23"/>
@@ -25304,7 +25294,7 @@
       <c r="AH573" s="22"/>
       <c r="AI573" s="22"/>
     </row>
-    <row r="574" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A574" s="21"/>
       <c r="B574" s="22"/>
       <c r="C574" s="23"/>
@@ -25341,7 +25331,7 @@
       <c r="AH574" s="22"/>
       <c r="AI574" s="22"/>
     </row>
-    <row r="575" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:35" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A575" s="21"/>
       <c r="B575" s="22"/>
       <c r="C575" s="23"/>
@@ -41067,7 +41057,7 @@
       <c r="AI999" s="11"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection sheet="1" selectLockedCells="1"/>
   <mergeCells count="2">
     <mergeCell ref="D4:F4"/>
     <mergeCell ref="Z4:AB4"/>
@@ -41286,13 +41276,13 @@
         <v>54</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>55</v>
       </c>
       <c r="H7" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -41351,12 +41341,12 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="27" t="s">
+      <c r="A17" s="86" t="s">
         <v>68</v>
       </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
+      <c r="B17" s="87"/>
+      <c r="C17" s="87"/>
+      <c r="D17" s="87"/>
       <c r="G17" s="2" t="s">
         <v>71</v>
       </c>

--- a/home/zf_info/zebraShareSubmission.xlsx
+++ b/home/zf_info/zebraShareSubmission.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uoregon-my.sharepoint.com/personal/leyla_uoregon_edu/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/administrator/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="8_{EFC879CE-2E08-D246-9987-13560E3C43D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{05686A92-7E13-B747-B6AC-598FF48802B3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{52A33CEA-2ADA-C74F-BC46-F0DC48A09E9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14180" yWindow="460" windowWidth="25320" windowHeight="19660" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4400" yWindow="460" windowWidth="31720" windowHeight="17340" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -2848,9 +2848,6 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2875,8 +2872,55 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="7" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2886,12 +2930,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2910,19 +2948,10 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2943,38 +2972,9 @@
     <xf numFmtId="0" fontId="16" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2993,10 +2993,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3277,7 +3273,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="16" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:26" ht="32" x14ac:dyDescent="0.35">
-      <c r="B2" s="122" t="s">
+      <c r="B2" s="121" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3317,22 +3313,22 @@
       <c r="B11" s="4"/>
     </row>
     <row r="12" spans="1:26" ht="25" x14ac:dyDescent="0.3">
-      <c r="B12" s="116" t="s">
+      <c r="B12" s="115" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="17" x14ac:dyDescent="0.2">
-      <c r="B13" s="121" t="s">
+      <c r="B13" s="120" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="19" x14ac:dyDescent="0.25">
-      <c r="B14" s="120" t="s">
+      <c r="B14" s="119" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="B15" s="119"/>
+      <c r="B15" s="118"/>
     </row>
     <row r="16" spans="1:26" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
@@ -3378,7 +3374,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" s="60" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="B20" s="118" t="s">
+      <c r="B20" s="117" t="s">
         <v>219</v>
       </c>
     </row>
@@ -3396,7 +3392,7 @@
       <c r="A22" s="8"/>
     </row>
     <row r="23" spans="1:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="B23" s="117" t="s">
+      <c r="B23" s="116" t="s">
         <v>170</v>
       </c>
     </row>
@@ -4397,9 +4393,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:MZ1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4451,14 +4445,14 @@
       <c r="I1" s="73"/>
       <c r="J1" s="75"/>
       <c r="K1" s="75"/>
-      <c r="L1" s="129" t="s">
+      <c r="L1" s="125" t="s">
         <v>178</v>
       </c>
-      <c r="M1" s="130"/>
-      <c r="N1" s="130"/>
-      <c r="O1" s="130"/>
-      <c r="P1" s="130"/>
-      <c r="Q1" s="130"/>
+      <c r="M1" s="126"/>
+      <c r="N1" s="126"/>
+      <c r="O1" s="126"/>
+      <c r="P1" s="126"/>
+      <c r="Q1" s="126"/>
       <c r="U1" s="77"/>
       <c r="AL1" s="78"/>
       <c r="AM1" s="78"/>
@@ -4849,14 +4843,14 @@
       <c r="U4" s="77"/>
     </row>
     <row r="5" spans="1:364" s="84" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A5" s="129" t="s">
+      <c r="A5" s="125" t="s">
         <v>223</v>
       </c>
-      <c r="B5" s="130"/>
-      <c r="C5" s="130"/>
-      <c r="D5" s="130"/>
-      <c r="E5" s="130"/>
-      <c r="F5" s="130"/>
+      <c r="B5" s="126"/>
+      <c r="C5" s="126"/>
+      <c r="D5" s="126"/>
+      <c r="E5" s="126"/>
+      <c r="F5" s="126"/>
       <c r="G5" s="83"/>
       <c r="H5" s="86"/>
       <c r="J5" s="86"/>
@@ -5203,11 +5197,11 @@
       <c r="C6" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="125" t="s">
+      <c r="D6" s="139" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="126"/>
-      <c r="F6" s="126"/>
+      <c r="E6" s="140"/>
+      <c r="F6" s="140"/>
       <c r="G6" s="20" t="s">
         <v>7</v>
       </c>
@@ -5283,11 +5277,11 @@
       <c r="AE6" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="AF6" s="127" t="s">
+      <c r="AF6" s="141" t="s">
         <v>126</v>
       </c>
-      <c r="AG6" s="128"/>
-      <c r="AH6" s="128"/>
+      <c r="AG6" s="142"/>
+      <c r="AH6" s="142"/>
       <c r="AI6" s="15" t="s">
         <v>87</v>
       </c>
@@ -5739,7 +5733,7 @@
       <c r="MZ7"/>
     </row>
     <row r="8" spans="1:364" s="19" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="159" t="s">
+      <c r="A8" s="123" t="s">
         <v>225</v>
       </c>
       <c r="B8" s="11" t="s">
@@ -6177,7 +6171,7 @@
       <c r="MZ8"/>
     </row>
     <row r="9" spans="1:364" s="36" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="159" t="s">
+      <c r="A9" s="123" t="s">
         <v>225</v>
       </c>
       <c r="B9" s="11" t="s">
@@ -7937,13 +7931,13 @@
       <c r="MZ12"/>
     </row>
     <row r="13" spans="1:364" s="19" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A13" s="133" t="s">
+      <c r="A13" s="145" t="s">
         <v>229</v>
       </c>
-      <c r="B13" s="135" t="s">
+      <c r="B13" s="147" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="135" t="s">
+      <c r="C13" s="147" t="s">
         <v>103</v>
       </c>
       <c r="D13" s="11" t="s">
@@ -7958,16 +7952,16 @@
       <c r="G13" s="91" t="s">
         <v>106</v>
       </c>
-      <c r="H13" s="131" t="s">
+      <c r="H13" s="143" t="s">
         <v>59</v>
       </c>
       <c r="I13" s="100" t="s">
         <v>157</v>
       </c>
-      <c r="J13" s="135" t="s">
+      <c r="J13" s="147" t="s">
         <v>148</v>
       </c>
-      <c r="K13" s="135">
+      <c r="K13" s="147">
         <v>10</v>
       </c>
       <c r="L13" s="95" t="s">
@@ -7982,70 +7976,70 @@
       <c r="O13" s="97" t="s">
         <v>196</v>
       </c>
-      <c r="P13" s="137" t="s">
+      <c r="P13" s="129" t="s">
         <v>143</v>
       </c>
-      <c r="Q13" s="139" t="s">
+      <c r="Q13" s="149" t="s">
         <v>206</v>
       </c>
-      <c r="R13" s="141" t="s">
+      <c r="R13" s="133" t="s">
         <v>34</v>
       </c>
-      <c r="S13" s="150" t="s">
+      <c r="S13" s="131" t="s">
         <v>129</v>
       </c>
-      <c r="T13" s="141" t="s">
+      <c r="T13" s="133" t="s">
         <v>28</v>
       </c>
-      <c r="U13" s="153" t="s">
+      <c r="U13" s="135" t="s">
         <v>28</v>
       </c>
-      <c r="V13" s="155" t="s">
+      <c r="V13" s="137" t="s">
         <v>28</v>
       </c>
-      <c r="W13" s="115" t="s">
+      <c r="W13" s="114" t="s">
         <v>35</v>
       </c>
-      <c r="X13" s="135" t="s">
+      <c r="X13" s="147" t="s">
         <v>107</v>
       </c>
-      <c r="Y13" s="144" t="s">
+      <c r="Y13" s="153" t="s">
         <v>29</v>
       </c>
-      <c r="Z13" s="141" t="s">
+      <c r="Z13" s="133" t="s">
         <v>30</v>
       </c>
-      <c r="AA13" s="146" t="s">
+      <c r="AA13" s="155" t="s">
         <v>130</v>
       </c>
       <c r="AB13" s="107" t="s">
         <v>163</v>
       </c>
-      <c r="AC13" s="137" t="s">
+      <c r="AC13" s="129" t="s">
         <v>155</v>
       </c>
-      <c r="AD13" s="137" t="s">
+      <c r="AD13" s="129" t="s">
         <v>155</v>
       </c>
-      <c r="AE13" s="137" t="s">
+      <c r="AE13" s="129" t="s">
         <v>155</v>
       </c>
-      <c r="AF13" s="137" t="s">
+      <c r="AF13" s="129" t="s">
         <v>155</v>
       </c>
-      <c r="AG13" s="137" t="s">
+      <c r="AG13" s="129" t="s">
         <v>155</v>
       </c>
-      <c r="AH13" s="137" t="s">
+      <c r="AH13" s="129" t="s">
         <v>155</v>
       </c>
-      <c r="AI13" s="148" t="s">
+      <c r="AI13" s="127" t="s">
         <v>164</v>
       </c>
-      <c r="AJ13" s="148" t="s">
+      <c r="AJ13" s="127" t="s">
         <v>165</v>
       </c>
-      <c r="AK13" s="137" t="s">
+      <c r="AK13" s="129" t="s">
         <v>155</v>
       </c>
       <c r="AL13"/>
@@ -8377,9 +8371,9 @@
       <c r="MZ13"/>
     </row>
     <row r="14" spans="1:364" s="64" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A14" s="134"/>
-      <c r="B14" s="136"/>
-      <c r="C14" s="136"/>
+      <c r="A14" s="146"/>
+      <c r="B14" s="148"/>
+      <c r="C14" s="148"/>
       <c r="D14" s="102" t="s">
         <v>40</v>
       </c>
@@ -8392,12 +8386,12 @@
       <c r="G14" s="101" t="s">
         <v>106</v>
       </c>
-      <c r="H14" s="132"/>
+      <c r="H14" s="144"/>
       <c r="I14" s="99" t="s">
         <v>154</v>
       </c>
-      <c r="J14" s="136"/>
-      <c r="K14" s="136"/>
+      <c r="J14" s="148"/>
+      <c r="K14" s="148"/>
       <c r="L14" s="98" t="s">
         <v>199</v>
       </c>
@@ -8410,28 +8404,28 @@
       <c r="O14" s="99" t="s">
         <v>155</v>
       </c>
-      <c r="P14" s="138"/>
-      <c r="Q14" s="140"/>
-      <c r="R14" s="142"/>
-      <c r="S14" s="151"/>
-      <c r="T14" s="152"/>
-      <c r="U14" s="154"/>
-      <c r="V14" s="156"/>
-      <c r="W14" s="114"/>
-      <c r="X14" s="143"/>
-      <c r="Y14" s="145"/>
-      <c r="Z14" s="142"/>
-      <c r="AA14" s="147"/>
+      <c r="P14" s="130"/>
+      <c r="Q14" s="150"/>
+      <c r="R14" s="151"/>
+      <c r="S14" s="132"/>
+      <c r="T14" s="134"/>
+      <c r="U14" s="136"/>
+      <c r="V14" s="138"/>
+      <c r="W14" s="159"/>
+      <c r="X14" s="152"/>
+      <c r="Y14" s="154"/>
+      <c r="Z14" s="151"/>
+      <c r="AA14" s="156"/>
       <c r="AB14" s="108"/>
-      <c r="AC14" s="138"/>
-      <c r="AD14" s="138"/>
-      <c r="AE14" s="138"/>
-      <c r="AF14" s="138"/>
-      <c r="AG14" s="138"/>
-      <c r="AH14" s="138"/>
-      <c r="AI14" s="149"/>
-      <c r="AJ14" s="149"/>
-      <c r="AK14" s="138"/>
+      <c r="AC14" s="130"/>
+      <c r="AD14" s="130"/>
+      <c r="AE14" s="130"/>
+      <c r="AF14" s="130"/>
+      <c r="AG14" s="130"/>
+      <c r="AH14" s="130"/>
+      <c r="AI14" s="128"/>
+      <c r="AJ14" s="128"/>
+      <c r="AK14" s="130"/>
       <c r="AL14" s="55"/>
       <c r="AM14" s="55"/>
       <c r="AN14" s="55"/>
@@ -8775,7 +8769,7 @@
       <c r="K15" s="51"/>
       <c r="L15" s="51"/>
       <c r="M15" s="51"/>
-      <c r="N15" s="123"/>
+      <c r="N15" s="122"/>
       <c r="O15" s="49"/>
       <c r="P15" s="50"/>
       <c r="Q15" s="14"/>
@@ -8817,7 +8811,7 @@
       <c r="K16" s="51"/>
       <c r="L16" s="51"/>
       <c r="M16" s="51"/>
-      <c r="N16" s="123"/>
+      <c r="N16" s="122"/>
       <c r="O16" s="49"/>
       <c r="P16" s="50"/>
       <c r="Q16" s="14"/>
@@ -8826,7 +8820,6 @@
       <c r="T16" s="13"/>
       <c r="U16" s="50"/>
       <c r="V16" s="13"/>
-      <c r="W16" s="13"/>
       <c r="X16" s="13"/>
       <c r="Y16" s="13"/>
       <c r="Z16" s="13"/>
@@ -8859,7 +8852,7 @@
       <c r="K17" s="51"/>
       <c r="L17" s="51"/>
       <c r="M17" s="51"/>
-      <c r="N17" s="123"/>
+      <c r="N17" s="122"/>
       <c r="O17" s="49"/>
       <c r="P17" s="50"/>
       <c r="Q17" s="14"/>
@@ -8901,7 +8894,7 @@
       <c r="K18" s="51"/>
       <c r="L18" s="51"/>
       <c r="M18" s="51"/>
-      <c r="N18" s="123"/>
+      <c r="N18" s="122"/>
       <c r="O18" s="49"/>
       <c r="P18" s="50"/>
       <c r="Q18" s="14"/>
@@ -8943,7 +8936,7 @@
       <c r="K19" s="51"/>
       <c r="L19" s="51"/>
       <c r="M19" s="51"/>
-      <c r="N19" s="123"/>
+      <c r="N19" s="122"/>
       <c r="O19" s="49"/>
       <c r="P19" s="50"/>
       <c r="Q19" s="14"/>
@@ -8985,7 +8978,7 @@
       <c r="K20" s="51"/>
       <c r="L20" s="51"/>
       <c r="M20" s="51"/>
-      <c r="N20" s="123"/>
+      <c r="N20" s="122"/>
       <c r="O20" s="49"/>
       <c r="P20" s="50"/>
       <c r="Q20" s="14"/>
@@ -9027,7 +9020,7 @@
       <c r="K21" s="51"/>
       <c r="L21" s="51"/>
       <c r="M21" s="51"/>
-      <c r="N21" s="123"/>
+      <c r="N21" s="122"/>
       <c r="O21" s="49"/>
       <c r="P21" s="50"/>
       <c r="Q21" s="14"/>
@@ -9069,7 +9062,7 @@
       <c r="K22" s="51"/>
       <c r="L22" s="51"/>
       <c r="M22" s="51"/>
-      <c r="N22" s="123"/>
+      <c r="N22" s="122"/>
       <c r="O22" s="49"/>
       <c r="P22" s="50"/>
       <c r="Q22" s="14"/>
@@ -9111,7 +9104,7 @@
       <c r="K23" s="51"/>
       <c r="L23" s="51"/>
       <c r="M23" s="51"/>
-      <c r="N23" s="123"/>
+      <c r="N23" s="122"/>
       <c r="O23" s="49"/>
       <c r="P23" s="50"/>
       <c r="Q23" s="14"/>
@@ -9153,7 +9146,7 @@
       <c r="K24" s="51"/>
       <c r="L24" s="51"/>
       <c r="M24" s="51"/>
-      <c r="N24" s="123"/>
+      <c r="N24" s="122"/>
       <c r="O24" s="49"/>
       <c r="P24" s="50"/>
       <c r="Q24" s="14"/>
@@ -9195,7 +9188,7 @@
       <c r="K25" s="51"/>
       <c r="L25" s="51"/>
       <c r="M25" s="51"/>
-      <c r="N25" s="123"/>
+      <c r="N25" s="122"/>
       <c r="O25" s="49"/>
       <c r="P25" s="50"/>
       <c r="Q25" s="14"/>
@@ -9237,7 +9230,7 @@
       <c r="K26" s="51"/>
       <c r="L26" s="51"/>
       <c r="M26" s="51"/>
-      <c r="N26" s="123"/>
+      <c r="N26" s="122"/>
       <c r="O26" s="49"/>
       <c r="P26" s="50"/>
       <c r="Q26" s="14"/>
@@ -9279,7 +9272,7 @@
       <c r="K27" s="51"/>
       <c r="L27" s="51"/>
       <c r="M27" s="51"/>
-      <c r="N27" s="123"/>
+      <c r="N27" s="122"/>
       <c r="O27" s="49"/>
       <c r="P27" s="50"/>
       <c r="Q27" s="14"/>
@@ -9321,7 +9314,7 @@
       <c r="K28" s="51"/>
       <c r="L28" s="51"/>
       <c r="M28" s="51"/>
-      <c r="N28" s="123"/>
+      <c r="N28" s="122"/>
       <c r="O28" s="49"/>
       <c r="P28" s="50"/>
       <c r="Q28" s="14"/>
@@ -9363,7 +9356,7 @@
       <c r="K29" s="51"/>
       <c r="L29" s="51"/>
       <c r="M29" s="51"/>
-      <c r="N29" s="123"/>
+      <c r="N29" s="122"/>
       <c r="O29" s="49"/>
       <c r="P29" s="50"/>
       <c r="Q29" s="14"/>
@@ -9405,7 +9398,7 @@
       <c r="K30" s="51"/>
       <c r="L30" s="51"/>
       <c r="M30" s="51"/>
-      <c r="N30" s="123"/>
+      <c r="N30" s="122"/>
       <c r="O30" s="49"/>
       <c r="P30" s="50"/>
       <c r="Q30" s="14"/>
@@ -9447,7 +9440,7 @@
       <c r="K31" s="51"/>
       <c r="L31" s="51"/>
       <c r="M31" s="51"/>
-      <c r="N31" s="123"/>
+      <c r="N31" s="122"/>
       <c r="O31" s="49"/>
       <c r="P31" s="50"/>
       <c r="Q31" s="14"/>
@@ -9489,7 +9482,7 @@
       <c r="K32" s="51"/>
       <c r="L32" s="51"/>
       <c r="M32" s="51"/>
-      <c r="N32" s="123"/>
+      <c r="N32" s="122"/>
       <c r="O32" s="49"/>
       <c r="P32" s="50"/>
       <c r="Q32" s="14"/>
@@ -9531,7 +9524,7 @@
       <c r="K33" s="51"/>
       <c r="L33" s="51"/>
       <c r="M33" s="51"/>
-      <c r="N33" s="123"/>
+      <c r="N33" s="122"/>
       <c r="O33" s="49"/>
       <c r="P33" s="50"/>
       <c r="Q33" s="14"/>
@@ -9573,7 +9566,7 @@
       <c r="K34" s="51"/>
       <c r="L34" s="51"/>
       <c r="M34" s="51"/>
-      <c r="N34" s="123"/>
+      <c r="N34" s="122"/>
       <c r="O34" s="49"/>
       <c r="P34" s="50"/>
       <c r="Q34" s="14"/>
@@ -9615,7 +9608,7 @@
       <c r="K35" s="51"/>
       <c r="L35" s="51"/>
       <c r="M35" s="51"/>
-      <c r="N35" s="123"/>
+      <c r="N35" s="122"/>
       <c r="O35" s="49"/>
       <c r="P35" s="50"/>
       <c r="Q35" s="14"/>
@@ -9657,7 +9650,7 @@
       <c r="K36" s="51"/>
       <c r="L36" s="51"/>
       <c r="M36" s="51"/>
-      <c r="N36" s="123"/>
+      <c r="N36" s="122"/>
       <c r="O36" s="49"/>
       <c r="P36" s="50"/>
       <c r="Q36" s="14"/>
@@ -9699,7 +9692,7 @@
       <c r="K37" s="51"/>
       <c r="L37" s="51"/>
       <c r="M37" s="51"/>
-      <c r="N37" s="123"/>
+      <c r="N37" s="122"/>
       <c r="O37" s="49"/>
       <c r="P37" s="50"/>
       <c r="Q37" s="14"/>
@@ -9741,7 +9734,7 @@
       <c r="K38" s="51"/>
       <c r="L38" s="51"/>
       <c r="M38" s="51"/>
-      <c r="N38" s="123"/>
+      <c r="N38" s="122"/>
       <c r="O38" s="49"/>
       <c r="P38" s="50"/>
       <c r="Q38" s="14"/>
@@ -9783,7 +9776,7 @@
       <c r="K39" s="51"/>
       <c r="L39" s="51"/>
       <c r="M39" s="51"/>
-      <c r="N39" s="123"/>
+      <c r="N39" s="122"/>
       <c r="O39" s="49"/>
       <c r="P39" s="50"/>
       <c r="Q39" s="14"/>
@@ -9825,7 +9818,7 @@
       <c r="K40" s="51"/>
       <c r="L40" s="51"/>
       <c r="M40" s="51"/>
-      <c r="N40" s="123"/>
+      <c r="N40" s="122"/>
       <c r="O40" s="49"/>
       <c r="P40" s="50"/>
       <c r="Q40" s="14"/>
@@ -9867,7 +9860,7 @@
       <c r="K41" s="51"/>
       <c r="L41" s="51"/>
       <c r="M41" s="51"/>
-      <c r="N41" s="123"/>
+      <c r="N41" s="122"/>
       <c r="O41" s="49"/>
       <c r="P41" s="50"/>
       <c r="Q41" s="14"/>
@@ -9909,7 +9902,7 @@
       <c r="K42" s="51"/>
       <c r="L42" s="51"/>
       <c r="M42" s="51"/>
-      <c r="N42" s="123"/>
+      <c r="N42" s="122"/>
       <c r="O42" s="49"/>
       <c r="P42" s="50"/>
       <c r="Q42" s="14"/>
@@ -9951,7 +9944,7 @@
       <c r="K43" s="51"/>
       <c r="L43" s="51"/>
       <c r="M43" s="51"/>
-      <c r="N43" s="123"/>
+      <c r="N43" s="122"/>
       <c r="O43" s="49"/>
       <c r="P43" s="50"/>
       <c r="Q43" s="14"/>
@@ -9993,7 +9986,7 @@
       <c r="K44" s="51"/>
       <c r="L44" s="51"/>
       <c r="M44" s="51"/>
-      <c r="N44" s="123"/>
+      <c r="N44" s="122"/>
       <c r="O44" s="49"/>
       <c r="P44" s="50"/>
       <c r="Q44" s="14"/>
@@ -10035,7 +10028,7 @@
       <c r="K45" s="51"/>
       <c r="L45" s="51"/>
       <c r="M45" s="51"/>
-      <c r="N45" s="123"/>
+      <c r="N45" s="122"/>
       <c r="O45" s="49"/>
       <c r="P45" s="50"/>
       <c r="Q45" s="14"/>
@@ -10077,7 +10070,7 @@
       <c r="K46" s="51"/>
       <c r="L46" s="51"/>
       <c r="M46" s="51"/>
-      <c r="N46" s="123"/>
+      <c r="N46" s="122"/>
       <c r="O46" s="49"/>
       <c r="P46" s="50"/>
       <c r="Q46" s="14"/>
@@ -10119,7 +10112,7 @@
       <c r="K47" s="51"/>
       <c r="L47" s="51"/>
       <c r="M47" s="51"/>
-      <c r="N47" s="123"/>
+      <c r="N47" s="122"/>
       <c r="O47" s="49"/>
       <c r="P47" s="50"/>
       <c r="Q47" s="14"/>
@@ -10161,7 +10154,7 @@
       <c r="K48" s="51"/>
       <c r="L48" s="51"/>
       <c r="M48" s="51"/>
-      <c r="N48" s="123"/>
+      <c r="N48" s="122"/>
       <c r="O48" s="49"/>
       <c r="P48" s="50"/>
       <c r="Q48" s="14"/>
@@ -10203,7 +10196,7 @@
       <c r="K49" s="51"/>
       <c r="L49" s="51"/>
       <c r="M49" s="51"/>
-      <c r="N49" s="123"/>
+      <c r="N49" s="122"/>
       <c r="O49" s="49"/>
       <c r="P49" s="50"/>
       <c r="Q49" s="14"/>
@@ -10245,7 +10238,7 @@
       <c r="K50" s="51"/>
       <c r="L50" s="51"/>
       <c r="M50" s="51"/>
-      <c r="N50" s="123"/>
+      <c r="N50" s="122"/>
       <c r="O50" s="49"/>
       <c r="P50" s="50"/>
       <c r="Q50" s="14"/>
@@ -10287,7 +10280,7 @@
       <c r="K51" s="51"/>
       <c r="L51" s="51"/>
       <c r="M51" s="51"/>
-      <c r="N51" s="123"/>
+      <c r="N51" s="122"/>
       <c r="O51" s="49"/>
       <c r="P51" s="50"/>
       <c r="Q51" s="14"/>
@@ -10329,7 +10322,7 @@
       <c r="K52" s="51"/>
       <c r="L52" s="51"/>
       <c r="M52" s="51"/>
-      <c r="N52" s="123"/>
+      <c r="N52" s="122"/>
       <c r="O52" s="49"/>
       <c r="P52" s="50"/>
       <c r="Q52" s="14"/>
@@ -10371,7 +10364,7 @@
       <c r="K53" s="51"/>
       <c r="L53" s="51"/>
       <c r="M53" s="51"/>
-      <c r="N53" s="123"/>
+      <c r="N53" s="122"/>
       <c r="O53" s="49"/>
       <c r="P53" s="50"/>
       <c r="Q53" s="14"/>
@@ -10413,7 +10406,7 @@
       <c r="K54" s="51"/>
       <c r="L54" s="51"/>
       <c r="M54" s="51"/>
-      <c r="N54" s="123"/>
+      <c r="N54" s="122"/>
       <c r="O54" s="49"/>
       <c r="P54" s="50"/>
       <c r="Q54" s="14"/>
@@ -10455,7 +10448,7 @@
       <c r="K55" s="51"/>
       <c r="L55" s="51"/>
       <c r="M55" s="51"/>
-      <c r="N55" s="123"/>
+      <c r="N55" s="122"/>
       <c r="O55" s="49"/>
       <c r="P55" s="50"/>
       <c r="Q55" s="14"/>
@@ -10497,7 +10490,7 @@
       <c r="K56" s="51"/>
       <c r="L56" s="51"/>
       <c r="M56" s="51"/>
-      <c r="N56" s="123"/>
+      <c r="N56" s="122"/>
       <c r="O56" s="49"/>
       <c r="P56" s="50"/>
       <c r="Q56" s="14"/>
@@ -10539,7 +10532,7 @@
       <c r="K57" s="51"/>
       <c r="L57" s="51"/>
       <c r="M57" s="51"/>
-      <c r="N57" s="123"/>
+      <c r="N57" s="122"/>
       <c r="O57" s="49"/>
       <c r="P57" s="50"/>
       <c r="Q57" s="14"/>
@@ -10581,7 +10574,7 @@
       <c r="K58" s="51"/>
       <c r="L58" s="51"/>
       <c r="M58" s="51"/>
-      <c r="N58" s="123"/>
+      <c r="N58" s="122"/>
       <c r="O58" s="49"/>
       <c r="P58" s="50"/>
       <c r="Q58" s="14"/>
@@ -10623,7 +10616,7 @@
       <c r="K59" s="51"/>
       <c r="L59" s="51"/>
       <c r="M59" s="51"/>
-      <c r="N59" s="123"/>
+      <c r="N59" s="122"/>
       <c r="O59" s="49"/>
       <c r="P59" s="50"/>
       <c r="Q59" s="14"/>
@@ -10665,7 +10658,7 @@
       <c r="K60" s="51"/>
       <c r="L60" s="51"/>
       <c r="M60" s="51"/>
-      <c r="N60" s="123"/>
+      <c r="N60" s="122"/>
       <c r="O60" s="49"/>
       <c r="P60" s="50"/>
       <c r="Q60" s="14"/>
@@ -10707,7 +10700,7 @@
       <c r="K61" s="51"/>
       <c r="L61" s="51"/>
       <c r="M61" s="51"/>
-      <c r="N61" s="123"/>
+      <c r="N61" s="122"/>
       <c r="O61" s="49"/>
       <c r="P61" s="50"/>
       <c r="Q61" s="14"/>
@@ -10749,7 +10742,7 @@
       <c r="K62" s="51"/>
       <c r="L62" s="51"/>
       <c r="M62" s="51"/>
-      <c r="N62" s="123"/>
+      <c r="N62" s="122"/>
       <c r="O62" s="49"/>
       <c r="P62" s="50"/>
       <c r="Q62" s="14"/>
@@ -10791,7 +10784,7 @@
       <c r="K63" s="51"/>
       <c r="L63" s="51"/>
       <c r="M63" s="51"/>
-      <c r="N63" s="123"/>
+      <c r="N63" s="122"/>
       <c r="O63" s="49"/>
       <c r="P63" s="50"/>
       <c r="Q63" s="14"/>
@@ -10833,7 +10826,7 @@
       <c r="K64" s="51"/>
       <c r="L64" s="51"/>
       <c r="M64" s="51"/>
-      <c r="N64" s="123"/>
+      <c r="N64" s="122"/>
       <c r="O64" s="49"/>
       <c r="P64" s="50"/>
       <c r="Q64" s="14"/>
@@ -10875,7 +10868,7 @@
       <c r="K65" s="51"/>
       <c r="L65" s="51"/>
       <c r="M65" s="51"/>
-      <c r="N65" s="123"/>
+      <c r="N65" s="122"/>
       <c r="O65" s="49"/>
       <c r="P65" s="50"/>
       <c r="Q65" s="14"/>
@@ -10917,7 +10910,7 @@
       <c r="K66" s="51"/>
       <c r="L66" s="51"/>
       <c r="M66" s="51"/>
-      <c r="N66" s="123"/>
+      <c r="N66" s="122"/>
       <c r="O66" s="49"/>
       <c r="P66" s="50"/>
       <c r="Q66" s="14"/>
@@ -10959,7 +10952,7 @@
       <c r="K67" s="51"/>
       <c r="L67" s="51"/>
       <c r="M67" s="51"/>
-      <c r="N67" s="123"/>
+      <c r="N67" s="122"/>
       <c r="O67" s="49"/>
       <c r="P67" s="50"/>
       <c r="Q67" s="14"/>
@@ -11001,7 +10994,7 @@
       <c r="K68" s="51"/>
       <c r="L68" s="51"/>
       <c r="M68" s="51"/>
-      <c r="N68" s="123"/>
+      <c r="N68" s="122"/>
       <c r="O68" s="49"/>
       <c r="P68" s="50"/>
       <c r="Q68" s="14"/>
@@ -11043,7 +11036,7 @@
       <c r="K69" s="51"/>
       <c r="L69" s="51"/>
       <c r="M69" s="51"/>
-      <c r="N69" s="123"/>
+      <c r="N69" s="122"/>
       <c r="O69" s="49"/>
       <c r="P69" s="50"/>
       <c r="Q69" s="14"/>
@@ -11085,7 +11078,7 @@
       <c r="K70" s="51"/>
       <c r="L70" s="51"/>
       <c r="M70" s="51"/>
-      <c r="N70" s="123"/>
+      <c r="N70" s="122"/>
       <c r="O70" s="49"/>
       <c r="P70" s="50"/>
       <c r="Q70" s="14"/>
@@ -11127,7 +11120,7 @@
       <c r="K71" s="51"/>
       <c r="L71" s="51"/>
       <c r="M71" s="51"/>
-      <c r="N71" s="123"/>
+      <c r="N71" s="122"/>
       <c r="O71" s="49"/>
       <c r="P71" s="50"/>
       <c r="Q71" s="14"/>
@@ -11169,7 +11162,7 @@
       <c r="K72" s="51"/>
       <c r="L72" s="51"/>
       <c r="M72" s="51"/>
-      <c r="N72" s="123"/>
+      <c r="N72" s="122"/>
       <c r="O72" s="49"/>
       <c r="P72" s="50"/>
       <c r="Q72" s="14"/>
@@ -11211,7 +11204,7 @@
       <c r="K73" s="51"/>
       <c r="L73" s="51"/>
       <c r="M73" s="51"/>
-      <c r="N73" s="123"/>
+      <c r="N73" s="122"/>
       <c r="O73" s="49"/>
       <c r="P73" s="50"/>
       <c r="Q73" s="14"/>
@@ -11253,7 +11246,7 @@
       <c r="K74" s="51"/>
       <c r="L74" s="51"/>
       <c r="M74" s="51"/>
-      <c r="N74" s="123"/>
+      <c r="N74" s="122"/>
       <c r="O74" s="49"/>
       <c r="P74" s="50"/>
       <c r="Q74" s="14"/>
@@ -11295,7 +11288,7 @@
       <c r="K75" s="51"/>
       <c r="L75" s="51"/>
       <c r="M75" s="51"/>
-      <c r="N75" s="123"/>
+      <c r="N75" s="122"/>
       <c r="O75" s="49"/>
       <c r="P75" s="50"/>
       <c r="Q75" s="14"/>
@@ -11337,7 +11330,7 @@
       <c r="K76" s="51"/>
       <c r="L76" s="51"/>
       <c r="M76" s="51"/>
-      <c r="N76" s="123"/>
+      <c r="N76" s="122"/>
       <c r="O76" s="49"/>
       <c r="P76" s="50"/>
       <c r="Q76" s="14"/>
@@ -11379,7 +11372,7 @@
       <c r="K77" s="51"/>
       <c r="L77" s="51"/>
       <c r="M77" s="51"/>
-      <c r="N77" s="123"/>
+      <c r="N77" s="122"/>
       <c r="O77" s="49"/>
       <c r="P77" s="50"/>
       <c r="Q77" s="14"/>
@@ -11421,7 +11414,7 @@
       <c r="K78" s="51"/>
       <c r="L78" s="51"/>
       <c r="M78" s="51"/>
-      <c r="N78" s="123"/>
+      <c r="N78" s="122"/>
       <c r="O78" s="49"/>
       <c r="P78" s="50"/>
       <c r="Q78" s="14"/>
@@ -11463,7 +11456,7 @@
       <c r="K79" s="51"/>
       <c r="L79" s="51"/>
       <c r="M79" s="51"/>
-      <c r="N79" s="123"/>
+      <c r="N79" s="122"/>
       <c r="O79" s="49"/>
       <c r="P79" s="50"/>
       <c r="Q79" s="14"/>
@@ -11505,7 +11498,7 @@
       <c r="K80" s="51"/>
       <c r="L80" s="51"/>
       <c r="M80" s="51"/>
-      <c r="N80" s="123"/>
+      <c r="N80" s="122"/>
       <c r="O80" s="49"/>
       <c r="P80" s="50"/>
       <c r="Q80" s="14"/>
@@ -11547,7 +11540,7 @@
       <c r="K81" s="51"/>
       <c r="L81" s="51"/>
       <c r="M81" s="51"/>
-      <c r="N81" s="123"/>
+      <c r="N81" s="122"/>
       <c r="O81" s="49"/>
       <c r="P81" s="50"/>
       <c r="Q81" s="14"/>
@@ -11589,7 +11582,7 @@
       <c r="K82" s="51"/>
       <c r="L82" s="51"/>
       <c r="M82" s="51"/>
-      <c r="N82" s="123"/>
+      <c r="N82" s="122"/>
       <c r="O82" s="49"/>
       <c r="P82" s="50"/>
       <c r="Q82" s="14"/>
@@ -11631,7 +11624,7 @@
       <c r="K83" s="51"/>
       <c r="L83" s="51"/>
       <c r="M83" s="51"/>
-      <c r="N83" s="123"/>
+      <c r="N83" s="122"/>
       <c r="O83" s="49"/>
       <c r="P83" s="50"/>
       <c r="Q83" s="14"/>
@@ -11673,7 +11666,7 @@
       <c r="K84" s="51"/>
       <c r="L84" s="51"/>
       <c r="M84" s="51"/>
-      <c r="N84" s="123"/>
+      <c r="N84" s="122"/>
       <c r="O84" s="49"/>
       <c r="P84" s="50"/>
       <c r="Q84" s="14"/>
@@ -11715,7 +11708,7 @@
       <c r="K85" s="51"/>
       <c r="L85" s="51"/>
       <c r="M85" s="51"/>
-      <c r="N85" s="123"/>
+      <c r="N85" s="122"/>
       <c r="O85" s="49"/>
       <c r="P85" s="50"/>
       <c r="Q85" s="14"/>
@@ -11757,7 +11750,7 @@
       <c r="K86" s="51"/>
       <c r="L86" s="51"/>
       <c r="M86" s="51"/>
-      <c r="N86" s="123"/>
+      <c r="N86" s="122"/>
       <c r="O86" s="49"/>
       <c r="P86" s="50"/>
       <c r="Q86" s="14"/>
@@ -11799,7 +11792,7 @@
       <c r="K87" s="51"/>
       <c r="L87" s="51"/>
       <c r="M87" s="51"/>
-      <c r="N87" s="123"/>
+      <c r="N87" s="122"/>
       <c r="O87" s="49"/>
       <c r="P87" s="50"/>
       <c r="Q87" s="14"/>
@@ -11841,7 +11834,7 @@
       <c r="K88" s="51"/>
       <c r="L88" s="51"/>
       <c r="M88" s="51"/>
-      <c r="N88" s="123"/>
+      <c r="N88" s="122"/>
       <c r="O88" s="49"/>
       <c r="P88" s="50"/>
       <c r="Q88" s="14"/>
@@ -11883,7 +11876,7 @@
       <c r="K89" s="51"/>
       <c r="L89" s="51"/>
       <c r="M89" s="51"/>
-      <c r="N89" s="123"/>
+      <c r="N89" s="122"/>
       <c r="O89" s="49"/>
       <c r="P89" s="50"/>
       <c r="Q89" s="14"/>
@@ -11925,7 +11918,7 @@
       <c r="K90" s="51"/>
       <c r="L90" s="51"/>
       <c r="M90" s="51"/>
-      <c r="N90" s="123"/>
+      <c r="N90" s="122"/>
       <c r="O90" s="49"/>
       <c r="P90" s="50"/>
       <c r="Q90" s="14"/>
@@ -11967,7 +11960,7 @@
       <c r="K91" s="51"/>
       <c r="L91" s="51"/>
       <c r="M91" s="51"/>
-      <c r="N91" s="123"/>
+      <c r="N91" s="122"/>
       <c r="O91" s="49"/>
       <c r="P91" s="50"/>
       <c r="Q91" s="14"/>
@@ -12009,7 +12002,7 @@
       <c r="K92" s="51"/>
       <c r="L92" s="51"/>
       <c r="M92" s="51"/>
-      <c r="N92" s="123"/>
+      <c r="N92" s="122"/>
       <c r="O92" s="49"/>
       <c r="P92" s="50"/>
       <c r="Q92" s="14"/>
@@ -12051,7 +12044,7 @@
       <c r="K93" s="51"/>
       <c r="L93" s="51"/>
       <c r="M93" s="51"/>
-      <c r="N93" s="123"/>
+      <c r="N93" s="122"/>
       <c r="O93" s="49"/>
       <c r="P93" s="50"/>
       <c r="Q93" s="14"/>
@@ -12093,7 +12086,7 @@
       <c r="K94" s="51"/>
       <c r="L94" s="51"/>
       <c r="M94" s="51"/>
-      <c r="N94" s="123"/>
+      <c r="N94" s="122"/>
       <c r="O94" s="49"/>
       <c r="P94" s="50"/>
       <c r="Q94" s="14"/>
@@ -12135,7 +12128,7 @@
       <c r="K95" s="51"/>
       <c r="L95" s="51"/>
       <c r="M95" s="51"/>
-      <c r="N95" s="123"/>
+      <c r="N95" s="122"/>
       <c r="O95" s="49"/>
       <c r="P95" s="50"/>
       <c r="Q95" s="14"/>
@@ -12177,7 +12170,7 @@
       <c r="K96" s="51"/>
       <c r="L96" s="51"/>
       <c r="M96" s="51"/>
-      <c r="N96" s="123"/>
+      <c r="N96" s="122"/>
       <c r="O96" s="49"/>
       <c r="P96" s="50"/>
       <c r="Q96" s="14"/>
@@ -12219,7 +12212,7 @@
       <c r="K97" s="51"/>
       <c r="L97" s="51"/>
       <c r="M97" s="51"/>
-      <c r="N97" s="123"/>
+      <c r="N97" s="122"/>
       <c r="O97" s="49"/>
       <c r="P97" s="50"/>
       <c r="Q97" s="14"/>
@@ -12261,7 +12254,7 @@
       <c r="K98" s="51"/>
       <c r="L98" s="51"/>
       <c r="M98" s="51"/>
-      <c r="N98" s="123"/>
+      <c r="N98" s="122"/>
       <c r="O98" s="49"/>
       <c r="P98" s="50"/>
       <c r="Q98" s="14"/>
@@ -12303,7 +12296,7 @@
       <c r="K99" s="51"/>
       <c r="L99" s="51"/>
       <c r="M99" s="51"/>
-      <c r="N99" s="123"/>
+      <c r="N99" s="122"/>
       <c r="O99" s="49"/>
       <c r="P99" s="50"/>
       <c r="Q99" s="14"/>
@@ -12345,7 +12338,7 @@
       <c r="K100" s="51"/>
       <c r="L100" s="51"/>
       <c r="M100" s="51"/>
-      <c r="N100" s="123"/>
+      <c r="N100" s="122"/>
       <c r="O100" s="49"/>
       <c r="P100" s="50"/>
       <c r="Q100" s="14"/>
@@ -12387,7 +12380,7 @@
       <c r="K101" s="51"/>
       <c r="L101" s="51"/>
       <c r="M101" s="51"/>
-      <c r="N101" s="123"/>
+      <c r="N101" s="122"/>
       <c r="O101" s="49"/>
       <c r="P101" s="50"/>
       <c r="Q101" s="14"/>
@@ -12429,7 +12422,7 @@
       <c r="K102" s="51"/>
       <c r="L102" s="51"/>
       <c r="M102" s="51"/>
-      <c r="N102" s="123"/>
+      <c r="N102" s="122"/>
       <c r="O102" s="49"/>
       <c r="P102" s="50"/>
       <c r="Q102" s="14"/>
@@ -12471,7 +12464,7 @@
       <c r="K103" s="51"/>
       <c r="L103" s="51"/>
       <c r="M103" s="51"/>
-      <c r="N103" s="123"/>
+      <c r="N103" s="122"/>
       <c r="O103" s="49"/>
       <c r="P103" s="50"/>
       <c r="Q103" s="14"/>
@@ -12513,7 +12506,7 @@
       <c r="K104" s="51"/>
       <c r="L104" s="51"/>
       <c r="M104" s="51"/>
-      <c r="N104" s="123"/>
+      <c r="N104" s="122"/>
       <c r="O104" s="49"/>
       <c r="P104" s="50"/>
       <c r="Q104" s="14"/>
@@ -12555,7 +12548,7 @@
       <c r="K105" s="51"/>
       <c r="L105" s="51"/>
       <c r="M105" s="51"/>
-      <c r="N105" s="123"/>
+      <c r="N105" s="122"/>
       <c r="O105" s="49"/>
       <c r="P105" s="50"/>
       <c r="Q105" s="14"/>
@@ -12597,7 +12590,7 @@
       <c r="K106" s="51"/>
       <c r="L106" s="51"/>
       <c r="M106" s="51"/>
-      <c r="N106" s="123"/>
+      <c r="N106" s="122"/>
       <c r="O106" s="49"/>
       <c r="P106" s="50"/>
       <c r="Q106" s="14"/>
@@ -12639,7 +12632,7 @@
       <c r="K107" s="51"/>
       <c r="L107" s="51"/>
       <c r="M107" s="51"/>
-      <c r="N107" s="123"/>
+      <c r="N107" s="122"/>
       <c r="O107" s="49"/>
       <c r="P107" s="50"/>
       <c r="Q107" s="14"/>
@@ -12681,7 +12674,7 @@
       <c r="K108" s="51"/>
       <c r="L108" s="51"/>
       <c r="M108" s="51"/>
-      <c r="N108" s="123"/>
+      <c r="N108" s="122"/>
       <c r="O108" s="49"/>
       <c r="P108" s="50"/>
       <c r="Q108" s="14"/>
@@ -12723,7 +12716,7 @@
       <c r="K109" s="51"/>
       <c r="L109" s="51"/>
       <c r="M109" s="51"/>
-      <c r="N109" s="123"/>
+      <c r="N109" s="122"/>
       <c r="O109" s="49"/>
       <c r="P109" s="50"/>
       <c r="Q109" s="14"/>
@@ -12765,7 +12758,7 @@
       <c r="K110" s="51"/>
       <c r="L110" s="51"/>
       <c r="M110" s="51"/>
-      <c r="N110" s="123"/>
+      <c r="N110" s="122"/>
       <c r="O110" s="49"/>
       <c r="P110" s="50"/>
       <c r="Q110" s="14"/>
@@ -12807,7 +12800,7 @@
       <c r="K111" s="51"/>
       <c r="L111" s="51"/>
       <c r="M111" s="51"/>
-      <c r="N111" s="123"/>
+      <c r="N111" s="122"/>
       <c r="O111" s="49"/>
       <c r="P111" s="50"/>
       <c r="Q111" s="14"/>
@@ -12849,7 +12842,7 @@
       <c r="K112" s="51"/>
       <c r="L112" s="51"/>
       <c r="M112" s="51"/>
-      <c r="N112" s="123"/>
+      <c r="N112" s="122"/>
       <c r="O112" s="49"/>
       <c r="P112" s="50"/>
       <c r="Q112" s="14"/>
@@ -12891,7 +12884,7 @@
       <c r="K113" s="51"/>
       <c r="L113" s="51"/>
       <c r="M113" s="51"/>
-      <c r="N113" s="123"/>
+      <c r="N113" s="122"/>
       <c r="O113" s="49"/>
       <c r="P113" s="50"/>
       <c r="Q113" s="14"/>
@@ -12933,7 +12926,7 @@
       <c r="K114" s="51"/>
       <c r="L114" s="51"/>
       <c r="M114" s="51"/>
-      <c r="N114" s="123"/>
+      <c r="N114" s="122"/>
       <c r="O114" s="49"/>
       <c r="P114" s="50"/>
       <c r="Q114" s="14"/>
@@ -12975,7 +12968,7 @@
       <c r="K115" s="51"/>
       <c r="L115" s="51"/>
       <c r="M115" s="51"/>
-      <c r="N115" s="123"/>
+      <c r="N115" s="122"/>
       <c r="O115" s="49"/>
       <c r="P115" s="50"/>
       <c r="Q115" s="14"/>
@@ -13017,7 +13010,7 @@
       <c r="K116" s="51"/>
       <c r="L116" s="51"/>
       <c r="M116" s="51"/>
-      <c r="N116" s="123"/>
+      <c r="N116" s="122"/>
       <c r="O116" s="49"/>
       <c r="P116" s="50"/>
       <c r="Q116" s="14"/>
@@ -13059,7 +13052,7 @@
       <c r="K117" s="51"/>
       <c r="L117" s="51"/>
       <c r="M117" s="51"/>
-      <c r="N117" s="123"/>
+      <c r="N117" s="122"/>
       <c r="O117" s="49"/>
       <c r="P117" s="50"/>
       <c r="Q117" s="14"/>
@@ -13101,7 +13094,7 @@
       <c r="K118" s="51"/>
       <c r="L118" s="51"/>
       <c r="M118" s="51"/>
-      <c r="N118" s="123"/>
+      <c r="N118" s="122"/>
       <c r="O118" s="49"/>
       <c r="P118" s="50"/>
       <c r="Q118" s="14"/>
@@ -13143,7 +13136,7 @@
       <c r="K119" s="51"/>
       <c r="L119" s="51"/>
       <c r="M119" s="51"/>
-      <c r="N119" s="123"/>
+      <c r="N119" s="122"/>
       <c r="O119" s="49"/>
       <c r="P119" s="50"/>
       <c r="Q119" s="14"/>
@@ -13185,7 +13178,7 @@
       <c r="K120" s="51"/>
       <c r="L120" s="51"/>
       <c r="M120" s="51"/>
-      <c r="N120" s="123"/>
+      <c r="N120" s="122"/>
       <c r="O120" s="49"/>
       <c r="P120" s="50"/>
       <c r="Q120" s="14"/>
@@ -13227,7 +13220,7 @@
       <c r="K121" s="51"/>
       <c r="L121" s="51"/>
       <c r="M121" s="51"/>
-      <c r="N121" s="123"/>
+      <c r="N121" s="122"/>
       <c r="O121" s="49"/>
       <c r="P121" s="50"/>
       <c r="Q121" s="14"/>
@@ -13269,7 +13262,7 @@
       <c r="K122" s="51"/>
       <c r="L122" s="51"/>
       <c r="M122" s="51"/>
-      <c r="N122" s="123"/>
+      <c r="N122" s="122"/>
       <c r="O122" s="49"/>
       <c r="P122" s="50"/>
       <c r="Q122" s="14"/>
@@ -13311,7 +13304,7 @@
       <c r="K123" s="51"/>
       <c r="L123" s="51"/>
       <c r="M123" s="51"/>
-      <c r="N123" s="123"/>
+      <c r="N123" s="122"/>
       <c r="O123" s="49"/>
       <c r="P123" s="50"/>
       <c r="Q123" s="14"/>
@@ -13353,7 +13346,7 @@
       <c r="K124" s="51"/>
       <c r="L124" s="51"/>
       <c r="M124" s="51"/>
-      <c r="N124" s="123"/>
+      <c r="N124" s="122"/>
       <c r="O124" s="49"/>
       <c r="P124" s="50"/>
       <c r="Q124" s="14"/>
@@ -13395,7 +13388,7 @@
       <c r="K125" s="51"/>
       <c r="L125" s="51"/>
       <c r="M125" s="51"/>
-      <c r="N125" s="123"/>
+      <c r="N125" s="122"/>
       <c r="O125" s="49"/>
       <c r="P125" s="50"/>
       <c r="Q125" s="14"/>
@@ -13437,7 +13430,7 @@
       <c r="K126" s="51"/>
       <c r="L126" s="51"/>
       <c r="M126" s="51"/>
-      <c r="N126" s="123"/>
+      <c r="N126" s="122"/>
       <c r="O126" s="49"/>
       <c r="P126" s="50"/>
       <c r="Q126" s="14"/>
@@ -13479,7 +13472,7 @@
       <c r="K127" s="51"/>
       <c r="L127" s="51"/>
       <c r="M127" s="51"/>
-      <c r="N127" s="123"/>
+      <c r="N127" s="122"/>
       <c r="O127" s="49"/>
       <c r="P127" s="50"/>
       <c r="Q127" s="14"/>
@@ -13521,7 +13514,7 @@
       <c r="K128" s="51"/>
       <c r="L128" s="51"/>
       <c r="M128" s="51"/>
-      <c r="N128" s="123"/>
+      <c r="N128" s="122"/>
       <c r="O128" s="49"/>
       <c r="P128" s="50"/>
       <c r="Q128" s="14"/>
@@ -13563,7 +13556,7 @@
       <c r="K129" s="51"/>
       <c r="L129" s="51"/>
       <c r="M129" s="51"/>
-      <c r="N129" s="123"/>
+      <c r="N129" s="122"/>
       <c r="O129" s="49"/>
       <c r="P129" s="50"/>
       <c r="Q129" s="14"/>
@@ -13605,7 +13598,7 @@
       <c r="K130" s="51"/>
       <c r="L130" s="51"/>
       <c r="M130" s="51"/>
-      <c r="N130" s="123"/>
+      <c r="N130" s="122"/>
       <c r="O130" s="49"/>
       <c r="P130" s="50"/>
       <c r="Q130" s="14"/>
@@ -13647,7 +13640,7 @@
       <c r="K131" s="51"/>
       <c r="L131" s="51"/>
       <c r="M131" s="51"/>
-      <c r="N131" s="123"/>
+      <c r="N131" s="122"/>
       <c r="O131" s="49"/>
       <c r="P131" s="50"/>
       <c r="Q131" s="14"/>
@@ -13689,7 +13682,7 @@
       <c r="K132" s="51"/>
       <c r="L132" s="51"/>
       <c r="M132" s="51"/>
-      <c r="N132" s="123"/>
+      <c r="N132" s="122"/>
       <c r="O132" s="49"/>
       <c r="P132" s="50"/>
       <c r="Q132" s="14"/>
@@ -13731,7 +13724,7 @@
       <c r="K133" s="51"/>
       <c r="L133" s="51"/>
       <c r="M133" s="51"/>
-      <c r="N133" s="123"/>
+      <c r="N133" s="122"/>
       <c r="O133" s="49"/>
       <c r="P133" s="50"/>
       <c r="Q133" s="14"/>
@@ -13773,7 +13766,7 @@
       <c r="K134" s="51"/>
       <c r="L134" s="51"/>
       <c r="M134" s="51"/>
-      <c r="N134" s="123"/>
+      <c r="N134" s="122"/>
       <c r="O134" s="49"/>
       <c r="P134" s="50"/>
       <c r="Q134" s="14"/>
@@ -13815,7 +13808,7 @@
       <c r="K135" s="51"/>
       <c r="L135" s="51"/>
       <c r="M135" s="51"/>
-      <c r="N135" s="123"/>
+      <c r="N135" s="122"/>
       <c r="O135" s="49"/>
       <c r="P135" s="50"/>
       <c r="Q135" s="14"/>
@@ -13857,7 +13850,7 @@
       <c r="K136" s="51"/>
       <c r="L136" s="51"/>
       <c r="M136" s="51"/>
-      <c r="N136" s="123"/>
+      <c r="N136" s="122"/>
       <c r="O136" s="49"/>
       <c r="P136" s="50"/>
       <c r="Q136" s="14"/>
@@ -13899,7 +13892,7 @@
       <c r="K137" s="51"/>
       <c r="L137" s="51"/>
       <c r="M137" s="51"/>
-      <c r="N137" s="123"/>
+      <c r="N137" s="122"/>
       <c r="O137" s="49"/>
       <c r="P137" s="50"/>
       <c r="Q137" s="14"/>
@@ -13941,7 +13934,7 @@
       <c r="K138" s="51"/>
       <c r="L138" s="51"/>
       <c r="M138" s="51"/>
-      <c r="N138" s="123"/>
+      <c r="N138" s="122"/>
       <c r="O138" s="49"/>
       <c r="P138" s="50"/>
       <c r="Q138" s="14"/>
@@ -13983,7 +13976,7 @@
       <c r="K139" s="51"/>
       <c r="L139" s="51"/>
       <c r="M139" s="51"/>
-      <c r="N139" s="123"/>
+      <c r="N139" s="122"/>
       <c r="O139" s="49"/>
       <c r="P139" s="50"/>
       <c r="Q139" s="14"/>
@@ -14025,7 +14018,7 @@
       <c r="K140" s="51"/>
       <c r="L140" s="51"/>
       <c r="M140" s="51"/>
-      <c r="N140" s="123"/>
+      <c r="N140" s="122"/>
       <c r="O140" s="49"/>
       <c r="P140" s="50"/>
       <c r="Q140" s="14"/>
@@ -14067,7 +14060,7 @@
       <c r="K141" s="51"/>
       <c r="L141" s="51"/>
       <c r="M141" s="51"/>
-      <c r="N141" s="123"/>
+      <c r="N141" s="122"/>
       <c r="O141" s="49"/>
       <c r="P141" s="50"/>
       <c r="Q141" s="14"/>
@@ -14109,7 +14102,7 @@
       <c r="K142" s="51"/>
       <c r="L142" s="51"/>
       <c r="M142" s="51"/>
-      <c r="N142" s="123"/>
+      <c r="N142" s="122"/>
       <c r="O142" s="49"/>
       <c r="P142" s="50"/>
       <c r="Q142" s="14"/>
@@ -14151,7 +14144,7 @@
       <c r="K143" s="51"/>
       <c r="L143" s="51"/>
       <c r="M143" s="51"/>
-      <c r="N143" s="123"/>
+      <c r="N143" s="122"/>
       <c r="O143" s="49"/>
       <c r="P143" s="50"/>
       <c r="Q143" s="14"/>
@@ -14193,7 +14186,7 @@
       <c r="K144" s="51"/>
       <c r="L144" s="51"/>
       <c r="M144" s="51"/>
-      <c r="N144" s="123"/>
+      <c r="N144" s="122"/>
       <c r="O144" s="49"/>
       <c r="P144" s="50"/>
       <c r="Q144" s="14"/>
@@ -14235,7 +14228,7 @@
       <c r="K145" s="51"/>
       <c r="L145" s="51"/>
       <c r="M145" s="51"/>
-      <c r="N145" s="123"/>
+      <c r="N145" s="122"/>
       <c r="O145" s="49"/>
       <c r="P145" s="50"/>
       <c r="Q145" s="14"/>
@@ -14277,7 +14270,7 @@
       <c r="K146" s="51"/>
       <c r="L146" s="51"/>
       <c r="M146" s="51"/>
-      <c r="N146" s="123"/>
+      <c r="N146" s="122"/>
       <c r="O146" s="49"/>
       <c r="P146" s="50"/>
       <c r="Q146" s="14"/>
@@ -14319,7 +14312,7 @@
       <c r="K147" s="51"/>
       <c r="L147" s="51"/>
       <c r="M147" s="51"/>
-      <c r="N147" s="123"/>
+      <c r="N147" s="122"/>
       <c r="O147" s="49"/>
       <c r="P147" s="50"/>
       <c r="Q147" s="14"/>
@@ -14361,7 +14354,7 @@
       <c r="K148" s="51"/>
       <c r="L148" s="51"/>
       <c r="M148" s="51"/>
-      <c r="N148" s="123"/>
+      <c r="N148" s="122"/>
       <c r="O148" s="49"/>
       <c r="P148" s="50"/>
       <c r="Q148" s="14"/>
@@ -14403,7 +14396,7 @@
       <c r="K149" s="51"/>
       <c r="L149" s="51"/>
       <c r="M149" s="51"/>
-      <c r="N149" s="123"/>
+      <c r="N149" s="122"/>
       <c r="O149" s="49"/>
       <c r="P149" s="50"/>
       <c r="Q149" s="14"/>
@@ -14445,7 +14438,7 @@
       <c r="K150" s="51"/>
       <c r="L150" s="51"/>
       <c r="M150" s="51"/>
-      <c r="N150" s="123"/>
+      <c r="N150" s="122"/>
       <c r="O150" s="49"/>
       <c r="P150" s="50"/>
       <c r="Q150" s="14"/>
@@ -47666,20 +47659,6 @@
   <sheetProtection selectLockedCells="1"/>
   <dataConsolidate/>
   <mergeCells count="30">
-    <mergeCell ref="L1:Q1"/>
-    <mergeCell ref="AI13:AI14"/>
-    <mergeCell ref="AJ13:AJ14"/>
-    <mergeCell ref="AK13:AK14"/>
-    <mergeCell ref="AC13:AC14"/>
-    <mergeCell ref="AD13:AD14"/>
-    <mergeCell ref="AE13:AE14"/>
-    <mergeCell ref="AF13:AF14"/>
-    <mergeCell ref="AG13:AG14"/>
-    <mergeCell ref="S13:S14"/>
-    <mergeCell ref="T13:T14"/>
-    <mergeCell ref="U13:U14"/>
-    <mergeCell ref="V13:V14"/>
-    <mergeCell ref="AH13:AH14"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="AF6:AH6"/>
     <mergeCell ref="A5:F5"/>
@@ -47696,14 +47675,27 @@
     <mergeCell ref="Y13:Y14"/>
     <mergeCell ref="Z13:Z14"/>
     <mergeCell ref="AA13:AA14"/>
+    <mergeCell ref="L1:Q1"/>
+    <mergeCell ref="AI13:AI14"/>
+    <mergeCell ref="AJ13:AJ14"/>
+    <mergeCell ref="AK13:AK14"/>
+    <mergeCell ref="AC13:AC14"/>
+    <mergeCell ref="AD13:AD14"/>
+    <mergeCell ref="AE13:AE14"/>
+    <mergeCell ref="AF13:AF14"/>
+    <mergeCell ref="AG13:AG14"/>
+    <mergeCell ref="S13:S14"/>
+    <mergeCell ref="T13:T14"/>
+    <mergeCell ref="U13:U14"/>
+    <mergeCell ref="V13:V14"/>
+    <mergeCell ref="AH13:AH14"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
-  <dataValidations count="5">
+  <dataValidations count="4">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Click and enter a value from the list" sqref="N151" xr:uid="{BB65F868-0ACC-C246-89D1-E55DF7794A56}"/>
     <dataValidation allowBlank="1" showErrorMessage="1" prompt="Click and enter a value from list" sqref="X15:X150" xr:uid="{889C3BDC-78B4-6648-9AA3-AA7E82A3B939}"/>
     <dataValidation allowBlank="1" showErrorMessage="1" sqref="N15" xr:uid="{C8359500-4E3F-5444-8C3A-7A9C12536A5E}"/>
-    <dataValidation allowBlank="1" showErrorMessage="1" prompt="Click and enter a value from the list" sqref="N16:N150 O15:O150" xr:uid="{9CAFE2A0-7485-1B45-821B-616F3E6537DA}"/>
-    <dataValidation allowBlank="1" showErrorMessage="1" prompt="Click and enter a value from the list" sqref="I15:I150" xr:uid="{EB58CC99-0E9B-A94A-9E5D-26F4AF211845}"/>
+    <dataValidation allowBlank="1" showErrorMessage="1" prompt="Click and enter a value from the list" sqref="N16:N150 O15:O150 I15:I150" xr:uid="{9CAFE2A0-7485-1B45-821B-616F3E6537DA}"/>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="A5" r:id="rId1" display="detailed information about variant types and information required can be found here " xr:uid="{F6DA5A5D-A5B6-E94D-A379-D37068779481}"/>
@@ -47775,17 +47767,17 @@
           </x14:formula1>
           <xm:sqref>H15:H151 I151</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BB544530-0A53-3B44-8698-63431308BE25}">
-          <x14:formula1>
-            <xm:f>Lookups!$I$2:$I$5</xm:f>
-          </x14:formula1>
-          <xm:sqref>W15:W152</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FED8FDE5-1EAF-2C42-96F0-6CE276B9A504}">
           <x14:formula1>
             <xm:f>Lookups!$G$2:$G$33</xm:f>
           </x14:formula1>
           <xm:sqref>Z15:Z150</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BB544530-0A53-3B44-8698-63431308BE25}">
+          <x14:formula1>
+            <xm:f>Lookups!$I$2:$I$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>W17:W152 W15</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/home/zf_info/zebraShareSubmission.xlsx
+++ b/home/zf_info/zebraShareSubmission.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/administrator/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pritamani/wfh16/releases/1120/ZFIN_WWW/home/zf_info/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C177438D-F0ED-3D4C-98F7-4280140579FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{93A2E3AC-096C-544B-8AF6-21E6F8B955AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5320" yWindow="460" windowWidth="31720" windowHeight="17340" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5320" yWindow="460" windowWidth="45880" windowHeight="26540" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -2912,6 +2912,50 @@
     <xf numFmtId="0" fontId="26" fillId="7" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2920,12 +2964,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2944,19 +2982,10 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2975,35 +3004,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -4424,9 +4424,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:NB1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AD7" sqref="AD7"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4481,14 +4479,14 @@
       <c r="I1" s="73"/>
       <c r="J1" s="75"/>
       <c r="K1" s="75"/>
-      <c r="L1" s="135" t="s">
+      <c r="L1" s="131" t="s">
         <v>178</v>
       </c>
-      <c r="M1" s="136"/>
-      <c r="N1" s="136"/>
-      <c r="O1" s="136"/>
-      <c r="P1" s="136"/>
-      <c r="Q1" s="136"/>
+      <c r="M1" s="132"/>
+      <c r="N1" s="132"/>
+      <c r="O1" s="132"/>
+      <c r="P1" s="132"/>
+      <c r="Q1" s="132"/>
       <c r="U1" s="77"/>
       <c r="AN1" s="78"/>
       <c r="AO1" s="78"/>
@@ -4879,14 +4877,14 @@
       <c r="U4" s="77"/>
     </row>
     <row r="5" spans="1:366" s="84" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A5" s="135" t="s">
+      <c r="A5" s="131" t="s">
         <v>223</v>
       </c>
-      <c r="B5" s="136"/>
-      <c r="C5" s="136"/>
-      <c r="D5" s="136"/>
-      <c r="E5" s="136"/>
-      <c r="F5" s="136"/>
+      <c r="B5" s="132"/>
+      <c r="C5" s="132"/>
+      <c r="D5" s="132"/>
+      <c r="E5" s="132"/>
+      <c r="F5" s="132"/>
       <c r="G5" s="83"/>
       <c r="H5" s="86"/>
       <c r="J5" s="86"/>
@@ -5233,11 +5231,11 @@
       <c r="C6" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="131" t="s">
+      <c r="D6" s="145" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="132"/>
-      <c r="F6" s="132"/>
+      <c r="E6" s="146"/>
+      <c r="F6" s="146"/>
       <c r="G6" s="20" t="s">
         <v>7</v>
       </c>
@@ -5319,11 +5317,11 @@
       <c r="AG6" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="AH6" s="133" t="s">
+      <c r="AH6" s="147" t="s">
         <v>126</v>
       </c>
-      <c r="AI6" s="134"/>
-      <c r="AJ6" s="134"/>
+      <c r="AI6" s="148"/>
+      <c r="AJ6" s="148"/>
       <c r="AK6" s="15" t="s">
         <v>87</v>
       </c>
@@ -7993,13 +7991,13 @@
       <c r="NB12"/>
     </row>
     <row r="13" spans="1:366" s="19" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A13" s="139" t="s">
+      <c r="A13" s="151" t="s">
         <v>229</v>
       </c>
-      <c r="B13" s="141" t="s">
+      <c r="B13" s="153" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="141" t="s">
+      <c r="C13" s="153" t="s">
         <v>103</v>
       </c>
       <c r="D13" s="11" t="s">
@@ -8014,16 +8012,16 @@
       <c r="G13" s="91" t="s">
         <v>106</v>
       </c>
-      <c r="H13" s="137" t="s">
+      <c r="H13" s="149" t="s">
         <v>59</v>
       </c>
       <c r="I13" s="100" t="s">
         <v>157</v>
       </c>
-      <c r="J13" s="141" t="s">
+      <c r="J13" s="153" t="s">
         <v>148</v>
       </c>
-      <c r="K13" s="141">
+      <c r="K13" s="153">
         <v>10</v>
       </c>
       <c r="L13" s="95" t="s">
@@ -8038,72 +8036,72 @@
       <c r="O13" s="97" t="s">
         <v>196</v>
       </c>
-      <c r="P13" s="143" t="s">
+      <c r="P13" s="135" t="s">
         <v>143</v>
       </c>
-      <c r="Q13" s="145" t="s">
+      <c r="Q13" s="155" t="s">
         <v>206</v>
       </c>
-      <c r="R13" s="147" t="s">
+      <c r="R13" s="139" t="s">
         <v>34</v>
       </c>
-      <c r="S13" s="156" t="s">
+      <c r="S13" s="137" t="s">
         <v>129</v>
       </c>
-      <c r="T13" s="147" t="s">
+      <c r="T13" s="139" t="s">
         <v>28</v>
       </c>
-      <c r="U13" s="159" t="s">
+      <c r="U13" s="141" t="s">
         <v>28</v>
       </c>
-      <c r="V13" s="161" t="s">
+      <c r="V13" s="143" t="s">
         <v>28</v>
       </c>
       <c r="W13" s="114" t="s">
         <v>35</v>
       </c>
-      <c r="X13" s="141" t="s">
+      <c r="X13" s="153" t="s">
         <v>107</v>
       </c>
-      <c r="Y13" s="150" t="s">
+      <c r="Y13" s="159" t="s">
         <v>29</v>
       </c>
-      <c r="Z13" s="147" t="s">
+      <c r="Z13" s="139" t="s">
         <v>30</v>
       </c>
-      <c r="AA13" s="152" t="s">
+      <c r="AA13" s="161" t="s">
         <v>130</v>
       </c>
       <c r="AB13" s="107" t="s">
         <v>163</v>
       </c>
       <c r="AC13" s="107"/>
-      <c r="AD13" s="143" t="s">
+      <c r="AD13" s="135" t="s">
         <v>155</v>
       </c>
       <c r="AE13" s="124"/>
-      <c r="AF13" s="143" t="s">
+      <c r="AF13" s="135" t="s">
         <v>155</v>
       </c>
-      <c r="AG13" s="143" t="s">
+      <c r="AG13" s="135" t="s">
         <v>155</v>
       </c>
-      <c r="AH13" s="143" t="s">
+      <c r="AH13" s="135" t="s">
         <v>155</v>
       </c>
-      <c r="AI13" s="143" t="s">
+      <c r="AI13" s="135" t="s">
         <v>155</v>
       </c>
-      <c r="AJ13" s="143" t="s">
+      <c r="AJ13" s="135" t="s">
         <v>155</v>
       </c>
-      <c r="AK13" s="154" t="s">
+      <c r="AK13" s="133" t="s">
         <v>164</v>
       </c>
-      <c r="AL13" s="154" t="s">
+      <c r="AL13" s="133" t="s">
         <v>165</v>
       </c>
-      <c r="AM13" s="143" t="s">
+      <c r="AM13" s="135" t="s">
         <v>155</v>
       </c>
       <c r="AN13"/>
@@ -8435,9 +8433,9 @@
       <c r="NB13"/>
     </row>
     <row r="14" spans="1:366" s="64" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A14" s="140"/>
-      <c r="B14" s="142"/>
-      <c r="C14" s="142"/>
+      <c r="A14" s="152"/>
+      <c r="B14" s="154"/>
+      <c r="C14" s="154"/>
       <c r="D14" s="102" t="s">
         <v>40</v>
       </c>
@@ -8450,12 +8448,12 @@
       <c r="G14" s="101" t="s">
         <v>106</v>
       </c>
-      <c r="H14" s="138"/>
+      <c r="H14" s="150"/>
       <c r="I14" s="99" t="s">
         <v>154</v>
       </c>
-      <c r="J14" s="142"/>
-      <c r="K14" s="142"/>
+      <c r="J14" s="154"/>
+      <c r="K14" s="154"/>
       <c r="L14" s="98" t="s">
         <v>199</v>
       </c>
@@ -8468,30 +8466,30 @@
       <c r="O14" s="99" t="s">
         <v>155</v>
       </c>
-      <c r="P14" s="144"/>
-      <c r="Q14" s="146"/>
-      <c r="R14" s="148"/>
-      <c r="S14" s="157"/>
-      <c r="T14" s="158"/>
-      <c r="U14" s="160"/>
-      <c r="V14" s="162"/>
+      <c r="P14" s="136"/>
+      <c r="Q14" s="156"/>
+      <c r="R14" s="157"/>
+      <c r="S14" s="138"/>
+      <c r="T14" s="140"/>
+      <c r="U14" s="142"/>
+      <c r="V14" s="144"/>
       <c r="W14" s="128"/>
-      <c r="X14" s="149"/>
-      <c r="Y14" s="151"/>
-      <c r="Z14" s="148"/>
-      <c r="AA14" s="153"/>
+      <c r="X14" s="158"/>
+      <c r="Y14" s="160"/>
+      <c r="Z14" s="157"/>
+      <c r="AA14" s="162"/>
       <c r="AB14" s="108"/>
       <c r="AC14" s="108"/>
-      <c r="AD14" s="144"/>
+      <c r="AD14" s="136"/>
       <c r="AE14" s="125"/>
-      <c r="AF14" s="144"/>
-      <c r="AG14" s="144"/>
-      <c r="AH14" s="144"/>
-      <c r="AI14" s="144"/>
-      <c r="AJ14" s="144"/>
-      <c r="AK14" s="155"/>
-      <c r="AL14" s="155"/>
-      <c r="AM14" s="144"/>
+      <c r="AF14" s="136"/>
+      <c r="AG14" s="136"/>
+      <c r="AH14" s="136"/>
+      <c r="AI14" s="136"/>
+      <c r="AJ14" s="136"/>
+      <c r="AK14" s="134"/>
+      <c r="AL14" s="134"/>
+      <c r="AM14" s="136"/>
       <c r="AN14" s="55"/>
       <c r="AO14" s="55"/>
       <c r="AP14" s="55"/>
@@ -49699,20 +49697,6 @@
   <sheetProtection selectLockedCells="1"/>
   <dataConsolidate/>
   <mergeCells count="30">
-    <mergeCell ref="L1:Q1"/>
-    <mergeCell ref="AK13:AK14"/>
-    <mergeCell ref="AL13:AL14"/>
-    <mergeCell ref="AM13:AM14"/>
-    <mergeCell ref="AD13:AD14"/>
-    <mergeCell ref="AF13:AF14"/>
-    <mergeCell ref="AG13:AG14"/>
-    <mergeCell ref="AH13:AH14"/>
-    <mergeCell ref="AI13:AI14"/>
-    <mergeCell ref="S13:S14"/>
-    <mergeCell ref="T13:T14"/>
-    <mergeCell ref="U13:U14"/>
-    <mergeCell ref="V13:V14"/>
-    <mergeCell ref="AJ13:AJ14"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="AH6:AJ6"/>
     <mergeCell ref="A5:F5"/>
@@ -49729,6 +49713,20 @@
     <mergeCell ref="Y13:Y14"/>
     <mergeCell ref="Z13:Z14"/>
     <mergeCell ref="AA13:AA14"/>
+    <mergeCell ref="L1:Q1"/>
+    <mergeCell ref="AK13:AK14"/>
+    <mergeCell ref="AL13:AL14"/>
+    <mergeCell ref="AM13:AM14"/>
+    <mergeCell ref="AD13:AD14"/>
+    <mergeCell ref="AF13:AF14"/>
+    <mergeCell ref="AG13:AG14"/>
+    <mergeCell ref="AH13:AH14"/>
+    <mergeCell ref="AI13:AI14"/>
+    <mergeCell ref="S13:S14"/>
+    <mergeCell ref="T13:T14"/>
+    <mergeCell ref="U13:U14"/>
+    <mergeCell ref="V13:V14"/>
+    <mergeCell ref="AJ13:AJ14"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <dataValidations count="4">
